--- a/BackTest/2019-10-10 BackTest ARN.xlsx
+++ b/BackTest/2019-10-10 BackTest ARN.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>11</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>-20</v>
+      </c>
       <c r="L12" t="n">
         <v>281</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>13</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>9.090909090909092</v>
+      </c>
       <c r="L13" t="n">
         <v>281</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>14</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>16.66666666666666</v>
+      </c>
       <c r="L14" t="n">
         <v>281.2</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>16</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>7.692307692307693</v>
+      </c>
       <c r="L15" t="n">
         <v>281.2</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>17</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>-16.66666666666666</v>
+      </c>
       <c r="L16" t="n">
         <v>281.2</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>17</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>-16.66666666666666</v>
+      </c>
       <c r="L17" t="n">
         <v>281</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>17</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
       <c r="L18" t="n">
         <v>280.8</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>21</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>28.57142857142857</v>
+      </c>
       <c r="L19" t="n">
         <v>281.2</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>26</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>-17.64705882352941</v>
+      </c>
       <c r="L20" t="n">
         <v>281.1</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>26</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>-6.666666666666667</v>
+      </c>
       <c r="L21" t="n">
         <v>280.8</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>27</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>-28.57142857142857</v>
+      </c>
       <c r="L22" t="n">
         <v>280.6</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>27</v>
       </c>
       <c r="K23" t="n">
-        <v>-15.38461538461539</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L23" t="n">
         <v>280.2</v>
@@ -1466,7 +1488,7 @@
         <v>28</v>
       </c>
       <c r="K24" t="n">
-        <v>-7.692307692307693</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L24" t="n">
         <v>279.8</v>
@@ -1515,7 +1537,7 @@
         <v>28</v>
       </c>
       <c r="K25" t="n">
-        <v>-7.692307692307693</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L25" t="n">
         <v>279.6</v>
@@ -1564,7 +1586,7 @@
         <v>29</v>
       </c>
       <c r="K26" t="n">
-        <v>-7.692307692307693</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L26" t="n">
         <v>279.4</v>
@@ -1662,7 +1684,7 @@
         <v>30</v>
       </c>
       <c r="K28" t="n">
-        <v>-12</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L28" t="n">
         <v>279.1</v>
@@ -1711,7 +1733,7 @@
         <v>30</v>
       </c>
       <c r="K29" t="n">
-        <v>-4.347826086956522</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>278.6</v>
@@ -1760,7 +1782,7 @@
         <v>33</v>
       </c>
       <c r="K30" t="n">
-        <v>7.692307692307693</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L30" t="n">
         <v>278.9</v>
@@ -1809,7 +1831,7 @@
         <v>34</v>
       </c>
       <c r="K31" t="n">
-        <v>-4</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L31" t="n">
         <v>279.1</v>
@@ -1860,7 +1882,7 @@
         <v>34</v>
       </c>
       <c r="K32" t="n">
-        <v>4.347826086956522</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L32" t="n">
         <v>279.4</v>
@@ -1911,7 +1933,7 @@
         <v>34</v>
       </c>
       <c r="K33" t="n">
-        <v>-4.761904761904762</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L33" t="n">
         <v>279.7</v>
@@ -1962,7 +1984,7 @@
         <v>34</v>
       </c>
       <c r="K34" t="n">
-        <v>-10</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L34" t="n">
         <v>279.9</v>
@@ -2013,7 +2035,7 @@
         <v>40</v>
       </c>
       <c r="K35" t="n">
-        <v>25</v>
+        <v>81.81818181818183</v>
       </c>
       <c r="L35" t="n">
         <v>280.7</v>
@@ -2064,7 +2086,7 @@
         <v>40</v>
       </c>
       <c r="K36" t="n">
-        <v>30.43478260869566</v>
+        <v>81.81818181818183</v>
       </c>
       <c r="L36" t="n">
         <v>281.6</v>
@@ -2115,7 +2137,7 @@
         <v>41</v>
       </c>
       <c r="K37" t="n">
-        <v>25</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="L37" t="n">
         <v>282.4</v>
@@ -2166,7 +2188,7 @@
         <v>42</v>
       </c>
       <c r="K38" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="L38" t="n">
         <v>283</v>
@@ -2217,7 +2239,7 @@
         <v>42</v>
       </c>
       <c r="K39" t="n">
-        <v>4.761904761904762</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L39" t="n">
         <v>283.6</v>
@@ -2268,7 +2290,7 @@
         <v>42</v>
       </c>
       <c r="K40" t="n">
-        <v>37.5</v>
+        <v>50</v>
       </c>
       <c r="L40" t="n">
         <v>283.9</v>
@@ -2319,7 +2341,7 @@
         <v>44</v>
       </c>
       <c r="K41" t="n">
-        <v>22.22222222222222</v>
+        <v>20</v>
       </c>
       <c r="L41" t="n">
         <v>284.1</v>
@@ -2370,7 +2392,7 @@
         <v>45</v>
       </c>
       <c r="K42" t="n">
-        <v>33.33333333333333</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L42" t="n">
         <v>284.4</v>
@@ -2421,7 +2443,7 @@
         <v>45</v>
       </c>
       <c r="K43" t="n">
-        <v>33.33333333333333</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L43" t="n">
         <v>284.7</v>
@@ -2472,7 +2494,7 @@
         <v>45</v>
       </c>
       <c r="K44" t="n">
-        <v>29.41176470588236</v>
+        <v>-60</v>
       </c>
       <c r="L44" t="n">
         <v>285</v>
@@ -2523,7 +2545,7 @@
         <v>46</v>
       </c>
       <c r="K45" t="n">
-        <v>22.22222222222222</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L45" t="n">
         <v>284.6</v>
@@ -2574,7 +2596,7 @@
         <v>47</v>
       </c>
       <c r="K46" t="n">
-        <v>33.33333333333333</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L46" t="n">
         <v>284.3</v>
@@ -2625,7 +2647,7 @@
         <v>48</v>
       </c>
       <c r="K47" t="n">
-        <v>26.31578947368421</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L47" t="n">
         <v>284</v>
@@ -2676,7 +2698,7 @@
         <v>48</v>
       </c>
       <c r="K48" t="n">
-        <v>22.22222222222222</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L48" t="n">
         <v>283.8</v>
@@ -2727,7 +2749,7 @@
         <v>49</v>
       </c>
       <c r="K49" t="n">
-        <v>15.78947368421053</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L49" t="n">
         <v>283.5</v>
@@ -2778,7 +2800,7 @@
         <v>52</v>
       </c>
       <c r="K50" t="n">
-        <v>15.78947368421053</v>
+        <v>25</v>
       </c>
       <c r="L50" t="n">
         <v>283.5</v>
@@ -2829,7 +2851,7 @@
         <v>54</v>
       </c>
       <c r="K51" t="n">
-        <v>30</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L51" t="n">
         <v>283.9</v>
@@ -2880,7 +2902,7 @@
         <v>57</v>
       </c>
       <c r="K52" t="n">
-        <v>13.04347826086956</v>
+        <v>0</v>
       </c>
       <c r="L52" t="n">
         <v>283.9</v>
@@ -2931,7 +2953,7 @@
         <v>58</v>
       </c>
       <c r="K53" t="n">
-        <v>16.66666666666666</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L53" t="n">
         <v>284</v>
@@ -2982,7 +3004,7 @@
         <v>59</v>
       </c>
       <c r="K54" t="n">
-        <v>12</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L54" t="n">
         <v>284</v>
@@ -3033,7 +3055,7 @@
         <v>59</v>
       </c>
       <c r="K55" t="n">
-        <v>-15.78947368421053</v>
+        <v>0</v>
       </c>
       <c r="L55" t="n">
         <v>284.1</v>
@@ -3084,7 +3106,7 @@
         <v>59</v>
       </c>
       <c r="K56" t="n">
-        <v>-15.78947368421053</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L56" t="n">
         <v>284.1</v>
@@ -3135,7 +3157,7 @@
         <v>62</v>
       </c>
       <c r="K57" t="n">
-        <v>4.761904761904762</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L57" t="n">
         <v>284.5</v>
@@ -3186,7 +3208,7 @@
         <v>65</v>
       </c>
       <c r="K58" t="n">
-        <v>-4.347826086956522</v>
+        <v>12.5</v>
       </c>
       <c r="L58" t="n">
         <v>284.6</v>
@@ -3237,7 +3259,7 @@
         <v>70</v>
       </c>
       <c r="K59" t="n">
-        <v>14.28571428571428</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="L59" t="n">
         <v>285.3</v>
@@ -3288,7 +3310,7 @@
         <v>71</v>
       </c>
       <c r="K60" t="n">
-        <v>10.3448275862069</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L60" t="n">
         <v>285.6</v>
@@ -3339,7 +3361,7 @@
         <v>72</v>
       </c>
       <c r="K61" t="n">
-        <v>21.42857142857143</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L61" t="n">
         <v>285.8</v>
@@ -3390,7 +3412,7 @@
         <v>76</v>
       </c>
       <c r="K62" t="n">
-        <v>29.03225806451613</v>
+        <v>44.44444444444444</v>
       </c>
       <c r="L62" t="n">
         <v>286.7</v>
@@ -3441,7 +3463,7 @@
         <v>77</v>
       </c>
       <c r="K63" t="n">
-        <v>31.25</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L63" t="n">
         <v>287.6</v>
@@ -3492,7 +3514,7 @@
         <v>79</v>
       </c>
       <c r="K64" t="n">
-        <v>35.29411764705883</v>
+        <v>60</v>
       </c>
       <c r="L64" t="n">
         <v>288.8</v>
@@ -3543,7 +3565,7 @@
         <v>79</v>
       </c>
       <c r="K65" t="n">
-        <v>39.39393939393939</v>
+        <v>60</v>
       </c>
       <c r="L65" t="n">
         <v>290</v>
@@ -3594,7 +3616,7 @@
         <v>84</v>
       </c>
       <c r="K66" t="n">
-        <v>18.91891891891892</v>
+        <v>18.18181818181818</v>
       </c>
       <c r="L66" t="n">
         <v>290.7</v>
@@ -3645,7 +3667,7 @@
         <v>88</v>
       </c>
       <c r="K67" t="n">
-        <v>30</v>
+        <v>47.82608695652174</v>
       </c>
       <c r="L67" t="n">
         <v>291.5</v>
@@ -3696,7 +3718,7 @@
         <v>88</v>
       </c>
       <c r="K68" t="n">
-        <v>30</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L68" t="n">
         <v>292.6</v>
@@ -3747,7 +3769,7 @@
         <v>88</v>
       </c>
       <c r="K69" t="n">
-        <v>33.33333333333333</v>
+        <v>41.17647058823529</v>
       </c>
       <c r="L69" t="n">
         <v>293.2</v>
@@ -3798,7 +3820,7 @@
         <v>88</v>
       </c>
       <c r="K70" t="n">
-        <v>27.77777777777778</v>
+        <v>37.5</v>
       </c>
       <c r="L70" t="n">
         <v>293.9</v>
@@ -3849,7 +3871,7 @@
         <v>91</v>
       </c>
       <c r="K71" t="n">
-        <v>13.51351351351351</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L71" t="n">
         <v>294.2</v>
@@ -3900,7 +3922,7 @@
         <v>92</v>
       </c>
       <c r="K72" t="n">
-        <v>25.71428571428571</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L72" t="n">
         <v>294.2</v>
@@ -3951,7 +3973,7 @@
         <v>92</v>
       </c>
       <c r="K73" t="n">
-        <v>23.52941176470588</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L73" t="n">
         <v>294.1</v>
@@ -4002,7 +4024,7 @@
         <v>92</v>
       </c>
       <c r="K74" t="n">
-        <v>27.27272727272727</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L74" t="n">
         <v>293.8</v>
@@ -4053,7 +4075,7 @@
         <v>92</v>
       </c>
       <c r="K75" t="n">
-        <v>27.27272727272727</v>
+        <v>25</v>
       </c>
       <c r="L75" t="n">
         <v>293.5</v>
@@ -4104,7 +4126,7 @@
         <v>94</v>
       </c>
       <c r="K76" t="n">
-        <v>31.42857142857143</v>
+        <v>0</v>
       </c>
       <c r="L76" t="n">
         <v>293.9</v>
@@ -4155,7 +4177,7 @@
         <v>97</v>
       </c>
       <c r="K77" t="n">
-        <v>14.28571428571428</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L77" t="n">
         <v>293.6</v>
@@ -4206,7 +4228,7 @@
         <v>97</v>
       </c>
       <c r="K78" t="n">
-        <v>25</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L78" t="n">
         <v>293.3</v>
@@ -4257,7 +4279,7 @@
         <v>97</v>
       </c>
       <c r="K79" t="n">
-        <v>11.11111111111111</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L79" t="n">
         <v>293</v>
@@ -4308,7 +4330,7 @@
         <v>98</v>
       </c>
       <c r="K80" t="n">
-        <v>11.11111111111111</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L80" t="n">
         <v>292.6</v>
@@ -4359,7 +4381,7 @@
         <v>98</v>
       </c>
       <c r="K81" t="n">
-        <v>7.692307692307693</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L81" t="n">
         <v>292.5</v>
@@ -4410,7 +4432,7 @@
         <v>102</v>
       </c>
       <c r="K82" t="n">
-        <v>-23.07692307692308</v>
+        <v>-60</v>
       </c>
       <c r="L82" t="n">
         <v>291.9</v>
@@ -4461,7 +4483,7 @@
         <v>104</v>
       </c>
       <c r="K83" t="n">
-        <v>-18.51851851851852</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L83" t="n">
         <v>291.5</v>
@@ -4512,7 +4534,7 @@
         <v>106</v>
       </c>
       <c r="K84" t="n">
-        <v>-33.33333333333333</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L84" t="n">
         <v>290.9</v>
@@ -4563,7 +4585,7 @@
         <v>106</v>
       </c>
       <c r="K85" t="n">
-        <v>-33.33333333333333</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L85" t="n">
         <v>290.3</v>
@@ -4614,7 +4636,7 @@
         <v>107</v>
       </c>
       <c r="K86" t="n">
-        <v>-13.04347826086956</v>
+        <v>-40</v>
       </c>
       <c r="L86" t="n">
         <v>289.6</v>
@@ -4665,7 +4687,7 @@
         <v>109</v>
       </c>
       <c r="K87" t="n">
-        <v>-23.80952380952381</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L87" t="n">
         <v>289.4</v>
@@ -4716,7 +4738,7 @@
         <v>109</v>
       </c>
       <c r="K88" t="n">
-        <v>-23.80952380952381</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L88" t="n">
         <v>289.2</v>
@@ -4767,7 +4789,7 @@
         <v>110</v>
       </c>
       <c r="K89" t="n">
-        <v>-27.27272727272727</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L89" t="n">
         <v>288.9</v>
@@ -4818,7 +4840,7 @@
         <v>110</v>
       </c>
       <c r="K90" t="n">
-        <v>-27.27272727272727</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L90" t="n">
         <v>288.7</v>
@@ -4869,7 +4891,7 @@
         <v>110</v>
       </c>
       <c r="K91" t="n">
-        <v>-15.78947368421053</v>
+        <v>25</v>
       </c>
       <c r="L91" t="n">
         <v>288.5</v>
@@ -4920,7 +4942,7 @@
         <v>110</v>
       </c>
       <c r="K92" t="n">
-        <v>-22.22222222222222</v>
+        <v>0</v>
       </c>
       <c r="L92" t="n">
         <v>288.7</v>
@@ -4971,7 +4993,7 @@
         <v>112</v>
       </c>
       <c r="K93" t="n">
-        <v>-30</v>
+        <v>0</v>
       </c>
       <c r="L93" t="n">
         <v>288.5</v>
@@ -5022,7 +5044,7 @@
         <v>112</v>
       </c>
       <c r="K94" t="n">
-        <v>-30</v>
+        <v>0</v>
       </c>
       <c r="L94" t="n">
         <v>288.5</v>
@@ -5073,7 +5095,7 @@
         <v>112</v>
       </c>
       <c r="K95" t="n">
-        <v>-30</v>
+        <v>-20</v>
       </c>
       <c r="L95" t="n">
         <v>288.5</v>
@@ -5124,7 +5146,7 @@
         <v>112</v>
       </c>
       <c r="K96" t="n">
-        <v>-44.44444444444444</v>
+        <v>-100</v>
       </c>
       <c r="L96" t="n">
         <v>288.4</v>
@@ -5175,7 +5197,7 @@
         <v>112</v>
       </c>
       <c r="K97" t="n">
-        <v>-33.33333333333333</v>
+        <v>-100</v>
       </c>
       <c r="L97" t="n">
         <v>288.1</v>
@@ -5226,7 +5248,7 @@
         <v>113</v>
       </c>
       <c r="K98" t="n">
-        <v>-25</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L98" t="n">
         <v>287.9</v>
@@ -5277,7 +5299,7 @@
         <v>115</v>
       </c>
       <c r="K99" t="n">
-        <v>-11.11111111111111</v>
+        <v>20</v>
       </c>
       <c r="L99" t="n">
         <v>288</v>
@@ -5328,7 +5350,7 @@
         <v>117</v>
       </c>
       <c r="K100" t="n">
-        <v>-15.78947368421053</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L100" t="n">
         <v>287.9</v>
@@ -5379,7 +5401,7 @@
         <v>119</v>
       </c>
       <c r="K101" t="n">
-        <v>-4.761904761904762</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L101" t="n">
         <v>288</v>
@@ -5430,7 +5452,7 @@
         <v>124</v>
       </c>
       <c r="K102" t="n">
-        <v>36.36363636363637</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L102" t="n">
         <v>288.6</v>
@@ -5481,7 +5503,7 @@
         <v>125</v>
       </c>
       <c r="K103" t="n">
-        <v>33.33333333333333</v>
+        <v>69.23076923076923</v>
       </c>
       <c r="L103" t="n">
         <v>289.5</v>
@@ -5532,7 +5554,7 @@
         <v>129</v>
       </c>
       <c r="K104" t="n">
-        <v>56.52173913043478</v>
+        <v>76.47058823529412</v>
       </c>
       <c r="L104" t="n">
         <v>290.8</v>
@@ -5583,7 +5605,7 @@
         <v>134</v>
       </c>
       <c r="K105" t="n">
-        <v>64.28571428571429</v>
+        <v>81.81818181818183</v>
       </c>
       <c r="L105" t="n">
         <v>292.6</v>
@@ -5634,7 +5656,7 @@
         <v>138</v>
       </c>
       <c r="K106" t="n">
-        <v>67.74193548387096</v>
+        <v>84.61538461538461</v>
       </c>
       <c r="L106" t="n">
         <v>294.8</v>
@@ -5685,7 +5707,7 @@
         <v>139</v>
       </c>
       <c r="K107" t="n">
-        <v>60</v>
+        <v>76.92307692307693</v>
       </c>
       <c r="L107" t="n">
         <v>296.9</v>
@@ -5736,7 +5758,7 @@
         <v>141</v>
       </c>
       <c r="K108" t="n">
-        <v>62.5</v>
+        <v>76.92307692307693</v>
       </c>
       <c r="L108" t="n">
         <v>299.1</v>
@@ -5787,7 +5809,7 @@
         <v>146</v>
       </c>
       <c r="K109" t="n">
-        <v>72.22222222222221</v>
+        <v>93.10344827586206</v>
       </c>
       <c r="L109" t="n">
         <v>301.6</v>
@@ -5838,7 +5860,7 @@
         <v>150</v>
       </c>
       <c r="K110" t="n">
-        <v>75</v>
+        <v>93.54838709677419</v>
       </c>
       <c r="L110" t="n">
         <v>304.7</v>
@@ -5889,7 +5911,7 @@
         <v>150</v>
       </c>
       <c r="K111" t="n">
-        <v>75</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="L111" t="n">
         <v>307.6</v>
@@ -5940,7 +5962,7 @@
         <v>151</v>
       </c>
       <c r="K112" t="n">
-        <v>70.73170731707317</v>
+        <v>84.61538461538461</v>
       </c>
       <c r="L112" t="n">
         <v>309.9</v>
@@ -5991,7 +6013,7 @@
         <v>156</v>
       </c>
       <c r="K113" t="n">
-        <v>59.09090909090909</v>
+        <v>48.14814814814815</v>
       </c>
       <c r="L113" t="n">
         <v>311.6</v>
@@ -6042,7 +6064,7 @@
         <v>159</v>
       </c>
       <c r="K114" t="n">
-        <v>61.70212765957447</v>
+        <v>44</v>
       </c>
       <c r="L114" t="n">
         <v>313.2</v>
@@ -6093,7 +6115,7 @@
         <v>165</v>
       </c>
       <c r="K115" t="n">
-        <v>43.39622641509434</v>
+        <v>3.703703703703703</v>
       </c>
       <c r="L115" t="n">
         <v>313.7</v>
@@ -6144,7 +6166,7 @@
         <v>169</v>
       </c>
       <c r="K116" t="n">
-        <v>33.33333333333333</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L116" t="n">
         <v>313.4</v>
@@ -6195,7 +6217,7 @@
         <v>170</v>
       </c>
       <c r="K117" t="n">
-        <v>31.03448275862069</v>
+        <v>-17.24137931034483</v>
       </c>
       <c r="L117" t="n">
         <v>313.1</v>
@@ -6246,7 +6268,7 @@
         <v>175</v>
       </c>
       <c r="K118" t="n">
-        <v>35.48387096774194</v>
+        <v>-17.24137931034483</v>
       </c>
       <c r="L118" t="n">
         <v>313.1</v>
@@ -6297,7 +6319,7 @@
         <v>175</v>
       </c>
       <c r="K119" t="n">
-        <v>33.33333333333333</v>
+        <v>-36</v>
       </c>
       <c r="L119" t="n">
         <v>312.6</v>
@@ -6348,7 +6370,7 @@
         <v>178</v>
       </c>
       <c r="K120" t="n">
-        <v>31.14754098360656</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L120" t="n">
         <v>311.4</v>
@@ -6399,7 +6421,7 @@
         <v>185</v>
       </c>
       <c r="K121" t="n">
-        <v>15.15151515151515</v>
+        <v>-52.94117647058824</v>
       </c>
       <c r="L121" t="n">
         <v>309.5</v>
@@ -6450,7 +6472,7 @@
         <v>188</v>
       </c>
       <c r="K122" t="n">
-        <v>12.5</v>
+        <v>-31.25</v>
       </c>
       <c r="L122" t="n">
         <v>308</v>
@@ -6501,7 +6523,7 @@
         <v>192</v>
       </c>
       <c r="K123" t="n">
-        <v>16.41791044776119</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L123" t="n">
         <v>307.4</v>
@@ -6552,7 +6574,7 @@
         <v>195</v>
       </c>
       <c r="K124" t="n">
-        <v>15.15151515151515</v>
+        <v>0</v>
       </c>
       <c r="L124" t="n">
         <v>306.8</v>
@@ -6603,7 +6625,7 @@
         <v>195</v>
       </c>
       <c r="K125" t="n">
-        <v>8.196721311475409</v>
+        <v>15.38461538461539</v>
       </c>
       <c r="L125" t="n">
         <v>306.8</v>
@@ -6654,7 +6676,7 @@
         <v>205</v>
       </c>
       <c r="K126" t="n">
-        <v>-13.43283582089552</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L126" t="n">
         <v>306.2</v>
@@ -6705,7 +6727,7 @@
         <v>215</v>
       </c>
       <c r="K127" t="n">
-        <v>2.631578947368421</v>
+        <v>0</v>
       </c>
       <c r="L127" t="n">
         <v>306.7</v>
@@ -6756,7 +6778,7 @@
         <v>221</v>
       </c>
       <c r="K128" t="n">
-        <v>7.5</v>
+        <v>13.04347826086956</v>
       </c>
       <c r="L128" t="n">
         <v>307.3</v>
@@ -6807,7 +6829,7 @@
         <v>223</v>
       </c>
       <c r="K129" t="n">
-        <v>-1.298701298701299</v>
+        <v>15.55555555555556</v>
       </c>
       <c r="L129" t="n">
         <v>307.7</v>
@@ -6858,7 +6880,7 @@
         <v>224</v>
       </c>
       <c r="K130" t="n">
-        <v>-8.108108108108109</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L130" t="n">
         <v>308.3</v>
@@ -6909,7 +6931,7 @@
         <v>230</v>
       </c>
       <c r="K131" t="n">
-        <v>-15</v>
+        <v>9.523809523809524</v>
       </c>
       <c r="L131" t="n">
         <v>309</v>
@@ -6960,7 +6982,7 @@
         <v>231</v>
       </c>
       <c r="K132" t="n">
-        <v>-12.5</v>
+        <v>2.564102564102564</v>
       </c>
       <c r="L132" t="n">
         <v>309.5</v>
@@ -7011,7 +7033,7 @@
         <v>231</v>
       </c>
       <c r="K133" t="n">
-        <v>-6.666666666666667</v>
+        <v>-5.555555555555555</v>
       </c>
       <c r="L133" t="n">
         <v>309.6</v>
@@ -7062,7 +7084,7 @@
         <v>236</v>
       </c>
       <c r="K134" t="n">
-        <v>-16.88311688311688</v>
+        <v>-17.07317073170732</v>
       </c>
       <c r="L134" t="n">
         <v>308.9</v>
@@ -7113,7 +7135,7 @@
         <v>236</v>
       </c>
       <c r="K135" t="n">
-        <v>-9.859154929577464</v>
+        <v>9.67741935483871</v>
       </c>
       <c r="L135" t="n">
         <v>308.2</v>
@@ -7164,7 +7186,7 @@
         <v>240</v>
       </c>
       <c r="K136" t="n">
-        <v>1.408450704225352</v>
+        <v>-12</v>
       </c>
       <c r="L136" t="n">
         <v>308.9</v>
@@ -7215,7 +7237,7 @@
         <v>245</v>
       </c>
       <c r="K137" t="n">
-        <v>9.333333333333334</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L137" t="n">
         <v>309.1</v>
@@ -7266,7 +7288,7 @@
         <v>246</v>
       </c>
       <c r="K138" t="n">
-        <v>4.225352112676056</v>
+        <v>-4.347826086956522</v>
       </c>
       <c r="L138" t="n">
         <v>308.8</v>
@@ -7317,7 +7339,7 @@
         <v>249</v>
       </c>
       <c r="K139" t="n">
-        <v>8.108108108108109</v>
+        <v>12</v>
       </c>
       <c r="L139" t="n">
         <v>309</v>
@@ -7368,7 +7390,7 @@
         <v>252</v>
       </c>
       <c r="K140" t="n">
-        <v>8.108108108108109</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L140" t="n">
         <v>309</v>
@@ -7419,7 +7441,7 @@
         <v>255</v>
       </c>
       <c r="K141" t="n">
-        <v>22.85714285714286</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L141" t="n">
         <v>309.9</v>
@@ -7470,7 +7492,7 @@
         <v>255</v>
       </c>
       <c r="K142" t="n">
-        <v>19.40298507462687</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L142" t="n">
         <v>310.7</v>
@@ -7521,7 +7543,7 @@
         <v>257</v>
       </c>
       <c r="K143" t="n">
-        <v>16.92307692307692</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L143" t="n">
         <v>311.7</v>
@@ -7572,7 +7594,7 @@
         <v>259</v>
       </c>
       <c r="K144" t="n">
-        <v>15.625</v>
+        <v>73.91304347826086</v>
       </c>
       <c r="L144" t="n">
         <v>313.4</v>
@@ -7623,7 +7645,7 @@
         <v>261</v>
       </c>
       <c r="K145" t="n">
-        <v>12.12121212121212</v>
+        <v>52.38095238095239</v>
       </c>
       <c r="L145" t="n">
         <v>314.9</v>
@@ -7674,7 +7696,7 @@
         <v>263</v>
       </c>
       <c r="K146" t="n">
-        <v>27.58620689655172</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="L146" t="n">
         <v>315.8</v>
@@ -7725,7 +7747,7 @@
         <v>263</v>
       </c>
       <c r="K147" t="n">
-        <v>12.5</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="L147" t="n">
         <v>316.2</v>
@@ -7776,7 +7798,7 @@
         <v>268</v>
       </c>
       <c r="K148" t="n">
-        <v>-10.63829787234043</v>
+        <v>-26.31578947368421</v>
       </c>
       <c r="L148" t="n">
         <v>316</v>
@@ -7827,7 +7849,7 @@
         <v>269</v>
       </c>
       <c r="K149" t="n">
-        <v>-4.347826086956522</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L149" t="n">
         <v>315.6</v>
@@ -7878,7 +7900,7 @@
         <v>269</v>
       </c>
       <c r="K150" t="n">
-        <v>-2.222222222222222</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L150" t="n">
         <v>315.5</v>
@@ -7929,7 +7951,7 @@
         <v>272</v>
       </c>
       <c r="K151" t="n">
-        <v>19.04761904761905</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L151" t="n">
         <v>315.4</v>
@@ -7980,7 +8002,7 @@
         <v>276</v>
       </c>
       <c r="K152" t="n">
-        <v>6.666666666666667</v>
+        <v>-36.84210526315789</v>
       </c>
       <c r="L152" t="n">
         <v>314.9</v>
@@ -8031,7 +8053,7 @@
         <v>276</v>
       </c>
       <c r="K153" t="n">
-        <v>6.666666666666667</v>
+        <v>-52.94117647058824</v>
       </c>
       <c r="L153" t="n">
         <v>314.2</v>
@@ -8082,7 +8104,7 @@
         <v>284</v>
       </c>
       <c r="K154" t="n">
-        <v>33.33333333333333</v>
+        <v>4.347826086956522</v>
       </c>
       <c r="L154" t="n">
         <v>314.1</v>
@@ -8133,7 +8155,7 @@
         <v>289</v>
       </c>
       <c r="K155" t="n">
-        <v>20.75471698113208</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L155" t="n">
         <v>313.7</v>
@@ -8184,7 +8206,7 @@
         <v>293</v>
       </c>
       <c r="K156" t="n">
-        <v>5.660377358490567</v>
+        <v>-20</v>
       </c>
       <c r="L156" t="n">
         <v>313.1</v>
@@ -8235,7 +8257,7 @@
         <v>293</v>
       </c>
       <c r="K157" t="n">
-        <v>-4.166666666666666</v>
+        <v>-4</v>
       </c>
       <c r="L157" t="n">
         <v>312.5</v>
@@ -8286,7 +8308,7 @@
         <v>302</v>
       </c>
       <c r="K158" t="n">
-        <v>10.71428571428571</v>
+        <v>21.21212121212121</v>
       </c>
       <c r="L158" t="n">
         <v>313.3</v>
@@ -8337,7 +8359,7 @@
         <v>313</v>
       </c>
       <c r="K159" t="n">
-        <v>-12.5</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L159" t="n">
         <v>312.9</v>
@@ -8388,7 +8410,7 @@
         <v>316</v>
       </c>
       <c r="K160" t="n">
-        <v>-3.125</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L160" t="n">
         <v>312.8</v>
@@ -8439,7 +8461,7 @@
         <v>318</v>
       </c>
       <c r="K161" t="n">
-        <v>-4.761904761904762</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="L161" t="n">
         <v>312.6</v>
@@ -8490,7 +8512,7 @@
         <v>323</v>
       </c>
       <c r="K162" t="n">
-        <v>2.941176470588235</v>
+        <v>14.8936170212766</v>
       </c>
       <c r="L162" t="n">
         <v>313.3</v>
@@ -8541,7 +8563,7 @@
         <v>324</v>
       </c>
       <c r="K163" t="n">
-        <v>-1.492537313432836</v>
+        <v>-5</v>
       </c>
       <c r="L163" t="n">
         <v>313.9</v>
@@ -8592,7 +8614,7 @@
         <v>325</v>
       </c>
       <c r="K164" t="n">
-        <v>-6.060606060606061</v>
+        <v>5.555555555555555</v>
       </c>
       <c r="L164" t="n">
         <v>313.6</v>
@@ -8643,7 +8665,7 @@
         <v>325</v>
       </c>
       <c r="K165" t="n">
-        <v>-3.125</v>
+        <v>18.75</v>
       </c>
       <c r="L165" t="n">
         <v>313.8</v>
@@ -8694,7 +8716,7 @@
         <v>325</v>
       </c>
       <c r="K166" t="n">
-        <v>0</v>
+        <v>18.75</v>
       </c>
       <c r="L166" t="n">
         <v>314.4</v>
@@ -8745,7 +8767,7 @@
         <v>325</v>
       </c>
       <c r="K167" t="n">
-        <v>0</v>
+        <v>-13.04347826086956</v>
       </c>
       <c r="L167" t="n">
         <v>315</v>
@@ -8796,7 +8818,7 @@
         <v>327</v>
       </c>
       <c r="K168" t="n">
-        <v>5.084745762711865</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L168" t="n">
         <v>314.5</v>
@@ -8847,7 +8869,7 @@
         <v>327</v>
       </c>
       <c r="K169" t="n">
-        <v>3.448275862068965</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L169" t="n">
         <v>315.1</v>
@@ -8898,7 +8920,7 @@
         <v>331</v>
       </c>
       <c r="K170" t="n">
-        <v>-3.225806451612903</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L170" t="n">
         <v>315</v>
@@ -8949,7 +8971,7 @@
         <v>334</v>
       </c>
       <c r="K171" t="n">
-        <v>-12.90322580645161</v>
+        <v>-100</v>
       </c>
       <c r="L171" t="n">
         <v>314.4</v>
@@ -9000,7 +9022,7 @@
         <v>334</v>
       </c>
       <c r="K172" t="n">
-        <v>-6.896551724137931</v>
+        <v>-100</v>
       </c>
       <c r="L172" t="n">
         <v>313.3</v>
@@ -9051,7 +9073,7 @@
         <v>336</v>
       </c>
       <c r="K173" t="n">
-        <v>-10</v>
+        <v>-100</v>
       </c>
       <c r="L173" t="n">
         <v>312.1</v>
@@ -9102,7 +9124,7 @@
         <v>336</v>
       </c>
       <c r="K174" t="n">
-        <v>-26.92307692307692</v>
+        <v>-100</v>
       </c>
       <c r="L174" t="n">
         <v>311</v>
@@ -9153,7 +9175,7 @@
         <v>341</v>
       </c>
       <c r="K175" t="n">
-        <v>-7.692307692307693</v>
+        <v>-37.5</v>
       </c>
       <c r="L175" t="n">
         <v>310.4</v>
@@ -9204,7 +9226,7 @@
         <v>341</v>
       </c>
       <c r="K176" t="n">
-        <v>0</v>
+        <v>-37.5</v>
       </c>
       <c r="L176" t="n">
         <v>309.8</v>
@@ -9255,7 +9277,7 @@
         <v>342</v>
       </c>
       <c r="K177" t="n">
-        <v>2.040816326530612</v>
+        <v>-20</v>
       </c>
       <c r="L177" t="n">
         <v>309.3</v>
@@ -9306,7 +9328,7 @@
         <v>343</v>
       </c>
       <c r="K178" t="n">
-        <v>-21.95121951219512</v>
+        <v>-25</v>
       </c>
       <c r="L178" t="n">
         <v>308.9</v>
@@ -9357,7 +9379,7 @@
         <v>345</v>
       </c>
       <c r="K179" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L179" t="n">
         <v>308.3</v>
@@ -9408,7 +9430,7 @@
         <v>347</v>
       </c>
       <c r="K180" t="n">
-        <v>-3.225806451612903</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L180" t="n">
         <v>308.3</v>
@@ -9459,7 +9481,7 @@
         <v>356</v>
       </c>
       <c r="K181" t="n">
-        <v>-31.57894736842105</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L181" t="n">
         <v>307.7</v>
@@ -9510,7 +9532,7 @@
         <v>356</v>
       </c>
       <c r="K182" t="n">
-        <v>-51.51515151515152</v>
+        <v>-20</v>
       </c>
       <c r="L182" t="n">
         <v>307.1</v>
@@ -9561,7 +9583,7 @@
         <v>357</v>
       </c>
       <c r="K183" t="n">
-        <v>-45.45454545454545</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L183" t="n">
         <v>306.8</v>
@@ -9612,7 +9634,7 @@
         <v>358</v>
       </c>
       <c r="K184" t="n">
-        <v>-45.45454545454545</v>
+        <v>-52.94117647058824</v>
       </c>
       <c r="L184" t="n">
         <v>306.4</v>
@@ -9663,7 +9685,7 @@
         <v>360</v>
       </c>
       <c r="K185" t="n">
-        <v>-37.14285714285715</v>
+        <v>-36.84210526315789</v>
       </c>
       <c r="L185" t="n">
         <v>305.7</v>
@@ -9714,7 +9736,7 @@
         <v>367</v>
       </c>
       <c r="K186" t="n">
-        <v>-14.28571428571428</v>
+        <v>-4</v>
       </c>
       <c r="L186" t="n">
         <v>305.7</v>
@@ -9765,7 +9787,7 @@
         <v>367</v>
       </c>
       <c r="K187" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L187" t="n">
         <v>305.6</v>
@@ -9816,7 +9838,7 @@
         <v>367</v>
       </c>
       <c r="K188" t="n">
-        <v>-10</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L188" t="n">
         <v>305.6</v>
@@ -9867,7 +9889,7 @@
         <v>371</v>
       </c>
       <c r="K189" t="n">
-        <v>-18.18181818181818</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L189" t="n">
         <v>305.4</v>
@@ -9918,7 +9940,7 @@
         <v>371</v>
       </c>
       <c r="K190" t="n">
-        <v>-10</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L190" t="n">
         <v>305</v>
@@ -9969,7 +9991,7 @@
         <v>374</v>
       </c>
       <c r="K191" t="n">
-        <v>5</v>
+        <v>44.44444444444444</v>
       </c>
       <c r="L191" t="n">
         <v>305.8</v>
@@ -10020,7 +10042,7 @@
         <v>377</v>
       </c>
       <c r="K192" t="n">
-        <v>-2.325581395348837</v>
+        <v>20</v>
       </c>
       <c r="L192" t="n">
         <v>306.3</v>
@@ -10071,7 +10093,7 @@
         <v>379</v>
       </c>
       <c r="K193" t="n">
-        <v>-2.325581395348837</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L193" t="n">
         <v>306.5</v>
@@ -10122,7 +10144,7 @@
         <v>379</v>
       </c>
       <c r="K194" t="n">
-        <v>-2.325581395348837</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L194" t="n">
         <v>306.8</v>
@@ -10173,7 +10195,7 @@
         <v>383</v>
       </c>
       <c r="K195" t="n">
-        <v>-4.761904761904762</v>
+        <v>-12.5</v>
       </c>
       <c r="L195" t="n">
         <v>307.3</v>
@@ -10224,7 +10246,7 @@
         <v>387</v>
       </c>
       <c r="K196" t="n">
-        <v>-13.04347826086956</v>
+        <v>-30</v>
       </c>
       <c r="L196" t="n">
         <v>306.7</v>
@@ -10275,7 +10297,7 @@
         <v>388</v>
       </c>
       <c r="K197" t="n">
-        <v>-17.39130434782609</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L197" t="n">
         <v>306</v>
@@ -10326,7 +10348,7 @@
         <v>388</v>
       </c>
       <c r="K198" t="n">
-        <v>-15.55555555555556</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="L198" t="n">
         <v>305.3</v>
@@ -10377,7 +10399,7 @@
         <v>388</v>
       </c>
       <c r="K199" t="n">
-        <v>-11.62790697674419</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="L199" t="n">
         <v>305</v>
@@ -10428,7 +10450,7 @@
         <v>389</v>
       </c>
       <c r="K200" t="n">
-        <v>-19.04761904761905</v>
+        <v>-46.66666666666666</v>
       </c>
       <c r="L200" t="n">
         <v>304.6</v>
@@ -10479,7 +10501,7 @@
         <v>390</v>
       </c>
       <c r="K201" t="n">
-        <v>5.88235294117647</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L201" t="n">
         <v>304</v>
@@ -10530,7 +10552,7 @@
         <v>392</v>
       </c>
       <c r="K202" t="n">
-        <v>0</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L202" t="n">
         <v>303.5</v>
@@ -10581,7 +10603,7 @@
         <v>394</v>
       </c>
       <c r="K203" t="n">
-        <v>2.702702702702703</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L203" t="n">
         <v>303.4</v>
@@ -10632,7 +10654,7 @@
         <v>396</v>
       </c>
       <c r="K204" t="n">
-        <v>0</v>
+        <v>-53.84615384615385</v>
       </c>
       <c r="L204" t="n">
         <v>303.1</v>
@@ -10683,7 +10705,7 @@
         <v>399</v>
       </c>
       <c r="K205" t="n">
-        <v>-12.82051282051282</v>
+        <v>-50</v>
       </c>
       <c r="L205" t="n">
         <v>302.1</v>
@@ -10734,7 +10756,7 @@
         <v>401</v>
       </c>
       <c r="K206" t="n">
-        <v>-29.41176470588236</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L206" t="n">
         <v>301.7</v>
@@ -10785,7 +10807,7 @@
         <v>402</v>
       </c>
       <c r="K207" t="n">
-        <v>-25.71428571428571</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L207" t="n">
         <v>301.5</v>
@@ -10887,7 +10909,7 @@
         <v>407</v>
       </c>
       <c r="K209" t="n">
-        <v>-27.77777777777778</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L209" t="n">
         <v>300.2</v>
@@ -10938,7 +10960,7 @@
         <v>407</v>
       </c>
       <c r="K210" t="n">
-        <v>-27.77777777777778</v>
+        <v>-41.17647058823529</v>
       </c>
       <c r="L210" t="n">
         <v>299.6</v>
@@ -10989,7 +11011,7 @@
         <v>411</v>
       </c>
       <c r="K211" t="n">
-        <v>-24.32432432432433</v>
+        <v>-5.263157894736842</v>
       </c>
       <c r="L211" t="n">
         <v>299.3</v>
@@ -11040,7 +11062,7 @@
         <v>414</v>
       </c>
       <c r="K212" t="n">
-        <v>-24.32432432432433</v>
+        <v>-30</v>
       </c>
       <c r="L212" t="n">
         <v>298.9</v>
@@ -11091,7 +11113,7 @@
         <v>415</v>
       </c>
       <c r="K213" t="n">
-        <v>-22.22222222222222</v>
+        <v>-26.31578947368421</v>
       </c>
       <c r="L213" t="n">
         <v>298.2</v>
@@ -11142,7 +11164,7 @@
         <v>419</v>
       </c>
       <c r="K214" t="n">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="L214" t="n">
         <v>298.1</v>
@@ -11193,7 +11215,7 @@
         <v>419</v>
       </c>
       <c r="K215" t="n">
-        <v>-22.22222222222222</v>
+        <v>0</v>
       </c>
       <c r="L215" t="n">
         <v>298.3</v>
@@ -11244,7 +11266,7 @@
         <v>419</v>
       </c>
       <c r="K216" t="n">
-        <v>-12.5</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L216" t="n">
         <v>298.3</v>
@@ -11295,7 +11317,7 @@
         <v>419</v>
       </c>
       <c r="K217" t="n">
-        <v>-9.67741935483871</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L217" t="n">
         <v>298.2</v>
@@ -11346,7 +11368,7 @@
         <v>421</v>
       </c>
       <c r="K218" t="n">
-        <v>-3.03030303030303</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L218" t="n">
         <v>298.7</v>
@@ -11397,7 +11419,7 @@
         <v>423</v>
       </c>
       <c r="K219" t="n">
-        <v>-8.571428571428571</v>
+        <v>25</v>
       </c>
       <c r="L219" t="n">
         <v>299.1</v>
@@ -11448,7 +11470,7 @@
         <v>427</v>
       </c>
       <c r="K220" t="n">
-        <v>5.263157894736842</v>
+        <v>25</v>
       </c>
       <c r="L220" t="n">
         <v>299.9</v>
@@ -11499,7 +11521,7 @@
         <v>431</v>
       </c>
       <c r="K221" t="n">
-        <v>-7.317073170731707</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="L221" t="n">
         <v>299.9</v>
@@ -11550,7 +11572,7 @@
         <v>431</v>
       </c>
       <c r="K222" t="n">
-        <v>-2.564102564102564</v>
+        <v>25</v>
       </c>
       <c r="L222" t="n">
         <v>300.2</v>
@@ -11601,7 +11623,7 @@
         <v>431</v>
       </c>
       <c r="K223" t="n">
-        <v>-8.108108108108109</v>
+        <v>0</v>
       </c>
       <c r="L223" t="n">
         <v>300.6</v>
@@ -11652,7 +11674,7 @@
         <v>431</v>
       </c>
       <c r="K224" t="n">
-        <v>-2.857142857142857</v>
+        <v>0</v>
       </c>
       <c r="L224" t="n">
         <v>300.6</v>
@@ -11703,7 +11725,7 @@
         <v>437</v>
       </c>
       <c r="K225" t="n">
-        <v>21.05263157894737</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L225" t="n">
         <v>301.2</v>
@@ -11754,7 +11776,7 @@
         <v>439</v>
       </c>
       <c r="K226" t="n">
-        <v>21.05263157894737</v>
+        <v>40</v>
       </c>
       <c r="L226" t="n">
         <v>302</v>
@@ -11805,7 +11827,7 @@
         <v>442</v>
       </c>
       <c r="K227" t="n">
-        <v>25</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L227" t="n">
         <v>303.1</v>
@@ -11856,7 +11878,7 @@
         <v>443</v>
       </c>
       <c r="K228" t="n">
-        <v>40.54054054054054</v>
+        <v>60</v>
       </c>
       <c r="L228" t="n">
         <v>304.1</v>
@@ -11907,7 +11929,7 @@
         <v>443</v>
       </c>
       <c r="K229" t="n">
-        <v>44.44444444444444</v>
+        <v>50</v>
       </c>
       <c r="L229" t="n">
         <v>305.3</v>
@@ -11958,7 +11980,7 @@
         <v>447</v>
       </c>
       <c r="K230" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="L230" t="n">
         <v>305.7</v>
@@ -12009,7 +12031,7 @@
         <v>450</v>
       </c>
       <c r="K231" t="n">
-        <v>28.2051282051282</v>
+        <v>57.89473684210527</v>
       </c>
       <c r="L231" t="n">
         <v>306.8</v>
@@ -12060,7 +12082,7 @@
         <v>461</v>
       </c>
       <c r="K232" t="n">
-        <v>6.382978723404255</v>
+        <v>0</v>
       </c>
       <c r="L232" t="n">
         <v>306.8</v>
@@ -12111,7 +12133,7 @@
         <v>464</v>
       </c>
       <c r="K233" t="n">
-        <v>14.28571428571428</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L233" t="n">
         <v>307.1</v>
@@ -12162,7 +12184,7 @@
         <v>466</v>
       </c>
       <c r="K234" t="n">
-        <v>2.127659574468085</v>
+        <v>-17.24137931034483</v>
       </c>
       <c r="L234" t="n">
         <v>307.2</v>
@@ -12213,7 +12235,7 @@
         <v>467</v>
       </c>
       <c r="K235" t="n">
-        <v>4.166666666666666</v>
+        <v>-21.42857142857143</v>
       </c>
       <c r="L235" t="n">
         <v>306.8</v>
@@ -12264,7 +12286,7 @@
         <v>467</v>
       </c>
       <c r="K236" t="n">
-        <v>4.166666666666666</v>
+        <v>-36</v>
       </c>
       <c r="L236" t="n">
         <v>306.2</v>
@@ -12315,7 +12337,7 @@
         <v>468</v>
       </c>
       <c r="K237" t="n">
-        <v>6.122448979591836</v>
+        <v>-36</v>
       </c>
       <c r="L237" t="n">
         <v>305.4</v>
@@ -12366,7 +12388,7 @@
         <v>470</v>
       </c>
       <c r="K238" t="n">
-        <v>6.122448979591836</v>
+        <v>-25.92592592592592</v>
       </c>
       <c r="L238" t="n">
         <v>304.7</v>
@@ -12417,7 +12439,7 @@
         <v>470</v>
       </c>
       <c r="K239" t="n">
-        <v>10.63829787234043</v>
+        <v>-13.04347826086956</v>
       </c>
       <c r="L239" t="n">
         <v>304</v>
@@ -12468,7 +12490,7 @@
         <v>471</v>
       </c>
       <c r="K240" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L240" t="n">
         <v>303.6</v>
@@ -12570,7 +12592,7 @@
         <v>475</v>
       </c>
       <c r="K242" t="n">
-        <v>0</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L242" t="n">
         <v>302.5</v>
@@ -12621,7 +12643,7 @@
         <v>476</v>
       </c>
       <c r="K243" t="n">
-        <v>2.222222222222222</v>
+        <v>0</v>
       </c>
       <c r="L243" t="n">
         <v>302.3</v>
@@ -12672,7 +12694,7 @@
         <v>478</v>
       </c>
       <c r="K244" t="n">
-        <v>6.382978723404255</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L244" t="n">
         <v>302.5</v>
@@ -12723,7 +12745,7 @@
         <v>479</v>
       </c>
       <c r="K245" t="n">
-        <v>-4.761904761904762</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L245" t="n">
         <v>302.7</v>
@@ -12774,7 +12796,7 @@
         <v>480</v>
       </c>
       <c r="K246" t="n">
-        <v>-12.19512195121951</v>
+        <v>0</v>
       </c>
       <c r="L246" t="n">
         <v>302.8</v>
@@ -12825,7 +12847,7 @@
         <v>481</v>
       </c>
       <c r="K247" t="n">
-        <v>-17.94871794871795</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L247" t="n">
         <v>302.9</v>
@@ -12876,7 +12898,7 @@
         <v>481</v>
       </c>
       <c r="K248" t="n">
-        <v>-21.05263157894737</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L248" t="n">
         <v>302.8</v>
@@ -12927,7 +12949,7 @@
         <v>481</v>
       </c>
       <c r="K249" t="n">
-        <v>-21.05263157894737</v>
+        <v>0</v>
       </c>
       <c r="L249" t="n">
         <v>302.7</v>
@@ -12978,7 +13000,7 @@
         <v>481</v>
       </c>
       <c r="K250" t="n">
-        <v>-11.76470588235294</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L250" t="n">
         <v>302.7</v>
@@ -13029,7 +13051,7 @@
         <v>484</v>
       </c>
       <c r="K251" t="n">
-        <v>-11.76470588235294</v>
+        <v>77.77777777777779</v>
       </c>
       <c r="L251" t="n">
         <v>303.4</v>
@@ -13080,7 +13102,7 @@
         <v>486</v>
       </c>
       <c r="K252" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="L252" t="n">
         <v>303.9</v>
@@ -13131,7 +13153,7 @@
         <v>487</v>
       </c>
       <c r="K253" t="n">
-        <v>4.347826086956522</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L253" t="n">
         <v>304.2</v>
@@ -13182,7 +13204,7 @@
         <v>488</v>
       </c>
       <c r="K254" t="n">
-        <v>18.18181818181818</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L254" t="n">
         <v>304.4</v>
@@ -13233,7 +13255,7 @@
         <v>491</v>
       </c>
       <c r="K255" t="n">
-        <v>0</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L255" t="n">
         <v>304.2</v>
@@ -13284,7 +13306,7 @@
         <v>492</v>
       </c>
       <c r="K256" t="n">
-        <v>4</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L256" t="n">
         <v>304.2</v>
@@ -13335,7 +13357,7 @@
         <v>492</v>
       </c>
       <c r="K257" t="n">
-        <v>0</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L257" t="n">
         <v>304.1</v>
@@ -13386,7 +13408,7 @@
         <v>493</v>
       </c>
       <c r="K258" t="n">
-        <v>-13.04347826086956</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L258" t="n">
         <v>303.9</v>
@@ -13437,7 +13459,7 @@
         <v>494</v>
       </c>
       <c r="K259" t="n">
-        <v>-16.66666666666666</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L259" t="n">
         <v>303.6</v>
@@ -13488,7 +13510,7 @@
         <v>495</v>
       </c>
       <c r="K260" t="n">
-        <v>-8.333333333333332</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L260" t="n">
         <v>303.4</v>
@@ -13539,7 +13561,7 @@
         <v>498</v>
       </c>
       <c r="K261" t="n">
-        <v>21.73913043478261</v>
+        <v>0</v>
       </c>
       <c r="L261" t="n">
         <v>303.2</v>
@@ -13590,7 +13612,7 @@
         <v>498</v>
       </c>
       <c r="K262" t="n">
-        <v>21.73913043478261</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L262" t="n">
         <v>303.2</v>
@@ -13641,7 +13663,7 @@
         <v>500</v>
       </c>
       <c r="K263" t="n">
-        <v>8.333333333333332</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L263" t="n">
         <v>303.1</v>
@@ -13692,7 +13714,7 @@
         <v>504</v>
       </c>
       <c r="K264" t="n">
-        <v>15.38461538461539</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L264" t="n">
         <v>303.3</v>
@@ -13743,7 +13765,7 @@
         <v>505</v>
       </c>
       <c r="K265" t="n">
-        <v>15.38461538461539</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L265" t="n">
         <v>303.9</v>
@@ -13794,7 +13816,7 @@
         <v>509</v>
       </c>
       <c r="K266" t="n">
-        <v>31.03448275862069</v>
+        <v>52.94117647058824</v>
       </c>
       <c r="L266" t="n">
         <v>304.8</v>

--- a/BackTest/2019-10-10 BackTest ARN.xlsx
+++ b/BackTest/2019-10-10 BackTest ARN.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M246"/>
+  <dimension ref="A1:M245"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,10 +445,10 @@
         <v>281</v>
       </c>
       <c r="F2" t="n">
-        <v>428.6393</v>
+        <v>1.773</v>
       </c>
       <c r="G2" t="n">
-        <v>276.3333333333333</v>
+        <v>276.3833333333333</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -471,19 +471,19 @@
         <v>281</v>
       </c>
       <c r="C3" t="n">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D3" t="n">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E3" t="n">
         <v>281</v>
       </c>
       <c r="F3" t="n">
-        <v>1.773</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>276.3833333333333</v>
+        <v>276.4333333333333</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -506,19 +506,19 @@
         <v>281</v>
       </c>
       <c r="C4" t="n">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D4" t="n">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E4" t="n">
         <v>281</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>965</v>
       </c>
       <c r="G4" t="n">
-        <v>276.4333333333333</v>
+        <v>276.6833333333333</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -550,10 +550,10 @@
         <v>281</v>
       </c>
       <c r="F5" t="n">
-        <v>965</v>
+        <v>484.4185</v>
       </c>
       <c r="G5" t="n">
-        <v>276.6833333333333</v>
+        <v>276.7833333333334</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C6" t="n">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D6" t="n">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E6" t="n">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F6" t="n">
-        <v>484.4185</v>
+        <v>724</v>
       </c>
       <c r="G6" t="n">
-        <v>276.7833333333334</v>
+        <v>276.85</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C7" t="n">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D7" t="n">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E7" t="n">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="F7" t="n">
-        <v>724</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>276.85</v>
+        <v>276.9333333333333</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,7 +643,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C8" t="n">
         <v>282</v>
@@ -652,13 +652,13 @@
         <v>282</v>
       </c>
       <c r="E8" t="n">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>66.4376</v>
       </c>
       <c r="G8" t="n">
-        <v>276.9333333333333</v>
+        <v>277.0166666666667</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -681,19 +681,19 @@
         <v>280</v>
       </c>
       <c r="C9" t="n">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D9" t="n">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E9" t="n">
         <v>280</v>
       </c>
       <c r="F9" t="n">
-        <v>66.4376</v>
+        <v>144.6583</v>
       </c>
       <c r="G9" t="n">
-        <v>277.0166666666667</v>
+        <v>277.0666666666667</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -725,10 +725,10 @@
         <v>280</v>
       </c>
       <c r="F10" t="n">
-        <v>144.6583</v>
+        <v>1236.1843</v>
       </c>
       <c r="G10" t="n">
-        <v>277.0666666666667</v>
+        <v>277.1166666666667</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C11" t="n">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D11" t="n">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E11" t="n">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="F11" t="n">
-        <v>1236.1843</v>
+        <v>791.8439716300001</v>
       </c>
       <c r="G11" t="n">
-        <v>277.1166666666667</v>
+        <v>277.2</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C12" t="n">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D12" t="n">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E12" t="n">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F12" t="n">
-        <v>791.8439716300001</v>
+        <v>2000</v>
       </c>
       <c r="G12" t="n">
-        <v>277.2</v>
+        <v>277.2666666666667</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C13" t="n">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D13" t="n">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E13" t="n">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F13" t="n">
-        <v>2000</v>
+        <v>126</v>
       </c>
       <c r="G13" t="n">
-        <v>277.2666666666667</v>
+        <v>277.35</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C14" t="n">
+        <v>283</v>
+      </c>
+      <c r="D14" t="n">
+        <v>283</v>
+      </c>
+      <c r="E14" t="n">
         <v>282</v>
       </c>
-      <c r="D14" t="n">
-        <v>282</v>
-      </c>
-      <c r="E14" t="n">
-        <v>281</v>
-      </c>
       <c r="F14" t="n">
-        <v>126</v>
+        <v>810</v>
       </c>
       <c r="G14" t="n">
-        <v>277.35</v>
+        <v>277.4666666666666</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C15" t="n">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D15" t="n">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E15" t="n">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F15" t="n">
-        <v>810</v>
+        <v>62.0609</v>
       </c>
       <c r="G15" t="n">
-        <v>277.4666666666666</v>
+        <v>277.5666666666667</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C16" t="n">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D16" t="n">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E16" t="n">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F16" t="n">
-        <v>62.0609</v>
+        <v>820.1431</v>
       </c>
       <c r="G16" t="n">
-        <v>277.5666666666667</v>
+        <v>277.65</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -970,10 +970,10 @@
         <v>280</v>
       </c>
       <c r="F17" t="n">
-        <v>820.1431</v>
+        <v>123.9863</v>
       </c>
       <c r="G17" t="n">
-        <v>277.65</v>
+        <v>277.7333333333333</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1005,10 +1005,10 @@
         <v>280</v>
       </c>
       <c r="F18" t="n">
-        <v>123.9863</v>
+        <v>57.7895</v>
       </c>
       <c r="G18" t="n">
-        <v>277.7333333333333</v>
+        <v>277.8166666666667</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1031,19 +1031,19 @@
         <v>280</v>
       </c>
       <c r="C19" t="n">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="D19" t="n">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="E19" t="n">
         <v>280</v>
       </c>
       <c r="F19" t="n">
-        <v>57.7895</v>
+        <v>930</v>
       </c>
       <c r="G19" t="n">
-        <v>277.8166666666667</v>
+        <v>277.9666666666666</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1066,19 +1066,19 @@
         <v>280</v>
       </c>
       <c r="C20" t="n">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="D20" t="n">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="E20" t="n">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F20" t="n">
-        <v>930</v>
+        <v>490.8871</v>
       </c>
       <c r="G20" t="n">
-        <v>277.9666666666666</v>
+        <v>278.0333333333334</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C21" t="n">
         <v>279</v>
       </c>
       <c r="D21" t="n">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E21" t="n">
         <v>279</v>
       </c>
       <c r="F21" t="n">
-        <v>490.8871</v>
+        <v>223</v>
       </c>
       <c r="G21" t="n">
-        <v>278.0333333333334</v>
+        <v>278.1</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C22" t="n">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D22" t="n">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E22" t="n">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F22" t="n">
-        <v>223</v>
+        <v>811.6559999999999</v>
       </c>
       <c r="G22" t="n">
-        <v>278.1</v>
+        <v>278.1666666666667</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>278</v>
       </c>
       <c r="F23" t="n">
-        <v>811.6559999999999</v>
+        <v>1015.4975</v>
       </c>
       <c r="G23" t="n">
-        <v>278.1666666666667</v>
+        <v>278.2333333333333</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C24" t="n">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D24" t="n">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E24" t="n">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F24" t="n">
-        <v>1015.4975</v>
+        <v>232.3189</v>
       </c>
       <c r="G24" t="n">
-        <v>278.2333333333333</v>
+        <v>278.3166666666667</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1250,10 +1250,10 @@
         <v>279</v>
       </c>
       <c r="F25" t="n">
-        <v>232.3189</v>
+        <v>946.2059</v>
       </c>
       <c r="G25" t="n">
-        <v>278.3166666666667</v>
+        <v>278.4</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C26" t="n">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D26" t="n">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E26" t="n">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F26" t="n">
-        <v>946.2059</v>
+        <v>7943.9458</v>
       </c>
       <c r="G26" t="n">
-        <v>278.4</v>
+        <v>278.4666666666666</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C27" t="n">
         <v>278</v>
       </c>
       <c r="D27" t="n">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E27" t="n">
         <v>278</v>
       </c>
       <c r="F27" t="n">
-        <v>7943.9458</v>
+        <v>1675.9903</v>
       </c>
       <c r="G27" t="n">
-        <v>278.4666666666666</v>
+        <v>278.5333333333334</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C28" t="n">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D28" t="n">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E28" t="n">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F28" t="n">
-        <v>1675.9903</v>
+        <v>919.354</v>
       </c>
       <c r="G28" t="n">
-        <v>278.5333333333334</v>
+        <v>278.6166666666667</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1390,10 +1390,10 @@
         <v>279</v>
       </c>
       <c r="F29" t="n">
-        <v>919.354</v>
+        <v>2835.5603</v>
       </c>
       <c r="G29" t="n">
-        <v>278.6166666666667</v>
+        <v>278.7</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C30" t="n">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="D30" t="n">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="E30" t="n">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="F30" t="n">
-        <v>2835.5603</v>
+        <v>177.65812092</v>
       </c>
       <c r="G30" t="n">
-        <v>278.7</v>
+        <v>278.8333333333333</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1451,19 +1451,19 @@
         <v>281</v>
       </c>
       <c r="C31" t="n">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D31" t="n">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E31" t="n">
         <v>281</v>
       </c>
       <c r="F31" t="n">
-        <v>177.65812092</v>
+        <v>60.5126</v>
       </c>
       <c r="G31" t="n">
-        <v>278.8333333333333</v>
+        <v>278.95</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1495,10 +1495,10 @@
         <v>281</v>
       </c>
       <c r="F32" t="n">
-        <v>60.5126</v>
+        <v>1816.9445</v>
       </c>
       <c r="G32" t="n">
-        <v>278.95</v>
+        <v>279.0666666666667</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1530,10 +1530,10 @@
         <v>281</v>
       </c>
       <c r="F33" t="n">
-        <v>1816.9445</v>
+        <v>1877.4572</v>
       </c>
       <c r="G33" t="n">
-        <v>279.0666666666667</v>
+        <v>279.1833333333333</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,7 +1553,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C34" t="n">
         <v>281</v>
@@ -1562,13 +1562,13 @@
         <v>281</v>
       </c>
       <c r="E34" t="n">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F34" t="n">
-        <v>1877.4572</v>
+        <v>869.1041</v>
       </c>
       <c r="G34" t="n">
-        <v>279.1833333333333</v>
+        <v>279.2833333333334</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,22 +1588,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C35" t="n">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="D35" t="n">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="E35" t="n">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="F35" t="n">
-        <v>869.1041</v>
+        <v>16730.03932837</v>
       </c>
       <c r="G35" t="n">
-        <v>279.2833333333334</v>
+        <v>279.4833333333333</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,7 +1623,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="C36" t="n">
         <v>287</v>
@@ -1632,13 +1632,13 @@
         <v>287</v>
       </c>
       <c r="E36" t="n">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="F36" t="n">
-        <v>16730.03932837</v>
+        <v>982.2822</v>
       </c>
       <c r="G36" t="n">
-        <v>279.4833333333333</v>
+        <v>279.6833333333333</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C37" t="n">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D37" t="n">
         <v>287</v>
       </c>
       <c r="E37" t="n">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F37" t="n">
-        <v>982.2822</v>
+        <v>4062.9815</v>
       </c>
       <c r="G37" t="n">
-        <v>279.6833333333333</v>
+        <v>279.8666666666667</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,22 +1693,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C38" t="n">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D38" t="n">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E38" t="n">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F38" t="n">
-        <v>4062.9815</v>
+        <v>34.2573</v>
       </c>
       <c r="G38" t="n">
-        <v>279.8666666666667</v>
+        <v>280.0333333333334</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1740,10 +1740,10 @@
         <v>285</v>
       </c>
       <c r="F39" t="n">
-        <v>34.2573</v>
+        <v>54.081</v>
       </c>
       <c r="G39" t="n">
-        <v>280.0333333333334</v>
+        <v>280.2</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1775,10 +1775,10 @@
         <v>285</v>
       </c>
       <c r="F40" t="n">
-        <v>54.081</v>
+        <v>28.394</v>
       </c>
       <c r="G40" t="n">
-        <v>280.2</v>
+        <v>280.3666666666667</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C41" t="n">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D41" t="n">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E41" t="n">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F41" t="n">
-        <v>28.394</v>
+        <v>800</v>
       </c>
       <c r="G41" t="n">
-        <v>280.3666666666667</v>
+        <v>280.5</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,22 +1833,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C42" t="n">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D42" t="n">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="E42" t="n">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F42" t="n">
-        <v>800</v>
+        <v>3280</v>
       </c>
       <c r="G42" t="n">
-        <v>280.5</v>
+        <v>280.65</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,22 +1868,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C43" t="n">
         <v>284</v>
       </c>
       <c r="D43" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E43" t="n">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F43" t="n">
-        <v>3280</v>
+        <v>2043</v>
       </c>
       <c r="G43" t="n">
-        <v>280.65</v>
+        <v>280.7833333333334</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1912,13 +1912,13 @@
         <v>284</v>
       </c>
       <c r="E44" t="n">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F44" t="n">
-        <v>2043</v>
+        <v>1455.0708</v>
       </c>
       <c r="G44" t="n">
-        <v>280.7833333333334</v>
+        <v>280.9166666666667</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1941,19 +1941,19 @@
         <v>284</v>
       </c>
       <c r="C45" t="n">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D45" t="n">
         <v>284</v>
       </c>
       <c r="E45" t="n">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F45" t="n">
-        <v>1455.0708</v>
+        <v>960</v>
       </c>
       <c r="G45" t="n">
-        <v>280.9166666666667</v>
+        <v>281.0166666666667</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1976,19 +1976,19 @@
         <v>284</v>
       </c>
       <c r="C46" t="n">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D46" t="n">
         <v>284</v>
       </c>
       <c r="E46" t="n">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F46" t="n">
-        <v>960</v>
+        <v>1440</v>
       </c>
       <c r="G46" t="n">
-        <v>281.0166666666667</v>
+        <v>281.1333333333333</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2011,19 +2011,19 @@
         <v>284</v>
       </c>
       <c r="C47" t="n">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D47" t="n">
         <v>284</v>
       </c>
       <c r="E47" t="n">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F47" t="n">
-        <v>1440</v>
+        <v>1477.1</v>
       </c>
       <c r="G47" t="n">
-        <v>281.1333333333333</v>
+        <v>281.2333333333333</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,22 +2043,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C48" t="n">
         <v>283</v>
       </c>
       <c r="D48" t="n">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E48" t="n">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F48" t="n">
-        <v>1477.1</v>
+        <v>1440</v>
       </c>
       <c r="G48" t="n">
-        <v>281.2333333333333</v>
+        <v>281.3166666666667</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2078,22 +2078,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C49" t="n">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D49" t="n">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E49" t="n">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F49" t="n">
-        <v>1440</v>
+        <v>24.4187</v>
       </c>
       <c r="G49" t="n">
-        <v>281.3166666666667</v>
+        <v>281.3833333333333</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,22 +2113,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C50" t="n">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="D50" t="n">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="E50" t="n">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="F50" t="n">
-        <v>24.4187</v>
+        <v>22.898</v>
       </c>
       <c r="G50" t="n">
-        <v>281.3833333333333</v>
+        <v>281.4666666666666</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2148,22 +2148,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C51" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D51" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E51" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F51" t="n">
-        <v>22.898</v>
+        <v>2953.721</v>
       </c>
       <c r="G51" t="n">
-        <v>281.4666666666666</v>
+        <v>281.5833333333333</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2183,22 +2183,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
+        <v>285</v>
+      </c>
+      <c r="C52" t="n">
         <v>284</v>
       </c>
-      <c r="C52" t="n">
-        <v>287</v>
-      </c>
       <c r="D52" t="n">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E52" t="n">
         <v>284</v>
       </c>
       <c r="F52" t="n">
-        <v>2953.721</v>
+        <v>1226.0355</v>
       </c>
       <c r="G52" t="n">
-        <v>281.5833333333333</v>
+        <v>281.65</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2221,19 +2221,19 @@
         <v>285</v>
       </c>
       <c r="C53" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D53" t="n">
         <v>285</v>
       </c>
       <c r="E53" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F53" t="n">
-        <v>1226.0355</v>
+        <v>286.8785</v>
       </c>
       <c r="G53" t="n">
-        <v>281.65</v>
+        <v>281.7166666666666</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2253,22 +2253,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C54" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D54" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E54" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F54" t="n">
-        <v>286.8785</v>
+        <v>4044.1978</v>
       </c>
       <c r="G54" t="n">
-        <v>281.7166666666666</v>
+        <v>281.7666666666667</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2300,10 +2300,10 @@
         <v>284</v>
       </c>
       <c r="F55" t="n">
-        <v>4044.1978</v>
+        <v>6074.2711</v>
       </c>
       <c r="G55" t="n">
-        <v>281.7666666666667</v>
+        <v>281.8166666666667</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2335,10 +2335,10 @@
         <v>284</v>
       </c>
       <c r="F56" t="n">
-        <v>6074.2711</v>
+        <v>5473.2059</v>
       </c>
       <c r="G56" t="n">
-        <v>281.8166666666667</v>
+        <v>281.8833333333333</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2361,19 +2361,19 @@
         <v>284</v>
       </c>
       <c r="C57" t="n">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="D57" t="n">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="E57" t="n">
         <v>284</v>
       </c>
       <c r="F57" t="n">
-        <v>5473.2059</v>
+        <v>244</v>
       </c>
       <c r="G57" t="n">
-        <v>281.8833333333333</v>
+        <v>282</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2396,19 +2396,19 @@
         <v>284</v>
       </c>
       <c r="C58" t="n">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D58" t="n">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="E58" t="n">
         <v>284</v>
       </c>
       <c r="F58" t="n">
-        <v>244</v>
+        <v>35.926</v>
       </c>
       <c r="G58" t="n">
-        <v>282</v>
+        <v>282.0666666666667</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2428,22 +2428,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C59" t="n">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="D59" t="n">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="E59" t="n">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="F59" t="n">
-        <v>35.926</v>
+        <v>9118.4197</v>
       </c>
       <c r="G59" t="n">
-        <v>282.0666666666667</v>
+        <v>282.2166666666666</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2463,22 +2463,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C60" t="n">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D60" t="n">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E60" t="n">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F60" t="n">
-        <v>9118.4197</v>
+        <v>3834.2234</v>
       </c>
       <c r="G60" t="n">
-        <v>282.2166666666666</v>
+        <v>282.3333333333333</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2501,19 +2501,19 @@
         <v>288</v>
       </c>
       <c r="C61" t="n">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D61" t="n">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E61" t="n">
         <v>288</v>
       </c>
       <c r="F61" t="n">
-        <v>3834.2234</v>
+        <v>476</v>
       </c>
       <c r="G61" t="n">
-        <v>282.3333333333333</v>
+        <v>282.4666666666666</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2533,22 +2533,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C62" t="n">
+        <v>293</v>
+      </c>
+      <c r="D62" t="n">
+        <v>293</v>
+      </c>
+      <c r="E62" t="n">
         <v>289</v>
       </c>
-      <c r="D62" t="n">
-        <v>289</v>
-      </c>
-      <c r="E62" t="n">
-        <v>288</v>
-      </c>
       <c r="F62" t="n">
-        <v>476</v>
+        <v>14943.388</v>
       </c>
       <c r="G62" t="n">
-        <v>282.4666666666666</v>
+        <v>282.6666666666667</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2568,22 +2568,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="C63" t="n">
+        <v>294</v>
+      </c>
+      <c r="D63" t="n">
+        <v>295</v>
+      </c>
+      <c r="E63" t="n">
         <v>293</v>
       </c>
-      <c r="D63" t="n">
-        <v>293</v>
-      </c>
-      <c r="E63" t="n">
-        <v>289</v>
-      </c>
       <c r="F63" t="n">
-        <v>14943.388</v>
+        <v>13550.5702</v>
       </c>
       <c r="G63" t="n">
-        <v>282.6666666666667</v>
+        <v>282.8666666666667</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2603,22 +2603,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C64" t="n">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D64" t="n">
+        <v>296</v>
+      </c>
+      <c r="E64" t="n">
         <v>295</v>
       </c>
-      <c r="E64" t="n">
-        <v>293</v>
-      </c>
       <c r="F64" t="n">
-        <v>13550.5702</v>
+        <v>4204.5538</v>
       </c>
       <c r="G64" t="n">
-        <v>282.8666666666667</v>
+        <v>283.1166666666667</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2638,7 +2638,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C65" t="n">
         <v>296</v>
@@ -2647,13 +2647,13 @@
         <v>296</v>
       </c>
       <c r="E65" t="n">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="F65" t="n">
-        <v>4204.5538</v>
+        <v>8108.8599</v>
       </c>
       <c r="G65" t="n">
-        <v>283.1166666666667</v>
+        <v>283.3666666666667</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2673,22 +2673,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="C66" t="n">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="D66" t="n">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E66" t="n">
         <v>291</v>
       </c>
       <c r="F66" t="n">
-        <v>8108.8599</v>
+        <v>6824.8148</v>
       </c>
       <c r="G66" t="n">
-        <v>283.3666666666667</v>
+        <v>283.55</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2708,22 +2708,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="C67" t="n">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="D67" t="n">
         <v>295</v>
       </c>
       <c r="E67" t="n">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="F67" t="n">
-        <v>6824.8148</v>
+        <v>1085.6609</v>
       </c>
       <c r="G67" t="n">
-        <v>283.55</v>
+        <v>283.7666666666667</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2755,10 +2755,10 @@
         <v>295</v>
       </c>
       <c r="F68" t="n">
-        <v>1085.6609</v>
+        <v>623.8187</v>
       </c>
       <c r="G68" t="n">
-        <v>283.7666666666667</v>
+        <v>283.9833333333333</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2790,10 +2790,10 @@
         <v>295</v>
       </c>
       <c r="F69" t="n">
-        <v>623.8187</v>
+        <v>12</v>
       </c>
       <c r="G69" t="n">
-        <v>283.9833333333333</v>
+        <v>284.2333333333333</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2825,10 +2825,10 @@
         <v>295</v>
       </c>
       <c r="F70" t="n">
-        <v>12</v>
+        <v>377.0728</v>
       </c>
       <c r="G70" t="n">
-        <v>284.2333333333333</v>
+        <v>284.4833333333333</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2848,22 +2848,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C71" t="n">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D71" t="n">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E71" t="n">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F71" t="n">
-        <v>377.0728</v>
+        <v>387.3717</v>
       </c>
       <c r="G71" t="n">
-        <v>284.4833333333333</v>
+        <v>284.65</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2886,19 +2886,19 @@
         <v>293</v>
       </c>
       <c r="C72" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D72" t="n">
         <v>293</v>
       </c>
       <c r="E72" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F72" t="n">
-        <v>387.3717</v>
+        <v>26</v>
       </c>
       <c r="G72" t="n">
-        <v>284.65</v>
+        <v>284.8666666666667</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2930,10 +2930,10 @@
         <v>293</v>
       </c>
       <c r="F73" t="n">
-        <v>26</v>
+        <v>197.6714</v>
       </c>
       <c r="G73" t="n">
-        <v>284.8666666666667</v>
+        <v>285.05</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2965,10 +2965,10 @@
         <v>293</v>
       </c>
       <c r="F74" t="n">
-        <v>197.6714</v>
+        <v>342.175</v>
       </c>
       <c r="G74" t="n">
-        <v>285.05</v>
+        <v>285.2166666666666</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2994,16 +2994,16 @@
         <v>293</v>
       </c>
       <c r="D75" t="n">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="E75" t="n">
         <v>293</v>
       </c>
       <c r="F75" t="n">
-        <v>342.175</v>
+        <v>524.7966</v>
       </c>
       <c r="G75" t="n">
-        <v>285.2166666666666</v>
+        <v>285.4166666666667</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3026,7 +3026,7 @@
         <v>293</v>
       </c>
       <c r="C76" t="n">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D76" t="n">
         <v>295</v>
@@ -3035,10 +3035,10 @@
         <v>293</v>
       </c>
       <c r="F76" t="n">
-        <v>524.7966</v>
+        <v>1276.1657</v>
       </c>
       <c r="G76" t="n">
-        <v>285.4166666666667</v>
+        <v>285.6666666666667</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3058,22 +3058,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C77" t="n">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D77" t="n">
         <v>295</v>
       </c>
       <c r="E77" t="n">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F77" t="n">
-        <v>1276.1657</v>
+        <v>1977.5593</v>
       </c>
       <c r="G77" t="n">
-        <v>285.6666666666667</v>
+        <v>285.8666666666667</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3093,22 +3093,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C78" t="n">
         <v>292</v>
       </c>
       <c r="D78" t="n">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="E78" t="n">
         <v>292</v>
       </c>
       <c r="F78" t="n">
-        <v>1977.5593</v>
+        <v>6059.0854</v>
       </c>
       <c r="G78" t="n">
-        <v>285.8666666666667</v>
+        <v>286.0666666666667</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3140,10 +3140,10 @@
         <v>292</v>
       </c>
       <c r="F79" t="n">
-        <v>6059.0854</v>
+        <v>7585.7944</v>
       </c>
       <c r="G79" t="n">
-        <v>286.0666666666667</v>
+        <v>286.2</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3166,19 +3166,19 @@
         <v>292</v>
       </c>
       <c r="C80" t="n">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D80" t="n">
         <v>292</v>
       </c>
       <c r="E80" t="n">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F80" t="n">
-        <v>7585.7944</v>
+        <v>5894.3123</v>
       </c>
       <c r="G80" t="n">
-        <v>286.2</v>
+        <v>286.4</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3198,22 +3198,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C81" t="n">
         <v>291</v>
       </c>
       <c r="D81" t="n">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E81" t="n">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F81" t="n">
-        <v>5894.3123</v>
+        <v>1438.1786103</v>
       </c>
       <c r="G81" t="n">
-        <v>286.4</v>
+        <v>286.6</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3233,22 +3233,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C82" t="n">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D82" t="n">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="E82" t="n">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="F82" t="n">
-        <v>1438.1786103</v>
+        <v>5703.2624</v>
       </c>
       <c r="G82" t="n">
-        <v>286.6</v>
+        <v>286.75</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3268,22 +3268,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C83" t="n">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D83" t="n">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="E83" t="n">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F83" t="n">
-        <v>5703.2624</v>
+        <v>565.8486</v>
       </c>
       <c r="G83" t="n">
-        <v>286.75</v>
+        <v>286.9333333333333</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3303,22 +3303,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C84" t="n">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D84" t="n">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E84" t="n">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F84" t="n">
-        <v>565.8486</v>
+        <v>325.2332</v>
       </c>
       <c r="G84" t="n">
-        <v>286.9333333333333</v>
+        <v>287.0666666666667</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3344,16 +3344,16 @@
         <v>287</v>
       </c>
       <c r="D85" t="n">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E85" t="n">
         <v>287</v>
       </c>
       <c r="F85" t="n">
-        <v>325.2332</v>
+        <v>410.1822</v>
       </c>
       <c r="G85" t="n">
-        <v>287.0666666666667</v>
+        <v>287.2</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3373,22 +3373,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C86" t="n">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D86" t="n">
         <v>288</v>
       </c>
       <c r="E86" t="n">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F86" t="n">
-        <v>410.1822</v>
+        <v>426.335</v>
       </c>
       <c r="G86" t="n">
-        <v>287.2</v>
+        <v>287.3666666666667</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3408,22 +3408,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C87" t="n">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D87" t="n">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="E87" t="n">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F87" t="n">
-        <v>426.335</v>
+        <v>1576.5758</v>
       </c>
       <c r="G87" t="n">
-        <v>287.3666666666667</v>
+        <v>287.5666666666667</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3443,7 +3443,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C88" t="n">
         <v>290</v>
@@ -3452,13 +3452,13 @@
         <v>290</v>
       </c>
       <c r="E88" t="n">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F88" t="n">
-        <v>1576.5758</v>
+        <v>1268.2965</v>
       </c>
       <c r="G88" t="n">
-        <v>287.5666666666667</v>
+        <v>287.75</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3478,22 +3478,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C89" t="n">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D89" t="n">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E89" t="n">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F89" t="n">
-        <v>1268.2965</v>
+        <v>147.4644</v>
       </c>
       <c r="G89" t="n">
-        <v>287.75</v>
+        <v>287.9166666666667</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3525,10 +3525,10 @@
         <v>289</v>
       </c>
       <c r="F90" t="n">
-        <v>147.4644</v>
+        <v>231.9856</v>
       </c>
       <c r="G90" t="n">
-        <v>287.9166666666667</v>
+        <v>288.0333333333334</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3560,10 +3560,10 @@
         <v>289</v>
       </c>
       <c r="F91" t="n">
-        <v>231.9856</v>
+        <v>881.1942</v>
       </c>
       <c r="G91" t="n">
-        <v>288.0333333333334</v>
+        <v>288.1666666666667</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3595,10 +3595,10 @@
         <v>289</v>
       </c>
       <c r="F92" t="n">
-        <v>881.1942</v>
+        <v>396.4492</v>
       </c>
       <c r="G92" t="n">
-        <v>288.1666666666667</v>
+        <v>288.3</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3618,22 +3618,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C93" t="n">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D93" t="n">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E93" t="n">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F93" t="n">
-        <v>396.4492</v>
+        <v>5668.8077</v>
       </c>
       <c r="G93" t="n">
-        <v>288.3</v>
+        <v>288.4</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3653,22 +3653,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C94" t="n">
         <v>287</v>
       </c>
       <c r="D94" t="n">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E94" t="n">
         <v>287</v>
       </c>
       <c r="F94" t="n">
-        <v>5668.8077</v>
+        <v>278.4886</v>
       </c>
       <c r="G94" t="n">
-        <v>288.4</v>
+        <v>288.5</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3700,7 +3700,7 @@
         <v>287</v>
       </c>
       <c r="F95" t="n">
-        <v>278.4886</v>
+        <v>26.8397</v>
       </c>
       <c r="G95" t="n">
         <v>288.5</v>
@@ -3735,7 +3735,7 @@
         <v>287</v>
       </c>
       <c r="F96" t="n">
-        <v>26.8397</v>
+        <v>638.1707</v>
       </c>
       <c r="G96" t="n">
         <v>288.5</v>
@@ -3770,10 +3770,10 @@
         <v>287</v>
       </c>
       <c r="F97" t="n">
-        <v>638.1707</v>
+        <v>17403.8136</v>
       </c>
       <c r="G97" t="n">
-        <v>288.5</v>
+        <v>288.5166666666667</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3793,22 +3793,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C98" t="n">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D98" t="n">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E98" t="n">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F98" t="n">
-        <v>17403.8136</v>
+        <v>36.2599</v>
       </c>
       <c r="G98" t="n">
-        <v>288.5166666666667</v>
+        <v>288.5666666666667</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3828,22 +3828,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C99" t="n">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D99" t="n">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="E99" t="n">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F99" t="n">
-        <v>36.2599</v>
+        <v>338.9103</v>
       </c>
       <c r="G99" t="n">
-        <v>288.5666666666667</v>
+        <v>288.65</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3863,22 +3863,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C100" t="n">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D100" t="n">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E100" t="n">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F100" t="n">
-        <v>338.9103</v>
+        <v>26</v>
       </c>
       <c r="G100" t="n">
-        <v>288.65</v>
+        <v>288.7</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3898,22 +3898,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C101" t="n">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D101" t="n">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="E101" t="n">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F101" t="n">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="G101" t="n">
-        <v>288.7</v>
+        <v>288.8166666666667</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3936,19 +3936,19 @@
         <v>290</v>
       </c>
       <c r="C102" t="n">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="D102" t="n">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="E102" t="n">
         <v>290</v>
       </c>
       <c r="F102" t="n">
-        <v>1</v>
+        <v>3034.60231152</v>
       </c>
       <c r="G102" t="n">
-        <v>288.8166666666667</v>
+        <v>289</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3968,22 +3968,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="C103" t="n">
+        <v>296</v>
+      </c>
+      <c r="D103" t="n">
+        <v>296</v>
+      </c>
+      <c r="E103" t="n">
         <v>295</v>
       </c>
-      <c r="D103" t="n">
-        <v>295</v>
-      </c>
-      <c r="E103" t="n">
-        <v>290</v>
-      </c>
       <c r="F103" t="n">
-        <v>3034.60231152</v>
+        <v>3013.48920435</v>
       </c>
       <c r="G103" t="n">
-        <v>289</v>
+        <v>289.2</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4003,22 +4003,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C104" t="n">
+        <v>300</v>
+      </c>
+      <c r="D104" t="n">
+        <v>300</v>
+      </c>
+      <c r="E104" t="n">
         <v>296</v>
       </c>
-      <c r="D104" t="n">
-        <v>296</v>
-      </c>
-      <c r="E104" t="n">
-        <v>295</v>
-      </c>
       <c r="F104" t="n">
-        <v>3013.48920435</v>
+        <v>18505.97708346</v>
       </c>
       <c r="G104" t="n">
-        <v>289.2</v>
+        <v>289.4666666666666</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4038,22 +4038,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="C105" t="n">
+        <v>305</v>
+      </c>
+      <c r="D105" t="n">
+        <v>306</v>
+      </c>
+      <c r="E105" t="n">
         <v>300</v>
       </c>
-      <c r="D105" t="n">
-        <v>300</v>
-      </c>
-      <c r="E105" t="n">
-        <v>296</v>
-      </c>
       <c r="F105" t="n">
-        <v>18505.97708346</v>
+        <v>55898.47012898</v>
       </c>
       <c r="G105" t="n">
-        <v>289.4666666666666</v>
+        <v>289.8333333333333</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4073,22 +4073,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="C106" t="n">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="D106" t="n">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="E106" t="n">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="F106" t="n">
-        <v>55898.47012898</v>
+        <v>11486.2389</v>
       </c>
       <c r="G106" t="n">
-        <v>289.8333333333333</v>
+        <v>290.25</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4108,22 +4108,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="C107" t="n">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D107" t="n">
         <v>310</v>
       </c>
       <c r="E107" t="n">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="F107" t="n">
-        <v>11486.2389</v>
+        <v>2039.7047</v>
       </c>
       <c r="G107" t="n">
-        <v>290.25</v>
+        <v>290.6666666666667</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4143,10 +4143,10 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
+        <v>308</v>
+      </c>
+      <c r="C108" t="n">
         <v>310</v>
-      </c>
-      <c r="C108" t="n">
-        <v>308</v>
       </c>
       <c r="D108" t="n">
         <v>310</v>
@@ -4155,10 +4155,10 @@
         <v>307</v>
       </c>
       <c r="F108" t="n">
-        <v>2039.7047</v>
+        <v>3753.54600806</v>
       </c>
       <c r="G108" t="n">
-        <v>290.6666666666667</v>
+        <v>291.1166666666667</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4178,22 +4178,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C109" t="n">
+        <v>315</v>
+      </c>
+      <c r="D109" t="n">
+        <v>317</v>
+      </c>
+      <c r="E109" t="n">
         <v>310</v>
       </c>
-      <c r="D109" t="n">
-        <v>310</v>
-      </c>
-      <c r="E109" t="n">
-        <v>307</v>
-      </c>
       <c r="F109" t="n">
-        <v>3753.54600806</v>
+        <v>28984.20794961</v>
       </c>
       <c r="G109" t="n">
-        <v>291.1166666666667</v>
+        <v>291.6666666666667</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4213,22 +4213,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="C110" t="n">
+        <v>319</v>
+      </c>
+      <c r="D110" t="n">
+        <v>319</v>
+      </c>
+      <c r="E110" t="n">
         <v>315</v>
       </c>
-      <c r="D110" t="n">
-        <v>317</v>
-      </c>
-      <c r="E110" t="n">
-        <v>310</v>
-      </c>
       <c r="F110" t="n">
-        <v>28984.20794961</v>
+        <v>9758.80514233</v>
       </c>
       <c r="G110" t="n">
-        <v>291.6666666666667</v>
+        <v>292.2333333333333</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4248,28 +4248,28 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="C111" t="n">
         <v>319</v>
       </c>
       <c r="D111" t="n">
+        <v>321</v>
+      </c>
+      <c r="E111" t="n">
         <v>319</v>
       </c>
-      <c r="E111" t="n">
-        <v>315</v>
-      </c>
       <c r="F111" t="n">
-        <v>9758.80514233</v>
+        <v>12047.21317868</v>
       </c>
       <c r="G111" t="n">
-        <v>292.2333333333333</v>
+        <v>292.7666666666667</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
@@ -4283,22 +4283,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C112" t="n">
+        <v>318</v>
+      </c>
+      <c r="D112" t="n">
         <v>319</v>
       </c>
-      <c r="D112" t="n">
-        <v>321</v>
-      </c>
       <c r="E112" t="n">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F112" t="n">
-        <v>12047.21317868</v>
+        <v>13588.88688495</v>
       </c>
       <c r="G112" t="n">
-        <v>292.7666666666667</v>
+        <v>293.3333333333333</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4318,22 +4318,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C113" t="n">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="D113" t="n">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E113" t="n">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F113" t="n">
-        <v>13588.88688495</v>
+        <v>358.9361</v>
       </c>
       <c r="G113" t="n">
-        <v>293.3333333333333</v>
+        <v>293.8</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4353,22 +4353,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C114" t="n">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D114" t="n">
         <v>317</v>
       </c>
       <c r="E114" t="n">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="F114" t="n">
-        <v>358.9361</v>
+        <v>8830.792600000001</v>
       </c>
       <c r="G114" t="n">
-        <v>293.8</v>
+        <v>294.3333333333333</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4388,22 +4388,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C115" t="n">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="D115" t="n">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="E115" t="n">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="F115" t="n">
-        <v>8830.792600000001</v>
+        <v>1030.1332</v>
       </c>
       <c r="G115" t="n">
-        <v>294.3333333333333</v>
+        <v>294.7666666666667</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4423,22 +4423,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="C116" t="n">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="D116" t="n">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="E116" t="n">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="F116" t="n">
-        <v>1030.1332</v>
+        <v>334.4477</v>
       </c>
       <c r="G116" t="n">
-        <v>294.7666666666667</v>
+        <v>295.1333333333333</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4458,22 +4458,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C117" t="n">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D117" t="n">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="E117" t="n">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F117" t="n">
-        <v>334.4477</v>
+        <v>17627.2079</v>
       </c>
       <c r="G117" t="n">
-        <v>295.1333333333333</v>
+        <v>295.4333333333333</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4493,22 +4493,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C118" t="n">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="D118" t="n">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E118" t="n">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="F118" t="n">
-        <v>17627.2079</v>
+        <v>3966.3546</v>
       </c>
       <c r="G118" t="n">
-        <v>295.4333333333333</v>
+        <v>295.8666666666667</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4528,22 +4528,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="C119" t="n">
         <v>310</v>
       </c>
       <c r="D119" t="n">
+        <v>315</v>
+      </c>
+      <c r="E119" t="n">
         <v>310</v>
       </c>
-      <c r="E119" t="n">
-        <v>307</v>
-      </c>
       <c r="F119" t="n">
-        <v>3966.3546</v>
+        <v>7699.6774</v>
       </c>
       <c r="G119" t="n">
-        <v>295.8666666666667</v>
+        <v>296.2166666666666</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4566,19 +4566,19 @@
         <v>310</v>
       </c>
       <c r="C120" t="n">
+        <v>307</v>
+      </c>
+      <c r="D120" t="n">
         <v>310</v>
       </c>
-      <c r="D120" t="n">
-        <v>315</v>
-      </c>
       <c r="E120" t="n">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F120" t="n">
-        <v>7699.6774</v>
+        <v>1828.4134</v>
       </c>
       <c r="G120" t="n">
-        <v>296.2166666666666</v>
+        <v>296.5333333333334</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4598,22 +4598,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C121" t="n">
+        <v>300</v>
+      </c>
+      <c r="D121" t="n">
         <v>307</v>
       </c>
-      <c r="D121" t="n">
-        <v>310</v>
-      </c>
       <c r="E121" t="n">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="F121" t="n">
-        <v>1828.4134</v>
+        <v>2390.0935</v>
       </c>
       <c r="G121" t="n">
-        <v>296.5333333333334</v>
+        <v>296.7166666666666</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4633,22 +4633,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C122" t="n">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="D122" t="n">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="E122" t="n">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F122" t="n">
-        <v>2390.0935</v>
+        <v>10.3346</v>
       </c>
       <c r="G122" t="n">
-        <v>296.7166666666666</v>
+        <v>296.8833333333333</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4668,22 +4668,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C123" t="n">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="D123" t="n">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="E123" t="n">
         <v>302</v>
       </c>
       <c r="F123" t="n">
-        <v>10.3346</v>
+        <v>10.8743</v>
       </c>
       <c r="G123" t="n">
-        <v>296.8833333333333</v>
+        <v>297.1</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4703,22 +4703,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="C124" t="n">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="D124" t="n">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="E124" t="n">
         <v>302</v>
       </c>
       <c r="F124" t="n">
-        <v>10.8743</v>
+        <v>1619.33</v>
       </c>
       <c r="G124" t="n">
-        <v>297.1</v>
+        <v>297.3333333333333</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4738,7 +4738,7 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="C125" t="n">
         <v>310</v>
@@ -4747,13 +4747,13 @@
         <v>310</v>
       </c>
       <c r="E125" t="n">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="F125" t="n">
-        <v>1619.33</v>
+        <v>619.7018</v>
       </c>
       <c r="G125" t="n">
-        <v>297.3333333333333</v>
+        <v>297.5666666666667</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4773,22 +4773,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C126" t="n">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="D126" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E126" t="n">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="F126" t="n">
-        <v>619.7018</v>
+        <v>4697.7738</v>
       </c>
       <c r="G126" t="n">
-        <v>297.5666666666667</v>
+        <v>297.7166666666666</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4808,22 +4808,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C127" t="n">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="D127" t="n">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E127" t="n">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="F127" t="n">
-        <v>4697.7738</v>
+        <v>1134.1213</v>
       </c>
       <c r="G127" t="n">
-        <v>297.7166666666666</v>
+        <v>297.9666666666666</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4843,22 +4843,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C128" t="n">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="D128" t="n">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="E128" t="n">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F128" t="n">
-        <v>1134.1213</v>
+        <v>4367.84692151</v>
       </c>
       <c r="G128" t="n">
-        <v>297.9666666666666</v>
+        <v>298.3166666666667</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4878,22 +4878,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="C129" t="n">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D129" t="n">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E129" t="n">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="F129" t="n">
-        <v>4367.84692151</v>
+        <v>2725.8598</v>
       </c>
       <c r="G129" t="n">
-        <v>298.3166666666667</v>
+        <v>298.6333333333333</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4916,19 +4916,19 @@
         <v>314</v>
       </c>
       <c r="C130" t="n">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D130" t="n">
         <v>314</v>
       </c>
       <c r="E130" t="n">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F130" t="n">
-        <v>2725.8598</v>
+        <v>203.7656</v>
       </c>
       <c r="G130" t="n">
-        <v>298.6333333333333</v>
+        <v>298.9333333333333</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4948,22 +4948,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C131" t="n">
+        <v>307</v>
+      </c>
+      <c r="D131" t="n">
         <v>313</v>
       </c>
-      <c r="D131" t="n">
-        <v>314</v>
-      </c>
       <c r="E131" t="n">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="F131" t="n">
-        <v>203.7656</v>
+        <v>3166.4516</v>
       </c>
       <c r="G131" t="n">
-        <v>298.9333333333333</v>
+        <v>299.1833333333333</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -4983,22 +4983,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="C132" t="n">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D132" t="n">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="E132" t="n">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F132" t="n">
-        <v>3166.4516</v>
+        <v>1124.7454</v>
       </c>
       <c r="G132" t="n">
-        <v>299.1833333333333</v>
+        <v>299.4333333333333</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5018,22 +5018,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="C133" t="n">
         <v>308</v>
       </c>
       <c r="D133" t="n">
+        <v>311</v>
+      </c>
+      <c r="E133" t="n">
         <v>308</v>
       </c>
-      <c r="E133" t="n">
-        <v>304</v>
-      </c>
       <c r="F133" t="n">
-        <v>1124.7454</v>
+        <v>1705.8998</v>
       </c>
       <c r="G133" t="n">
-        <v>299.4333333333333</v>
+        <v>299.6833333333333</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5053,22 +5053,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="C134" t="n">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="D134" t="n">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="E134" t="n">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="F134" t="n">
-        <v>1705.8998</v>
+        <v>11237.186</v>
       </c>
       <c r="G134" t="n">
-        <v>299.6833333333333</v>
+        <v>299.85</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5094,16 +5094,16 @@
         <v>303</v>
       </c>
       <c r="D135" t="n">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E135" t="n">
         <v>303</v>
       </c>
       <c r="F135" t="n">
-        <v>11237.186</v>
+        <v>3001.6254</v>
       </c>
       <c r="G135" t="n">
-        <v>299.85</v>
+        <v>300.0166666666667</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5126,19 +5126,19 @@
         <v>303</v>
       </c>
       <c r="C136" t="n">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="D136" t="n">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="E136" t="n">
         <v>303</v>
       </c>
       <c r="F136" t="n">
-        <v>3001.6254</v>
+        <v>435.17</v>
       </c>
       <c r="G136" t="n">
-        <v>300.0166666666667</v>
+        <v>300.2166666666666</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5158,22 +5158,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="C137" t="n">
+        <v>312</v>
+      </c>
+      <c r="D137" t="n">
+        <v>312</v>
+      </c>
+      <c r="E137" t="n">
         <v>307</v>
       </c>
-      <c r="D137" t="n">
-        <v>307</v>
-      </c>
-      <c r="E137" t="n">
-        <v>303</v>
-      </c>
       <c r="F137" t="n">
-        <v>435.17</v>
+        <v>4858.0738</v>
       </c>
       <c r="G137" t="n">
-        <v>300.2166666666666</v>
+        <v>300.55</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5193,22 +5193,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="C138" t="n">
+        <v>313</v>
+      </c>
+      <c r="D138" t="n">
+        <v>313</v>
+      </c>
+      <c r="E138" t="n">
         <v>312</v>
       </c>
-      <c r="D138" t="n">
-        <v>312</v>
-      </c>
-      <c r="E138" t="n">
-        <v>307</v>
-      </c>
       <c r="F138" t="n">
-        <v>4858.0738</v>
+        <v>2713.586</v>
       </c>
       <c r="G138" t="n">
-        <v>300.55</v>
+        <v>300.9</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5228,22 +5228,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C139" t="n">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D139" t="n">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="E139" t="n">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="F139" t="n">
-        <v>2713.586</v>
+        <v>8562.179</v>
       </c>
       <c r="G139" t="n">
-        <v>300.9</v>
+        <v>301.3</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5263,22 +5263,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C140" t="n">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D140" t="n">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="E140" t="n">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F140" t="n">
-        <v>8562.179</v>
+        <v>5916.8279</v>
       </c>
       <c r="G140" t="n">
-        <v>301.3</v>
+        <v>301.6666666666667</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5298,22 +5298,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C141" t="n">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D141" t="n">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E141" t="n">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="F141" t="n">
-        <v>5916.8279</v>
+        <v>784.3275</v>
       </c>
       <c r="G141" t="n">
-        <v>301.6666666666667</v>
+        <v>302.0833333333333</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5333,22 +5333,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C142" t="n">
         <v>316</v>
       </c>
       <c r="D142" t="n">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E142" t="n">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F142" t="n">
-        <v>784.3275</v>
+        <v>418.9612</v>
       </c>
       <c r="G142" t="n">
-        <v>302.0833333333333</v>
+        <v>302.5666666666667</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5368,22 +5368,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C143" t="n">
+        <v>318</v>
+      </c>
+      <c r="D143" t="n">
+        <v>318</v>
+      </c>
+      <c r="E143" t="n">
         <v>316</v>
       </c>
-      <c r="D143" t="n">
-        <v>316</v>
-      </c>
-      <c r="E143" t="n">
-        <v>315</v>
-      </c>
       <c r="F143" t="n">
-        <v>418.9612</v>
+        <v>9528.98907849</v>
       </c>
       <c r="G143" t="n">
-        <v>302.5666666666667</v>
+        <v>303.05</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5403,22 +5403,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C144" t="n">
+        <v>320</v>
+      </c>
+      <c r="D144" t="n">
+        <v>320</v>
+      </c>
+      <c r="E144" t="n">
         <v>318</v>
       </c>
-      <c r="D144" t="n">
-        <v>318</v>
-      </c>
-      <c r="E144" t="n">
-        <v>316</v>
-      </c>
       <c r="F144" t="n">
-        <v>9528.98907849</v>
+        <v>1725.7651</v>
       </c>
       <c r="G144" t="n">
-        <v>303.05</v>
+        <v>303.6</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5441,19 +5441,19 @@
         <v>318</v>
       </c>
       <c r="C145" t="n">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D145" t="n">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E145" t="n">
         <v>318</v>
       </c>
       <c r="F145" t="n">
-        <v>1725.7651</v>
+        <v>2418.5097</v>
       </c>
       <c r="G145" t="n">
-        <v>303.6</v>
+        <v>304.1166666666667</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5473,22 +5473,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C146" t="n">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D146" t="n">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E146" t="n">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F146" t="n">
-        <v>2418.5097</v>
+        <v>3995.9559</v>
       </c>
       <c r="G146" t="n">
-        <v>304.1166666666667</v>
+        <v>304.5833333333333</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5508,22 +5508,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C147" t="n">
         <v>316</v>
       </c>
       <c r="D147" t="n">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E147" t="n">
         <v>316</v>
       </c>
       <c r="F147" t="n">
-        <v>3995.9559</v>
+        <v>1259.6626</v>
       </c>
       <c r="G147" t="n">
-        <v>304.5833333333333</v>
+        <v>305.0166666666667</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5546,19 +5546,19 @@
         <v>316</v>
       </c>
       <c r="C148" t="n">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="D148" t="n">
         <v>316</v>
       </c>
       <c r="E148" t="n">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="F148" t="n">
-        <v>1259.6626</v>
+        <v>8674.8514</v>
       </c>
       <c r="G148" t="n">
-        <v>305.0166666666667</v>
+        <v>305.3666666666667</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5578,22 +5578,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C149" t="n">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D149" t="n">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="E149" t="n">
         <v>311</v>
       </c>
       <c r="F149" t="n">
-        <v>8674.8514</v>
+        <v>1756.7649</v>
       </c>
       <c r="G149" t="n">
-        <v>305.3666666666667</v>
+        <v>305.75</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5622,13 +5622,13 @@
         <v>312</v>
       </c>
       <c r="E150" t="n">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="F150" t="n">
-        <v>1756.7649</v>
+        <v>8338.769</v>
       </c>
       <c r="G150" t="n">
-        <v>305.75</v>
+        <v>306.1333333333333</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5648,22 +5648,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C151" t="n">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="D151" t="n">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="E151" t="n">
         <v>312</v>
       </c>
       <c r="F151" t="n">
-        <v>8338.769</v>
+        <v>2054.7905</v>
       </c>
       <c r="G151" t="n">
-        <v>306.1333333333333</v>
+        <v>306.5666666666667</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5683,22 +5683,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C152" t="n">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="D152" t="n">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="E152" t="n">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F152" t="n">
-        <v>2054.7905</v>
+        <v>1893.018</v>
       </c>
       <c r="G152" t="n">
-        <v>306.5666666666667</v>
+        <v>306.9333333333333</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5718,22 +5718,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C153" t="n">
         <v>311</v>
       </c>
       <c r="D153" t="n">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E153" t="n">
         <v>311</v>
       </c>
       <c r="F153" t="n">
-        <v>1893.018</v>
+        <v>1431.8346</v>
       </c>
       <c r="G153" t="n">
-        <v>306.9333333333333</v>
+        <v>307.3333333333333</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5753,22 +5753,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C154" t="n">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="D154" t="n">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="E154" t="n">
         <v>311</v>
       </c>
       <c r="F154" t="n">
-        <v>1431.8346</v>
+        <v>4814.26473949</v>
       </c>
       <c r="G154" t="n">
-        <v>307.3333333333333</v>
+        <v>307.8666666666667</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5788,22 +5788,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="C155" t="n">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="D155" t="n">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E155" t="n">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="F155" t="n">
-        <v>4814.26473949</v>
+        <v>21.9725</v>
       </c>
       <c r="G155" t="n">
-        <v>307.8666666666667</v>
+        <v>308.3166666666667</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5823,22 +5823,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C156" t="n">
+        <v>310</v>
+      </c>
+      <c r="D156" t="n">
         <v>314</v>
       </c>
-      <c r="D156" t="n">
-        <v>317</v>
-      </c>
       <c r="E156" t="n">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F156" t="n">
-        <v>21.9725</v>
+        <v>20691.6627</v>
       </c>
       <c r="G156" t="n">
-        <v>308.3166666666667</v>
+        <v>308.7</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5858,22 +5858,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C157" t="n">
         <v>310</v>
       </c>
       <c r="D157" t="n">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E157" t="n">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F157" t="n">
-        <v>20691.6627</v>
+        <v>43</v>
       </c>
       <c r="G157" t="n">
-        <v>308.7</v>
+        <v>309.0833333333333</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -5893,22 +5893,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C158" t="n">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="D158" t="n">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="E158" t="n">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="F158" t="n">
-        <v>43</v>
+        <v>8892.037892779999</v>
       </c>
       <c r="G158" t="n">
-        <v>309.0833333333333</v>
+        <v>309.6</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -5928,22 +5928,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C159" t="n">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="D159" t="n">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="E159" t="n">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="F159" t="n">
-        <v>8892.037892779999</v>
+        <v>2166.8408</v>
       </c>
       <c r="G159" t="n">
-        <v>309.6</v>
+        <v>309.9</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -5963,22 +5963,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C160" t="n">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="D160" t="n">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="E160" t="n">
         <v>308</v>
       </c>
       <c r="F160" t="n">
-        <v>2166.8408</v>
+        <v>1603.3992</v>
       </c>
       <c r="G160" t="n">
-        <v>309.9</v>
+        <v>310.2833333333334</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6001,19 +6001,19 @@
         <v>311</v>
       </c>
       <c r="C161" t="n">
+        <v>313</v>
+      </c>
+      <c r="D161" t="n">
+        <v>313</v>
+      </c>
+      <c r="E161" t="n">
         <v>311</v>
       </c>
-      <c r="D161" t="n">
-        <v>311</v>
-      </c>
-      <c r="E161" t="n">
-        <v>308</v>
-      </c>
       <c r="F161" t="n">
-        <v>1603.3992</v>
+        <v>147.13116134</v>
       </c>
       <c r="G161" t="n">
-        <v>310.2833333333334</v>
+        <v>310.6666666666667</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6033,22 +6033,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C162" t="n">
+        <v>318</v>
+      </c>
+      <c r="D162" t="n">
+        <v>318</v>
+      </c>
+      <c r="E162" t="n">
         <v>313</v>
       </c>
-      <c r="D162" t="n">
-        <v>313</v>
-      </c>
-      <c r="E162" t="n">
-        <v>311</v>
-      </c>
       <c r="F162" t="n">
-        <v>147.13116134</v>
+        <v>4532.24421476</v>
       </c>
       <c r="G162" t="n">
-        <v>310.6666666666667</v>
+        <v>311.05</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6068,22 +6068,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C163" t="n">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D163" t="n">
         <v>318</v>
       </c>
       <c r="E163" t="n">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="F163" t="n">
-        <v>4532.24421476</v>
+        <v>1597.562</v>
       </c>
       <c r="G163" t="n">
-        <v>311.05</v>
+        <v>311.4</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6106,19 +6106,19 @@
         <v>316</v>
       </c>
       <c r="C164" t="n">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D164" t="n">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E164" t="n">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F164" t="n">
-        <v>1597.562</v>
+        <v>53.6761</v>
       </c>
       <c r="G164" t="n">
-        <v>311.4</v>
+        <v>311.6666666666667</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6138,7 +6138,7 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C165" t="n">
         <v>316</v>
@@ -6147,13 +6147,13 @@
         <v>316</v>
       </c>
       <c r="E165" t="n">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="F165" t="n">
-        <v>53.6761</v>
+        <v>680.8425</v>
       </c>
       <c r="G165" t="n">
-        <v>311.6666666666667</v>
+        <v>311.85</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6173,7 +6173,7 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C166" t="n">
         <v>316</v>
@@ -6185,10 +6185,10 @@
         <v>314</v>
       </c>
       <c r="F166" t="n">
-        <v>680.8425</v>
+        <v>4791.1088</v>
       </c>
       <c r="G166" t="n">
-        <v>311.85</v>
+        <v>311.9666666666666</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6217,13 +6217,13 @@
         <v>316</v>
       </c>
       <c r="E167" t="n">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="F167" t="n">
-        <v>4791.1088</v>
+        <v>80</v>
       </c>
       <c r="G167" t="n">
-        <v>311.9666666666666</v>
+        <v>312.1</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6246,19 +6246,19 @@
         <v>316</v>
       </c>
       <c r="C168" t="n">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D168" t="n">
         <v>316</v>
       </c>
       <c r="E168" t="n">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="F168" t="n">
-        <v>80</v>
+        <v>1337.8771</v>
       </c>
       <c r="G168" t="n">
-        <v>312.1</v>
+        <v>312.1666666666667</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6278,22 +6278,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C169" t="n">
         <v>314</v>
       </c>
       <c r="D169" t="n">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E169" t="n">
         <v>314</v>
       </c>
       <c r="F169" t="n">
-        <v>1337.8771</v>
+        <v>612.8881</v>
       </c>
       <c r="G169" t="n">
-        <v>312.1666666666667</v>
+        <v>312.15</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6313,22 +6313,22 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C170" t="n">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="D170" t="n">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="E170" t="n">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F170" t="n">
-        <v>612.8881</v>
+        <v>874.1676</v>
       </c>
       <c r="G170" t="n">
-        <v>312.15</v>
+        <v>312</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6348,22 +6348,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C171" t="n">
+        <v>307</v>
+      </c>
+      <c r="D171" t="n">
         <v>310</v>
       </c>
-      <c r="D171" t="n">
-        <v>311</v>
-      </c>
       <c r="E171" t="n">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F171" t="n">
-        <v>874.1676</v>
+        <v>15309.9249</v>
       </c>
       <c r="G171" t="n">
-        <v>312</v>
+        <v>311.8</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6383,22 +6383,22 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C172" t="n">
         <v>307</v>
       </c>
       <c r="D172" t="n">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="E172" t="n">
         <v>307</v>
       </c>
       <c r="F172" t="n">
-        <v>15309.9249</v>
+        <v>719.4442</v>
       </c>
       <c r="G172" t="n">
-        <v>311.8</v>
+        <v>311.6166666666667</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6418,22 +6418,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C173" t="n">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D173" t="n">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E173" t="n">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F173" t="n">
-        <v>719.4442</v>
+        <v>859.3279</v>
       </c>
       <c r="G173" t="n">
-        <v>311.6166666666667</v>
+        <v>311.4833333333333</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6453,22 +6453,22 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C174" t="n">
         <v>305</v>
       </c>
       <c r="D174" t="n">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E174" t="n">
         <v>305</v>
       </c>
       <c r="F174" t="n">
-        <v>859.3279</v>
+        <v>328.1493</v>
       </c>
       <c r="G174" t="n">
-        <v>311.4833333333333</v>
+        <v>311.3</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6488,19 +6488,19 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="C175" t="n">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="D175" t="n">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="E175" t="n">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="F175" t="n">
-        <v>328.1493</v>
+        <v>68.1854</v>
       </c>
       <c r="G175" t="n">
         <v>311.3</v>
@@ -6535,10 +6535,10 @@
         <v>310</v>
       </c>
       <c r="F176" t="n">
-        <v>68.1854</v>
+        <v>53.1723</v>
       </c>
       <c r="G176" t="n">
-        <v>311.3</v>
+        <v>311.3666666666667</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6558,22 +6558,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C177" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D177" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E177" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F177" t="n">
-        <v>53.1723</v>
+        <v>9.807</v>
       </c>
       <c r="G177" t="n">
-        <v>311.3666666666667</v>
+        <v>311.4666666666666</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6593,19 +6593,19 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C178" t="n">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D178" t="n">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E178" t="n">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F178" t="n">
-        <v>9.807</v>
+        <v>0.6423</v>
       </c>
       <c r="G178" t="n">
         <v>311.4666666666666</v>
@@ -6628,22 +6628,22 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C179" t="n">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D179" t="n">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E179" t="n">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F179" t="n">
-        <v>0.6423</v>
+        <v>128</v>
       </c>
       <c r="G179" t="n">
-        <v>311.4666666666666</v>
+        <v>311.4333333333333</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6663,22 +6663,22 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C180" t="n">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D180" t="n">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E180" t="n">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="F180" t="n">
-        <v>128</v>
+        <v>49.2327</v>
       </c>
       <c r="G180" t="n">
-        <v>311.4333333333333</v>
+        <v>311.4833333333333</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6701,19 +6701,19 @@
         <v>310</v>
       </c>
       <c r="C181" t="n">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="D181" t="n">
         <v>310</v>
       </c>
       <c r="E181" t="n">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="F181" t="n">
-        <v>49.2327</v>
+        <v>29805.6559</v>
       </c>
       <c r="G181" t="n">
-        <v>311.4833333333333</v>
+        <v>311.5</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -6733,22 +6733,22 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="C182" t="n">
         <v>301</v>
       </c>
       <c r="D182" t="n">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="E182" t="n">
         <v>301</v>
       </c>
       <c r="F182" t="n">
-        <v>29805.6559</v>
+        <v>4502.0092</v>
       </c>
       <c r="G182" t="n">
-        <v>311.5</v>
+        <v>311.4666666666666</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -6771,19 +6771,19 @@
         <v>302</v>
       </c>
       <c r="C183" t="n">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D183" t="n">
         <v>302</v>
       </c>
       <c r="E183" t="n">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F183" t="n">
-        <v>4502.0092</v>
+        <v>7133.5896</v>
       </c>
       <c r="G183" t="n">
-        <v>311.4666666666666</v>
+        <v>311.3833333333333</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -6803,22 +6803,22 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C184" t="n">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D184" t="n">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="E184" t="n">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F184" t="n">
-        <v>7133.5896</v>
+        <v>15089.3803</v>
       </c>
       <c r="G184" t="n">
-        <v>311.3833333333333</v>
+        <v>311.2333333333333</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -6841,19 +6841,19 @@
         <v>301</v>
       </c>
       <c r="C185" t="n">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D185" t="n">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="E185" t="n">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F185" t="n">
-        <v>15089.3803</v>
+        <v>5764.8203</v>
       </c>
       <c r="G185" t="n">
-        <v>311.2333333333333</v>
+        <v>311.1166666666667</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -6873,22 +6873,22 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C186" t="n">
+        <v>310</v>
+      </c>
+      <c r="D186" t="n">
+        <v>310</v>
+      </c>
+      <c r="E186" t="n">
         <v>303</v>
       </c>
-      <c r="D186" t="n">
-        <v>303</v>
-      </c>
-      <c r="E186" t="n">
-        <v>300</v>
-      </c>
       <c r="F186" t="n">
-        <v>5764.8203</v>
+        <v>3386.3906</v>
       </c>
       <c r="G186" t="n">
-        <v>311.1166666666667</v>
+        <v>311.2833333333334</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -6908,7 +6908,7 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="C187" t="n">
         <v>310</v>
@@ -6917,10 +6917,10 @@
         <v>310</v>
       </c>
       <c r="E187" t="n">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="F187" t="n">
-        <v>3386.3906</v>
+        <v>2721.4426</v>
       </c>
       <c r="G187" t="n">
         <v>311.2833333333334</v>
@@ -6955,10 +6955,10 @@
         <v>310</v>
       </c>
       <c r="F188" t="n">
-        <v>2721.4426</v>
+        <v>2068.4329</v>
       </c>
       <c r="G188" t="n">
-        <v>311.2833333333334</v>
+        <v>311.1833333333333</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -6978,22 +6978,22 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C189" t="n">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="D189" t="n">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="E189" t="n">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="F189" t="n">
-        <v>2068.4329</v>
+        <v>498.776</v>
       </c>
       <c r="G189" t="n">
-        <v>311.1833333333333</v>
+        <v>311.05</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7025,10 +7025,10 @@
         <v>306</v>
       </c>
       <c r="F190" t="n">
-        <v>498.776</v>
+        <v>2289.9803</v>
       </c>
       <c r="G190" t="n">
-        <v>311.05</v>
+        <v>310.9333333333333</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7048,22 +7048,22 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C191" t="n">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="D191" t="n">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="E191" t="n">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="F191" t="n">
-        <v>2289.9803</v>
+        <v>3</v>
       </c>
       <c r="G191" t="n">
-        <v>310.9333333333333</v>
+        <v>310.9666666666666</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7086,19 +7086,19 @@
         <v>309</v>
       </c>
       <c r="C192" t="n">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D192" t="n">
         <v>309</v>
       </c>
       <c r="E192" t="n">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F192" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G192" t="n">
-        <v>310.9666666666666</v>
+        <v>310.9333333333333</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7118,22 +7118,22 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C193" t="n">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D193" t="n">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E193" t="n">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F193" t="n">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="G193" t="n">
-        <v>310.9333333333333</v>
+        <v>310.8666666666667</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7153,22 +7153,22 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C194" t="n">
         <v>304</v>
       </c>
       <c r="D194" t="n">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="E194" t="n">
         <v>304</v>
       </c>
       <c r="F194" t="n">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="G194" t="n">
-        <v>310.8666666666667</v>
+        <v>310.8833333333333</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7188,22 +7188,22 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="C195" t="n">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="D195" t="n">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="E195" t="n">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="F195" t="n">
-        <v>1</v>
+        <v>974.0259</v>
       </c>
       <c r="G195" t="n">
-        <v>310.8833333333333</v>
+        <v>310.9666666666666</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7223,22 +7223,22 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C196" t="n">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="D196" t="n">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="E196" t="n">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="F196" t="n">
-        <v>974.0259</v>
+        <v>5</v>
       </c>
       <c r="G196" t="n">
-        <v>310.9666666666666</v>
+        <v>310.9166666666667</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7261,19 +7261,19 @@
         <v>304</v>
       </c>
       <c r="C197" t="n">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D197" t="n">
         <v>304</v>
       </c>
       <c r="E197" t="n">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F197" t="n">
-        <v>5</v>
+        <v>2083.0476</v>
       </c>
       <c r="G197" t="n">
-        <v>310.9166666666667</v>
+        <v>310.7666666666667</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7293,22 +7293,22 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C198" t="n">
         <v>303</v>
       </c>
       <c r="D198" t="n">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E198" t="n">
         <v>303</v>
       </c>
       <c r="F198" t="n">
-        <v>2083.0476</v>
+        <v>2526.848</v>
       </c>
       <c r="G198" t="n">
-        <v>310.7666666666667</v>
+        <v>310.6</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7328,7 +7328,7 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C199" t="n">
         <v>303</v>
@@ -7337,13 +7337,13 @@
         <v>303</v>
       </c>
       <c r="E199" t="n">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F199" t="n">
-        <v>2526.848</v>
+        <v>1254.2699</v>
       </c>
       <c r="G199" t="n">
-        <v>310.6</v>
+        <v>310.3833333333333</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7366,7 +7366,7 @@
         <v>302</v>
       </c>
       <c r="C200" t="n">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D200" t="n">
         <v>303</v>
@@ -7375,10 +7375,10 @@
         <v>302</v>
       </c>
       <c r="F200" t="n">
-        <v>1254.2699</v>
+        <v>493.3835</v>
       </c>
       <c r="G200" t="n">
-        <v>310.3833333333333</v>
+        <v>310.2</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7401,19 +7401,19 @@
         <v>302</v>
       </c>
       <c r="C201" t="n">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D201" t="n">
         <v>303</v>
       </c>
       <c r="E201" t="n">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="F201" t="n">
-        <v>493.3835</v>
+        <v>10769.0133</v>
       </c>
       <c r="G201" t="n">
-        <v>310.2</v>
+        <v>309.9833333333333</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7433,22 +7433,22 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C202" t="n">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D202" t="n">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E202" t="n">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="F202" t="n">
-        <v>10769.0133</v>
+        <v>11</v>
       </c>
       <c r="G202" t="n">
-        <v>309.9833333333333</v>
+        <v>309.7333333333333</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -7468,22 +7468,22 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C203" t="n">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D203" t="n">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="E203" t="n">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F203" t="n">
-        <v>11</v>
+        <v>262.6886</v>
       </c>
       <c r="G203" t="n">
-        <v>309.7333333333333</v>
+        <v>309.4833333333333</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -7503,22 +7503,22 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="C204" t="n">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D204" t="n">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="E204" t="n">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="F204" t="n">
-        <v>262.6886</v>
+        <v>1078.7326</v>
       </c>
       <c r="G204" t="n">
-        <v>309.4833333333333</v>
+        <v>309.1666666666667</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -7541,19 +7541,19 @@
         <v>298</v>
       </c>
       <c r="C205" t="n">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D205" t="n">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="E205" t="n">
         <v>298</v>
       </c>
       <c r="F205" t="n">
-        <v>1078.7326</v>
+        <v>2</v>
       </c>
       <c r="G205" t="n">
-        <v>309.1666666666667</v>
+        <v>308.8333333333333</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -7573,22 +7573,22 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="C206" t="n">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D206" t="n">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="E206" t="n">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F206" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G206" t="n">
-        <v>308.8333333333333</v>
+        <v>308.5666666666667</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -7608,22 +7608,22 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C207" t="n">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D207" t="n">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="E207" t="n">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F207" t="n">
-        <v>10</v>
+        <v>1313.2605</v>
       </c>
       <c r="G207" t="n">
-        <v>308.5666666666667</v>
+        <v>308.3166666666667</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -7643,22 +7643,22 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C208" t="n">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D208" t="n">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="E208" t="n">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="F208" t="n">
-        <v>1313.2605</v>
+        <v>2900.3157</v>
       </c>
       <c r="G208" t="n">
-        <v>308.3166666666667</v>
+        <v>308.0833333333333</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -7678,22 +7678,22 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C209" t="n">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D209" t="n">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E209" t="n">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F209" t="n">
-        <v>2900.3157</v>
+        <v>4715.6274</v>
       </c>
       <c r="G209" t="n">
-        <v>308.0833333333333</v>
+        <v>307.8166666666667</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -7725,10 +7725,10 @@
         <v>296</v>
       </c>
       <c r="F210" t="n">
-        <v>4715.6274</v>
+        <v>14.6355</v>
       </c>
       <c r="G210" t="n">
-        <v>307.8166666666667</v>
+        <v>307.55</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -7748,35 +7748,31 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C211" t="n">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="D211" t="n">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="E211" t="n">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F211" t="n">
-        <v>14.6355</v>
+        <v>92.4684</v>
       </c>
       <c r="G211" t="n">
-        <v>307.55</v>
+        <v>307.3</v>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="J211" t="n">
-        <v>296</v>
-      </c>
-      <c r="K211" t="n">
-        <v>296</v>
-      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="inlineStr"/>
       <c r="M211" t="n">
         <v>1</v>
@@ -7790,37 +7786,29 @@
         <v>297</v>
       </c>
       <c r="C212" t="n">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D212" t="n">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E212" t="n">
         <v>297</v>
       </c>
       <c r="F212" t="n">
-        <v>92.4684</v>
+        <v>1499.6898</v>
       </c>
       <c r="G212" t="n">
-        <v>307.3</v>
+        <v>307.0666666666667</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="n">
-        <v>296</v>
-      </c>
-      <c r="K212" t="n">
-        <v>296</v>
-      </c>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="inlineStr"/>
       <c r="M212" t="n">
         <v>1</v>
       </c>
@@ -7833,37 +7821,29 @@
         <v>297</v>
       </c>
       <c r="C213" t="n">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D213" t="n">
         <v>297</v>
       </c>
       <c r="E213" t="n">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F213" t="n">
-        <v>1499.6898</v>
+        <v>7906.9911</v>
       </c>
       <c r="G213" t="n">
-        <v>307.0666666666667</v>
+        <v>306.8166666666667</v>
       </c>
       <c r="H213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
       </c>
-      <c r="J213" t="n">
-        <v>300</v>
-      </c>
-      <c r="K213" t="n">
-        <v>296</v>
-      </c>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="inlineStr"/>
       <c r="M213" t="n">
         <v>1</v>
       </c>
@@ -7876,246 +7856,210 @@
         <v>297</v>
       </c>
       <c r="C214" t="n">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="D214" t="n">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E214" t="n">
         <v>296</v>
       </c>
       <c r="F214" t="n">
-        <v>7906.9911</v>
+        <v>3656.2656</v>
       </c>
       <c r="G214" t="n">
-        <v>306.8166666666667</v>
+        <v>306.5</v>
       </c>
       <c r="H214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
-      <c r="J214" t="n">
-        <v>297</v>
-      </c>
-      <c r="K214" t="n">
-        <v>296</v>
-      </c>
-      <c r="L214" t="inlineStr">
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="inlineStr"/>
+      <c r="M214" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>300</v>
+      </c>
+      <c r="C215" t="n">
+        <v>300</v>
+      </c>
+      <c r="D215" t="n">
+        <v>300</v>
+      </c>
+      <c r="E215" t="n">
+        <v>300</v>
+      </c>
+      <c r="F215" t="n">
+        <v>6853.6475</v>
+      </c>
+      <c r="G215" t="n">
+        <v>306.2666666666667</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" t="n">
+        <v>0</v>
+      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="inlineStr"/>
+      <c r="M215" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>300</v>
+      </c>
+      <c r="C216" t="n">
+        <v>300</v>
+      </c>
+      <c r="D216" t="n">
+        <v>300</v>
+      </c>
+      <c r="E216" t="n">
+        <v>300</v>
+      </c>
+      <c r="F216" t="n">
+        <v>147.6429</v>
+      </c>
+      <c r="G216" t="n">
+        <v>306.1</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="n">
+        <v>0</v>
+      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="inlineStr"/>
+      <c r="M216" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>300</v>
+      </c>
+      <c r="C217" t="n">
+        <v>300</v>
+      </c>
+      <c r="D217" t="n">
+        <v>300</v>
+      </c>
+      <c r="E217" t="n">
+        <v>300</v>
+      </c>
+      <c r="F217" t="n">
+        <v>64.6382</v>
+      </c>
+      <c r="G217" t="n">
+        <v>305.9333333333333</v>
+      </c>
+      <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="n">
+        <v>0</v>
+      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="inlineStr"/>
+      <c r="M217" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>302</v>
+      </c>
+      <c r="C218" t="n">
+        <v>302</v>
+      </c>
+      <c r="D218" t="n">
+        <v>302</v>
+      </c>
+      <c r="E218" t="n">
+        <v>298</v>
+      </c>
+      <c r="F218" t="n">
+        <v>8346.398300000001</v>
+      </c>
+      <c r="G218" t="n">
+        <v>305.65</v>
+      </c>
+      <c r="H218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" t="n">
+        <v>0</v>
+      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="inlineStr"/>
+      <c r="M218" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>302</v>
+      </c>
+      <c r="C219" t="n">
+        <v>300</v>
+      </c>
+      <c r="D219" t="n">
+        <v>302</v>
+      </c>
+      <c r="E219" t="n">
+        <v>300</v>
+      </c>
+      <c r="F219" t="n">
+        <v>20190.3298</v>
+      </c>
+      <c r="G219" t="n">
+        <v>305.5166666666667</v>
+      </c>
+      <c r="H219" t="n">
+        <v>1</v>
+      </c>
+      <c r="I219" t="n">
+        <v>0</v>
+      </c>
+      <c r="J219" t="n">
+        <v>302</v>
+      </c>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>297</v>
-      </c>
-      <c r="C215" t="n">
-        <v>300</v>
-      </c>
-      <c r="D215" t="n">
-        <v>300</v>
-      </c>
-      <c r="E215" t="n">
-        <v>296</v>
-      </c>
-      <c r="F215" t="n">
-        <v>3656.2656</v>
-      </c>
-      <c r="G215" t="n">
-        <v>306.5</v>
-      </c>
-      <c r="H215" t="n">
-        <v>1</v>
-      </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
-      <c r="J215" t="n">
-        <v>296</v>
-      </c>
-      <c r="K215" t="n">
-        <v>296</v>
-      </c>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="n">
-        <v>300</v>
-      </c>
-      <c r="C216" t="n">
-        <v>300</v>
-      </c>
-      <c r="D216" t="n">
-        <v>300</v>
-      </c>
-      <c r="E216" t="n">
-        <v>300</v>
-      </c>
-      <c r="F216" t="n">
-        <v>6853.6475</v>
-      </c>
-      <c r="G216" t="n">
-        <v>306.2666666666667</v>
-      </c>
-      <c r="H216" t="n">
-        <v>1</v>
-      </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
-      <c r="J216" t="n">
-        <v>300</v>
-      </c>
-      <c r="K216" t="n">
-        <v>296</v>
-      </c>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="n">
-        <v>300</v>
-      </c>
-      <c r="C217" t="n">
-        <v>300</v>
-      </c>
-      <c r="D217" t="n">
-        <v>300</v>
-      </c>
-      <c r="E217" t="n">
-        <v>300</v>
-      </c>
-      <c r="F217" t="n">
-        <v>147.6429</v>
-      </c>
-      <c r="G217" t="n">
-        <v>306.1</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="n">
-        <v>296</v>
-      </c>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B218" t="n">
-        <v>300</v>
-      </c>
-      <c r="C218" t="n">
-        <v>300</v>
-      </c>
-      <c r="D218" t="n">
-        <v>300</v>
-      </c>
-      <c r="E218" t="n">
-        <v>300</v>
-      </c>
-      <c r="F218" t="n">
-        <v>64.6382</v>
-      </c>
-      <c r="G218" t="n">
-        <v>305.9333333333333</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="n">
-        <v>296</v>
-      </c>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" t="n">
-        <v>302</v>
-      </c>
-      <c r="C219" t="n">
-        <v>302</v>
-      </c>
-      <c r="D219" t="n">
-        <v>302</v>
-      </c>
-      <c r="E219" t="n">
-        <v>298</v>
-      </c>
-      <c r="F219" t="n">
-        <v>8346.398300000001</v>
-      </c>
-      <c r="G219" t="n">
-        <v>305.65</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="n">
-        <v>296</v>
-      </c>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M219" t="n">
         <v>1</v>
       </c>
@@ -8125,33 +8069,33 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C220" t="n">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="D220" t="n">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="E220" t="n">
         <v>300</v>
       </c>
       <c r="F220" t="n">
-        <v>20190.3298</v>
+        <v>71.0032921</v>
       </c>
       <c r="G220" t="n">
-        <v>305.5166666666667</v>
+        <v>305.4</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
       </c>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="n">
-        <v>296</v>
-      </c>
+      <c r="J220" t="n">
+        <v>300</v>
+      </c>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8169,30 +8113,30 @@
         <v>300</v>
       </c>
       <c r="C221" t="n">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="D221" t="n">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="E221" t="n">
         <v>300</v>
       </c>
       <c r="F221" t="n">
-        <v>71.0032921</v>
+        <v>1232.7985</v>
       </c>
       <c r="G221" t="n">
-        <v>305.4</v>
+        <v>305.1833333333333</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
       </c>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="n">
-        <v>296</v>
-      </c>
+      <c r="J221" t="n">
+        <v>304</v>
+      </c>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8219,21 +8163,21 @@
         <v>300</v>
       </c>
       <c r="F222" t="n">
-        <v>1232.7985</v>
+        <v>1653.4848</v>
       </c>
       <c r="G222" t="n">
-        <v>305.1833333333333</v>
+        <v>304.8833333333333</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
       </c>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="n">
-        <v>296</v>
-      </c>
+      <c r="J222" t="n">
+        <v>300</v>
+      </c>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8260,21 +8204,21 @@
         <v>300</v>
       </c>
       <c r="F223" t="n">
-        <v>1653.4848</v>
+        <v>262.4129</v>
       </c>
       <c r="G223" t="n">
-        <v>304.8833333333333</v>
+        <v>304.6</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
       </c>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="n">
-        <v>296</v>
-      </c>
+      <c r="J223" t="n">
+        <v>300</v>
+      </c>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8301,21 +8245,21 @@
         <v>300</v>
       </c>
       <c r="F224" t="n">
-        <v>262.4129</v>
+        <v>9841.3986</v>
       </c>
       <c r="G224" t="n">
-        <v>304.6</v>
+        <v>304.3333333333333</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
       </c>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="n">
-        <v>296</v>
-      </c>
+      <c r="J224" t="n">
+        <v>300</v>
+      </c>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8330,22 +8274,22 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C225" t="n">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="D225" t="n">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="E225" t="n">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F225" t="n">
-        <v>9841.3986</v>
+        <v>5755.8201</v>
       </c>
       <c r="G225" t="n">
-        <v>304.3333333333333</v>
+        <v>304.1666666666667</v>
       </c>
       <c r="H225" t="n">
         <v>1</v>
@@ -8356,9 +8300,7 @@
       <c r="J225" t="n">
         <v>300</v>
       </c>
-      <c r="K225" t="n">
-        <v>296</v>
-      </c>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8373,35 +8315,33 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="C226" t="n">
+        <v>308</v>
+      </c>
+      <c r="D226" t="n">
+        <v>310</v>
+      </c>
+      <c r="E226" t="n">
         <v>306</v>
       </c>
-      <c r="D226" t="n">
+      <c r="F226" t="n">
+        <v>8626.222900000001</v>
+      </c>
+      <c r="G226" t="n">
+        <v>304.0333333333334</v>
+      </c>
+      <c r="H226" t="n">
+        <v>1</v>
+      </c>
+      <c r="I226" t="n">
+        <v>0</v>
+      </c>
+      <c r="J226" t="n">
         <v>306</v>
       </c>
-      <c r="E226" t="n">
-        <v>302</v>
-      </c>
-      <c r="F226" t="n">
-        <v>5755.8201</v>
-      </c>
-      <c r="G226" t="n">
-        <v>304.1666666666667</v>
-      </c>
-      <c r="H226" t="n">
-        <v>1</v>
-      </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
-      <c r="J226" t="n">
-        <v>300</v>
-      </c>
-      <c r="K226" t="n">
-        <v>296</v>
-      </c>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8416,33 +8356,33 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C227" t="n">
+        <v>311</v>
+      </c>
+      <c r="D227" t="n">
+        <v>312</v>
+      </c>
+      <c r="E227" t="n">
+        <v>307</v>
+      </c>
+      <c r="F227" t="n">
+        <v>11310.0912</v>
+      </c>
+      <c r="G227" t="n">
+        <v>303.95</v>
+      </c>
+      <c r="H227" t="n">
+        <v>1</v>
+      </c>
+      <c r="I227" t="n">
+        <v>0</v>
+      </c>
+      <c r="J227" t="n">
         <v>308</v>
       </c>
-      <c r="D227" t="n">
-        <v>310</v>
-      </c>
-      <c r="E227" t="n">
-        <v>306</v>
-      </c>
-      <c r="F227" t="n">
-        <v>8626.222900000001</v>
-      </c>
-      <c r="G227" t="n">
-        <v>304.0333333333334</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="n">
-        <v>296</v>
-      </c>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8457,22 +8397,22 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="C228" t="n">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D228" t="n">
         <v>312</v>
       </c>
       <c r="E228" t="n">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="F228" t="n">
-        <v>11310.0912</v>
+        <v>9442.259148380001</v>
       </c>
       <c r="G228" t="n">
-        <v>303.95</v>
+        <v>303.9166666666667</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -8481,9 +8421,7 @@
         <v>0</v>
       </c>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="n">
-        <v>296</v>
-      </c>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8498,22 +8436,22 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C229" t="n">
         <v>312</v>
       </c>
       <c r="D229" t="n">
+        <v>313</v>
+      </c>
+      <c r="E229" t="n">
         <v>312</v>
       </c>
-      <c r="E229" t="n">
-        <v>310</v>
-      </c>
       <c r="F229" t="n">
-        <v>9442.259148380001</v>
+        <v>4391.63121086</v>
       </c>
       <c r="G229" t="n">
-        <v>303.9166666666667</v>
+        <v>303.8833333333333</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -8522,9 +8460,7 @@
         <v>0</v>
       </c>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="n">
-        <v>296</v>
-      </c>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8539,22 +8475,22 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C230" t="n">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="D230" t="n">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="E230" t="n">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="F230" t="n">
-        <v>4391.63121086</v>
+        <v>1245.8789</v>
       </c>
       <c r="G230" t="n">
-        <v>303.8833333333333</v>
+        <v>303.85</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -8563,9 +8499,7 @@
         <v>0</v>
       </c>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="n">
-        <v>296</v>
-      </c>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8580,22 +8514,22 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C231" t="n">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="D231" t="n">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="E231" t="n">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="F231" t="n">
-        <v>1245.8789</v>
+        <v>726.9195999999999</v>
       </c>
       <c r="G231" t="n">
-        <v>303.85</v>
+        <v>303.9166666666667</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -8604,9 +8538,7 @@
         <v>0</v>
       </c>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="n">
-        <v>296</v>
-      </c>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8621,22 +8553,22 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="C232" t="n">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="D232" t="n">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="E232" t="n">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="F232" t="n">
-        <v>726.9195999999999</v>
+        <v>13101.9517</v>
       </c>
       <c r="G232" t="n">
-        <v>303.9166666666667</v>
+        <v>303.8</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -8645,9 +8577,7 @@
         <v>0</v>
       </c>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="n">
-        <v>296</v>
-      </c>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8662,22 +8592,22 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C233" t="n">
+        <v>303</v>
+      </c>
+      <c r="D233" t="n">
+        <v>303</v>
+      </c>
+      <c r="E233" t="n">
         <v>300</v>
       </c>
-      <c r="D233" t="n">
-        <v>301</v>
-      </c>
-      <c r="E233" t="n">
-        <v>297</v>
-      </c>
       <c r="F233" t="n">
-        <v>13101.9517</v>
+        <v>2694.7747</v>
       </c>
       <c r="G233" t="n">
-        <v>303.8</v>
+        <v>303.7666666666667</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -8686,9 +8616,7 @@
         <v>0</v>
       </c>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="n">
-        <v>296</v>
-      </c>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8703,22 +8631,22 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C234" t="n">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D234" t="n">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E234" t="n">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F234" t="n">
-        <v>2694.7747</v>
+        <v>100.435</v>
       </c>
       <c r="G234" t="n">
-        <v>303.7666666666667</v>
+        <v>303.7</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -8727,9 +8655,7 @@
         <v>0</v>
       </c>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="n">
-        <v>296</v>
-      </c>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8747,19 +8673,19 @@
         <v>302</v>
       </c>
       <c r="C235" t="n">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D235" t="n">
         <v>302</v>
       </c>
       <c r="E235" t="n">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F235" t="n">
-        <v>100.435</v>
+        <v>2723.5346</v>
       </c>
       <c r="G235" t="n">
-        <v>303.7</v>
+        <v>303.5666666666667</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -8768,9 +8694,7 @@
         <v>0</v>
       </c>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="n">
-        <v>296</v>
-      </c>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8797,10 +8721,10 @@
         <v>302</v>
       </c>
       <c r="F236" t="n">
-        <v>2723.5346</v>
+        <v>1602.5794</v>
       </c>
       <c r="G236" t="n">
-        <v>303.5666666666667</v>
+        <v>303.4333333333333</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -8809,9 +8733,7 @@
         <v>0</v>
       </c>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="n">
-        <v>296</v>
-      </c>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8829,19 +8751,19 @@
         <v>302</v>
       </c>
       <c r="C237" t="n">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D237" t="n">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E237" t="n">
         <v>302</v>
       </c>
       <c r="F237" t="n">
-        <v>1602.5794</v>
+        <v>1405.2898</v>
       </c>
       <c r="G237" t="n">
-        <v>303.4333333333333</v>
+        <v>303.3</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -8850,9 +8772,7 @@
         <v>0</v>
       </c>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="n">
-        <v>296</v>
-      </c>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8867,22 +8787,22 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C238" t="n">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D238" t="n">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="E238" t="n">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F238" t="n">
-        <v>1405.2898</v>
+        <v>96.6863</v>
       </c>
       <c r="G238" t="n">
-        <v>303.3</v>
+        <v>303.2166666666666</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -8891,9 +8811,7 @@
         <v>0</v>
       </c>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="n">
-        <v>296</v>
-      </c>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8908,7 +8826,7 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C239" t="n">
         <v>305</v>
@@ -8917,13 +8835,13 @@
         <v>305</v>
       </c>
       <c r="E239" t="n">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F239" t="n">
-        <v>96.6863</v>
+        <v>37.1034</v>
       </c>
       <c r="G239" t="n">
-        <v>303.2166666666666</v>
+        <v>303.1666666666667</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -8932,9 +8850,7 @@
         <v>0</v>
       </c>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="n">
-        <v>296</v>
-      </c>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8949,22 +8865,22 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C240" t="n">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D240" t="n">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E240" t="n">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F240" t="n">
-        <v>37.1034</v>
+        <v>61.4869</v>
       </c>
       <c r="G240" t="n">
-        <v>303.1666666666667</v>
+        <v>303.0666666666667</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -8973,9 +8889,7 @@
         <v>0</v>
       </c>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="n">
-        <v>296</v>
-      </c>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8990,22 +8904,22 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C241" t="n">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="D241" t="n">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E241" t="n">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="F241" t="n">
-        <v>61.4869</v>
+        <v>1387.0106</v>
       </c>
       <c r="G241" t="n">
-        <v>303.0666666666667</v>
+        <v>303.05</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -9014,9 +8928,7 @@
         <v>0</v>
       </c>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="n">
-        <v>296</v>
-      </c>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9031,22 +8943,22 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C242" t="n">
         <v>300</v>
       </c>
       <c r="D242" t="n">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E242" t="n">
         <v>300</v>
       </c>
       <c r="F242" t="n">
-        <v>1387.0106</v>
+        <v>1435.1617</v>
       </c>
       <c r="G242" t="n">
-        <v>303.05</v>
+        <v>303.0333333333334</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -9055,9 +8967,7 @@
         <v>0</v>
       </c>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="n">
-        <v>296</v>
-      </c>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9072,22 +8982,22 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C243" t="n">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D243" t="n">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E243" t="n">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F243" t="n">
-        <v>1435.1617</v>
+        <v>451</v>
       </c>
       <c r="G243" t="n">
-        <v>303.0333333333334</v>
+        <v>303.0166666666667</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -9096,9 +9006,7 @@
         <v>0</v>
       </c>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="n">
-        <v>296</v>
-      </c>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9113,22 +9021,22 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C244" t="n">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D244" t="n">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="E244" t="n">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F244" t="n">
-        <v>451</v>
+        <v>75.1253</v>
       </c>
       <c r="G244" t="n">
-        <v>303.0166666666667</v>
+        <v>303.05</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -9137,9 +9045,7 @@
         <v>0</v>
       </c>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="n">
-        <v>296</v>
-      </c>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9154,22 +9060,22 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C245" t="n">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D245" t="n">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E245" t="n">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F245" t="n">
-        <v>75.1253</v>
+        <v>798.8058</v>
       </c>
       <c r="G245" t="n">
-        <v>303.05</v>
+        <v>303.0666666666667</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -9178,9 +9084,7 @@
         <v>0</v>
       </c>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="n">
-        <v>296</v>
-      </c>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9190,47 +9094,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246">
-      <c r="A246" s="1" t="n">
-        <v>244</v>
-      </c>
-      <c r="B246" t="n">
-        <v>304</v>
-      </c>
-      <c r="C246" t="n">
-        <v>304</v>
-      </c>
-      <c r="D246" t="n">
-        <v>304</v>
-      </c>
-      <c r="E246" t="n">
-        <v>304</v>
-      </c>
-      <c r="F246" t="n">
-        <v>798.8058</v>
-      </c>
-      <c r="G246" t="n">
-        <v>303.0666666666667</v>
-      </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="n">
-        <v>0</v>
-      </c>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="n">
-        <v>296</v>
-      </c>
-      <c r="L246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-10-10 BackTest ARN.xlsx
+++ b/BackTest/2019-10-10 BackTest ARN.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M245"/>
+  <dimension ref="A1:M246"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,10 +445,10 @@
         <v>281</v>
       </c>
       <c r="F2" t="n">
-        <v>1.773</v>
+        <v>428.6393</v>
       </c>
       <c r="G2" t="n">
-        <v>276.3833333333333</v>
+        <v>276.3333333333333</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -471,19 +471,19 @@
         <v>281</v>
       </c>
       <c r="C3" t="n">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D3" t="n">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E3" t="n">
         <v>281</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>1.773</v>
       </c>
       <c r="G3" t="n">
-        <v>276.4333333333333</v>
+        <v>276.3833333333333</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -506,19 +506,19 @@
         <v>281</v>
       </c>
       <c r="C4" t="n">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D4" t="n">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E4" t="n">
         <v>281</v>
       </c>
       <c r="F4" t="n">
-        <v>965</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>276.6833333333333</v>
+        <v>276.4333333333333</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -550,10 +550,10 @@
         <v>281</v>
       </c>
       <c r="F5" t="n">
-        <v>484.4185</v>
+        <v>965</v>
       </c>
       <c r="G5" t="n">
-        <v>276.7833333333334</v>
+        <v>276.6833333333333</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C6" t="n">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D6" t="n">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E6" t="n">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F6" t="n">
-        <v>724</v>
+        <v>484.4185</v>
       </c>
       <c r="G6" t="n">
-        <v>276.85</v>
+        <v>276.7833333333334</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C7" t="n">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D7" t="n">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E7" t="n">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>724</v>
       </c>
       <c r="G7" t="n">
-        <v>276.9333333333333</v>
+        <v>276.85</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,7 +643,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C8" t="n">
         <v>282</v>
@@ -652,13 +652,13 @@
         <v>282</v>
       </c>
       <c r="E8" t="n">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="F8" t="n">
-        <v>66.4376</v>
+        <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>277.0166666666667</v>
+        <v>276.9333333333333</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -681,19 +681,19 @@
         <v>280</v>
       </c>
       <c r="C9" t="n">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D9" t="n">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E9" t="n">
         <v>280</v>
       </c>
       <c r="F9" t="n">
-        <v>144.6583</v>
+        <v>66.4376</v>
       </c>
       <c r="G9" t="n">
-        <v>277.0666666666667</v>
+        <v>277.0166666666667</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -725,10 +725,10 @@
         <v>280</v>
       </c>
       <c r="F10" t="n">
-        <v>1236.1843</v>
+        <v>144.6583</v>
       </c>
       <c r="G10" t="n">
-        <v>277.1166666666667</v>
+        <v>277.0666666666667</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C11" t="n">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D11" t="n">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E11" t="n">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F11" t="n">
-        <v>791.8439716300001</v>
+        <v>1236.1843</v>
       </c>
       <c r="G11" t="n">
-        <v>277.2</v>
+        <v>277.1166666666667</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C12" t="n">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D12" t="n">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E12" t="n">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="F12" t="n">
-        <v>2000</v>
+        <v>791.8439716300001</v>
       </c>
       <c r="G12" t="n">
-        <v>277.2666666666667</v>
+        <v>277.2</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C13" t="n">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D13" t="n">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E13" t="n">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F13" t="n">
-        <v>126</v>
+        <v>2000</v>
       </c>
       <c r="G13" t="n">
-        <v>277.35</v>
+        <v>277.2666666666667</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C14" t="n">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D14" t="n">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E14" t="n">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F14" t="n">
-        <v>810</v>
+        <v>126</v>
       </c>
       <c r="G14" t="n">
-        <v>277.4666666666666</v>
+        <v>277.35</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C15" t="n">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D15" t="n">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="E15" t="n">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F15" t="n">
-        <v>62.0609</v>
+        <v>810</v>
       </c>
       <c r="G15" t="n">
-        <v>277.5666666666667</v>
+        <v>277.4666666666666</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C16" t="n">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D16" t="n">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E16" t="n">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F16" t="n">
-        <v>820.1431</v>
+        <v>62.0609</v>
       </c>
       <c r="G16" t="n">
-        <v>277.65</v>
+        <v>277.5666666666667</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -970,10 +970,10 @@
         <v>280</v>
       </c>
       <c r="F17" t="n">
-        <v>123.9863</v>
+        <v>820.1431</v>
       </c>
       <c r="G17" t="n">
-        <v>277.7333333333333</v>
+        <v>277.65</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1005,10 +1005,10 @@
         <v>280</v>
       </c>
       <c r="F18" t="n">
-        <v>57.7895</v>
+        <v>123.9863</v>
       </c>
       <c r="G18" t="n">
-        <v>277.8166666666667</v>
+        <v>277.7333333333333</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1031,19 +1031,19 @@
         <v>280</v>
       </c>
       <c r="C19" t="n">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D19" t="n">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="E19" t="n">
         <v>280</v>
       </c>
       <c r="F19" t="n">
-        <v>930</v>
+        <v>57.7895</v>
       </c>
       <c r="G19" t="n">
-        <v>277.9666666666666</v>
+        <v>277.8166666666667</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1066,19 +1066,19 @@
         <v>280</v>
       </c>
       <c r="C20" t="n">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="D20" t="n">
+        <v>284</v>
+      </c>
+      <c r="E20" t="n">
         <v>280</v>
       </c>
-      <c r="E20" t="n">
-        <v>279</v>
-      </c>
       <c r="F20" t="n">
-        <v>490.8871</v>
+        <v>930</v>
       </c>
       <c r="G20" t="n">
-        <v>278.0333333333334</v>
+        <v>277.9666666666666</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C21" t="n">
         <v>279</v>
       </c>
       <c r="D21" t="n">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E21" t="n">
         <v>279</v>
       </c>
       <c r="F21" t="n">
-        <v>223</v>
+        <v>490.8871</v>
       </c>
       <c r="G21" t="n">
-        <v>278.1</v>
+        <v>278.0333333333334</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C22" t="n">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D22" t="n">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E22" t="n">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F22" t="n">
-        <v>811.6559999999999</v>
+        <v>223</v>
       </c>
       <c r="G22" t="n">
-        <v>278.1666666666667</v>
+        <v>278.1</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>278</v>
       </c>
       <c r="F23" t="n">
-        <v>1015.4975</v>
+        <v>811.6559999999999</v>
       </c>
       <c r="G23" t="n">
-        <v>278.2333333333333</v>
+        <v>278.1666666666667</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C24" t="n">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D24" t="n">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E24" t="n">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F24" t="n">
-        <v>232.3189</v>
+        <v>1015.4975</v>
       </c>
       <c r="G24" t="n">
-        <v>278.3166666666667</v>
+        <v>278.2333333333333</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1250,10 +1250,10 @@
         <v>279</v>
       </c>
       <c r="F25" t="n">
-        <v>946.2059</v>
+        <v>232.3189</v>
       </c>
       <c r="G25" t="n">
-        <v>278.4</v>
+        <v>278.3166666666667</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C26" t="n">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D26" t="n">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E26" t="n">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F26" t="n">
-        <v>7943.9458</v>
+        <v>946.2059</v>
       </c>
       <c r="G26" t="n">
-        <v>278.4666666666666</v>
+        <v>278.4</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C27" t="n">
         <v>278</v>
       </c>
       <c r="D27" t="n">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E27" t="n">
         <v>278</v>
       </c>
       <c r="F27" t="n">
-        <v>1675.9903</v>
+        <v>7943.9458</v>
       </c>
       <c r="G27" t="n">
-        <v>278.5333333333334</v>
+        <v>278.4666666666666</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C28" t="n">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D28" t="n">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E28" t="n">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F28" t="n">
-        <v>919.354</v>
+        <v>1675.9903</v>
       </c>
       <c r="G28" t="n">
-        <v>278.6166666666667</v>
+        <v>278.5333333333334</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1390,10 +1390,10 @@
         <v>279</v>
       </c>
       <c r="F29" t="n">
-        <v>2835.5603</v>
+        <v>919.354</v>
       </c>
       <c r="G29" t="n">
-        <v>278.7</v>
+        <v>278.6166666666667</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C30" t="n">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D30" t="n">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E30" t="n">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F30" t="n">
-        <v>177.65812092</v>
+        <v>2835.5603</v>
       </c>
       <c r="G30" t="n">
-        <v>278.8333333333333</v>
+        <v>278.7</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1451,19 +1451,19 @@
         <v>281</v>
       </c>
       <c r="C31" t="n">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D31" t="n">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E31" t="n">
         <v>281</v>
       </c>
       <c r="F31" t="n">
-        <v>60.5126</v>
+        <v>177.65812092</v>
       </c>
       <c r="G31" t="n">
-        <v>278.95</v>
+        <v>278.8333333333333</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1495,19 +1495,23 @@
         <v>281</v>
       </c>
       <c r="F32" t="n">
-        <v>1816.9445</v>
+        <v>60.5126</v>
       </c>
       <c r="G32" t="n">
-        <v>279.0666666666667</v>
+        <v>278.95</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>282</v>
+      </c>
+      <c r="K32" t="n">
+        <v>282</v>
+      </c>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
@@ -1530,20 +1534,28 @@
         <v>281</v>
       </c>
       <c r="F33" t="n">
-        <v>1877.4572</v>
+        <v>1816.9445</v>
       </c>
       <c r="G33" t="n">
-        <v>279.1833333333333</v>
+        <v>279.0666666666667</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>281</v>
+      </c>
+      <c r="K33" t="n">
+        <v>282</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1553,7 +1565,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C34" t="n">
         <v>281</v>
@@ -1562,23 +1574,31 @@
         <v>281</v>
       </c>
       <c r="E34" t="n">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F34" t="n">
-        <v>869.1041</v>
+        <v>1877.4572</v>
       </c>
       <c r="G34" t="n">
-        <v>279.2833333333334</v>
+        <v>279.1833333333333</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>281</v>
+      </c>
+      <c r="K34" t="n">
+        <v>282</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1588,32 +1608,40 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C35" t="n">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="D35" t="n">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="E35" t="n">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F35" t="n">
-        <v>16730.03932837</v>
+        <v>869.1041</v>
       </c>
       <c r="G35" t="n">
-        <v>279.4833333333333</v>
+        <v>279.2833333333334</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>281</v>
+      </c>
+      <c r="K35" t="n">
+        <v>282</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1623,7 +1651,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C36" t="n">
         <v>287</v>
@@ -1632,23 +1660,31 @@
         <v>287</v>
       </c>
       <c r="E36" t="n">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="F36" t="n">
-        <v>982.2822</v>
+        <v>16730.03932837</v>
       </c>
       <c r="G36" t="n">
-        <v>279.6833333333333</v>
+        <v>279.4833333333333</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>281</v>
+      </c>
+      <c r="K36" t="n">
+        <v>282</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1658,22 +1694,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C37" t="n">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D37" t="n">
         <v>287</v>
       </c>
       <c r="E37" t="n">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F37" t="n">
-        <v>4062.9815</v>
+        <v>982.2822</v>
       </c>
       <c r="G37" t="n">
-        <v>279.8666666666667</v>
+        <v>279.6833333333333</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1682,8 +1718,14 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>282</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1693,22 +1735,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C38" t="n">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D38" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E38" t="n">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F38" t="n">
-        <v>34.2573</v>
+        <v>4062.9815</v>
       </c>
       <c r="G38" t="n">
-        <v>280.0333333333334</v>
+        <v>279.8666666666667</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1717,8 +1759,14 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>282</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1740,10 +1788,10 @@
         <v>285</v>
       </c>
       <c r="F39" t="n">
-        <v>54.081</v>
+        <v>34.2573</v>
       </c>
       <c r="G39" t="n">
-        <v>280.2</v>
+        <v>280.0333333333334</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1752,8 +1800,14 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>282</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1775,10 +1829,10 @@
         <v>285</v>
       </c>
       <c r="F40" t="n">
-        <v>28.394</v>
+        <v>54.081</v>
       </c>
       <c r="G40" t="n">
-        <v>280.3666666666667</v>
+        <v>280.2</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1787,8 +1841,14 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>282</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1798,22 +1858,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C41" t="n">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D41" t="n">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="E41" t="n">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="F41" t="n">
-        <v>800</v>
+        <v>28.394</v>
       </c>
       <c r="G41" t="n">
-        <v>280.5</v>
+        <v>280.3666666666667</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1822,8 +1882,14 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>282</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1833,22 +1899,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C42" t="n">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D42" t="n">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E42" t="n">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F42" t="n">
-        <v>3280</v>
+        <v>800</v>
       </c>
       <c r="G42" t="n">
-        <v>280.65</v>
+        <v>280.5</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1857,8 +1923,14 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>282</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1868,22 +1940,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C43" t="n">
         <v>284</v>
       </c>
       <c r="D43" t="n">
+        <v>285</v>
+      </c>
+      <c r="E43" t="n">
         <v>284</v>
       </c>
-      <c r="E43" t="n">
-        <v>283</v>
-      </c>
       <c r="F43" t="n">
-        <v>2043</v>
+        <v>3280</v>
       </c>
       <c r="G43" t="n">
-        <v>280.7833333333334</v>
+        <v>280.65</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1892,8 +1964,14 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>282</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -1912,13 +1990,13 @@
         <v>284</v>
       </c>
       <c r="E44" t="n">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F44" t="n">
-        <v>1455.0708</v>
+        <v>2043</v>
       </c>
       <c r="G44" t="n">
-        <v>280.9166666666667</v>
+        <v>280.7833333333334</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1927,8 +2005,14 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>282</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -1941,19 +2025,19 @@
         <v>284</v>
       </c>
       <c r="C45" t="n">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D45" t="n">
         <v>284</v>
       </c>
       <c r="E45" t="n">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F45" t="n">
-        <v>960</v>
+        <v>1455.0708</v>
       </c>
       <c r="G45" t="n">
-        <v>281.0166666666667</v>
+        <v>280.9166666666667</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1962,8 +2046,14 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>282</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -1976,19 +2066,19 @@
         <v>284</v>
       </c>
       <c r="C46" t="n">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D46" t="n">
         <v>284</v>
       </c>
       <c r="E46" t="n">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F46" t="n">
-        <v>1440</v>
+        <v>960</v>
       </c>
       <c r="G46" t="n">
-        <v>281.1333333333333</v>
+        <v>281.0166666666667</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -1997,8 +2087,14 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>282</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2011,19 +2107,19 @@
         <v>284</v>
       </c>
       <c r="C47" t="n">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D47" t="n">
         <v>284</v>
       </c>
       <c r="E47" t="n">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="F47" t="n">
-        <v>1477.1</v>
+        <v>1440</v>
       </c>
       <c r="G47" t="n">
-        <v>281.2333333333333</v>
+        <v>281.1333333333333</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2032,8 +2128,14 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>282</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2043,22 +2145,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C48" t="n">
         <v>283</v>
       </c>
       <c r="D48" t="n">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E48" t="n">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F48" t="n">
-        <v>1440</v>
+        <v>1477.1</v>
       </c>
       <c r="G48" t="n">
-        <v>281.3166666666667</v>
+        <v>281.2333333333333</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2067,8 +2169,14 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>282</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2078,22 +2186,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C49" t="n">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D49" t="n">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E49" t="n">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F49" t="n">
-        <v>24.4187</v>
+        <v>1440</v>
       </c>
       <c r="G49" t="n">
-        <v>281.3833333333333</v>
+        <v>281.3166666666667</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2102,8 +2210,14 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>282</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2113,22 +2227,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C50" t="n">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D50" t="n">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="E50" t="n">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F50" t="n">
-        <v>22.898</v>
+        <v>24.4187</v>
       </c>
       <c r="G50" t="n">
-        <v>281.4666666666666</v>
+        <v>281.3833333333333</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2137,8 +2251,14 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>282</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2148,22 +2268,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C51" t="n">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D51" t="n">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E51" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F51" t="n">
-        <v>2953.721</v>
+        <v>22.898</v>
       </c>
       <c r="G51" t="n">
-        <v>281.5833333333333</v>
+        <v>281.4666666666666</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2172,8 +2292,14 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>282</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2183,22 +2309,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C52" t="n">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="D52" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E52" t="n">
         <v>284</v>
       </c>
       <c r="F52" t="n">
-        <v>1226.0355</v>
+        <v>2953.721</v>
       </c>
       <c r="G52" t="n">
-        <v>281.65</v>
+        <v>281.5833333333333</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2207,8 +2333,14 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>282</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2221,19 +2353,19 @@
         <v>285</v>
       </c>
       <c r="C53" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D53" t="n">
         <v>285</v>
       </c>
       <c r="E53" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F53" t="n">
-        <v>286.8785</v>
+        <v>1226.0355</v>
       </c>
       <c r="G53" t="n">
-        <v>281.7166666666666</v>
+        <v>281.65</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2242,8 +2374,14 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>282</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2253,22 +2391,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C54" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D54" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E54" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F54" t="n">
-        <v>4044.1978</v>
+        <v>286.8785</v>
       </c>
       <c r="G54" t="n">
-        <v>281.7666666666667</v>
+        <v>281.7166666666666</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2277,8 +2415,14 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>282</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2300,10 +2444,10 @@
         <v>284</v>
       </c>
       <c r="F55" t="n">
-        <v>6074.2711</v>
+        <v>4044.1978</v>
       </c>
       <c r="G55" t="n">
-        <v>281.8166666666667</v>
+        <v>281.7666666666667</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2312,8 +2456,14 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>282</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2335,10 +2485,10 @@
         <v>284</v>
       </c>
       <c r="F56" t="n">
-        <v>5473.2059</v>
+        <v>6074.2711</v>
       </c>
       <c r="G56" t="n">
-        <v>281.8833333333333</v>
+        <v>281.8166666666667</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2347,8 +2497,14 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>282</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2361,19 +2517,19 @@
         <v>284</v>
       </c>
       <c r="C57" t="n">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D57" t="n">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="E57" t="n">
         <v>284</v>
       </c>
       <c r="F57" t="n">
-        <v>244</v>
+        <v>5473.2059</v>
       </c>
       <c r="G57" t="n">
-        <v>282</v>
+        <v>281.8833333333333</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2382,8 +2538,14 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>282</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2396,19 +2558,19 @@
         <v>284</v>
       </c>
       <c r="C58" t="n">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="D58" t="n">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="E58" t="n">
         <v>284</v>
       </c>
       <c r="F58" t="n">
-        <v>35.926</v>
+        <v>244</v>
       </c>
       <c r="G58" t="n">
-        <v>282.0666666666667</v>
+        <v>282</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2417,8 +2579,14 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>282</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2428,22 +2596,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C59" t="n">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="D59" t="n">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="E59" t="n">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F59" t="n">
-        <v>9118.4197</v>
+        <v>35.926</v>
       </c>
       <c r="G59" t="n">
-        <v>282.2166666666666</v>
+        <v>282.0666666666667</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2452,8 +2620,14 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>282</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2463,22 +2637,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C60" t="n">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D60" t="n">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E60" t="n">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F60" t="n">
-        <v>3834.2234</v>
+        <v>9118.4197</v>
       </c>
       <c r="G60" t="n">
-        <v>282.3333333333333</v>
+        <v>282.2166666666666</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2487,8 +2661,14 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>282</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2501,19 +2681,19 @@
         <v>288</v>
       </c>
       <c r="C61" t="n">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D61" t="n">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E61" t="n">
         <v>288</v>
       </c>
       <c r="F61" t="n">
-        <v>476</v>
+        <v>3834.2234</v>
       </c>
       <c r="G61" t="n">
-        <v>282.4666666666666</v>
+        <v>282.3333333333333</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2522,8 +2702,14 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>282</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2533,22 +2719,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
+        <v>288</v>
+      </c>
+      <c r="C62" t="n">
         <v>289</v>
       </c>
-      <c r="C62" t="n">
-        <v>293</v>
-      </c>
       <c r="D62" t="n">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="E62" t="n">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F62" t="n">
-        <v>14943.388</v>
+        <v>476</v>
       </c>
       <c r="G62" t="n">
-        <v>282.6666666666667</v>
+        <v>282.4666666666666</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2557,8 +2743,14 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>282</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2568,22 +2760,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
+        <v>289</v>
+      </c>
+      <c r="C63" t="n">
         <v>293</v>
       </c>
-      <c r="C63" t="n">
-        <v>294</v>
-      </c>
       <c r="D63" t="n">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E63" t="n">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F63" t="n">
-        <v>13550.5702</v>
+        <v>14943.388</v>
       </c>
       <c r="G63" t="n">
-        <v>282.8666666666667</v>
+        <v>282.6666666666667</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2592,8 +2784,14 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>282</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2603,22 +2801,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
+        <v>293</v>
+      </c>
+      <c r="C64" t="n">
+        <v>294</v>
+      </c>
+      <c r="D64" t="n">
         <v>295</v>
       </c>
-      <c r="C64" t="n">
-        <v>296</v>
-      </c>
-      <c r="D64" t="n">
-        <v>296</v>
-      </c>
       <c r="E64" t="n">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F64" t="n">
-        <v>4204.5538</v>
+        <v>13550.5702</v>
       </c>
       <c r="G64" t="n">
-        <v>283.1166666666667</v>
+        <v>282.8666666666667</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2627,8 +2825,14 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>282</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2638,7 +2842,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C65" t="n">
         <v>296</v>
@@ -2647,13 +2851,13 @@
         <v>296</v>
       </c>
       <c r="E65" t="n">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="F65" t="n">
-        <v>8108.8599</v>
+        <v>4204.5538</v>
       </c>
       <c r="G65" t="n">
-        <v>283.3666666666667</v>
+        <v>283.1166666666667</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2662,8 +2866,14 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>282</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2673,22 +2883,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C66" t="n">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="D66" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E66" t="n">
         <v>291</v>
       </c>
       <c r="F66" t="n">
-        <v>6824.8148</v>
+        <v>8108.8599</v>
       </c>
       <c r="G66" t="n">
-        <v>283.55</v>
+        <v>283.3666666666667</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2697,8 +2907,14 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>282</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2708,22 +2924,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C67" t="n">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="D67" t="n">
         <v>295</v>
       </c>
       <c r="E67" t="n">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="F67" t="n">
-        <v>1085.6609</v>
+        <v>6824.8148</v>
       </c>
       <c r="G67" t="n">
-        <v>283.7666666666667</v>
+        <v>283.55</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2732,8 +2948,14 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>282</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2755,10 +2977,10 @@
         <v>295</v>
       </c>
       <c r="F68" t="n">
-        <v>623.8187</v>
+        <v>1085.6609</v>
       </c>
       <c r="G68" t="n">
-        <v>283.9833333333333</v>
+        <v>283.7666666666667</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2767,8 +2989,14 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>282</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2790,10 +3018,10 @@
         <v>295</v>
       </c>
       <c r="F69" t="n">
-        <v>12</v>
+        <v>623.8187</v>
       </c>
       <c r="G69" t="n">
-        <v>284.2333333333333</v>
+        <v>283.9833333333333</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2802,8 +3030,14 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>282</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2825,10 +3059,10 @@
         <v>295</v>
       </c>
       <c r="F70" t="n">
-        <v>377.0728</v>
+        <v>12</v>
       </c>
       <c r="G70" t="n">
-        <v>284.4833333333333</v>
+        <v>284.2333333333333</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2837,8 +3071,14 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>282</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2848,22 +3088,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C71" t="n">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="D71" t="n">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="E71" t="n">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="F71" t="n">
-        <v>387.3717</v>
+        <v>377.0728</v>
       </c>
       <c r="G71" t="n">
-        <v>284.65</v>
+        <v>284.4833333333333</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2872,8 +3112,14 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>282</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -2886,19 +3132,19 @@
         <v>293</v>
       </c>
       <c r="C72" t="n">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D72" t="n">
         <v>293</v>
       </c>
       <c r="E72" t="n">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F72" t="n">
-        <v>26</v>
+        <v>387.3717</v>
       </c>
       <c r="G72" t="n">
-        <v>284.8666666666667</v>
+        <v>284.65</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2907,8 +3153,14 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>282</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -2930,10 +3182,10 @@
         <v>293</v>
       </c>
       <c r="F73" t="n">
-        <v>197.6714</v>
+        <v>26</v>
       </c>
       <c r="G73" t="n">
-        <v>285.05</v>
+        <v>284.8666666666667</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2942,8 +3194,14 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>282</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -2965,10 +3223,10 @@
         <v>293</v>
       </c>
       <c r="F74" t="n">
-        <v>342.175</v>
+        <v>197.6714</v>
       </c>
       <c r="G74" t="n">
-        <v>285.2166666666666</v>
+        <v>285.05</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2977,8 +3235,14 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>282</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -2994,16 +3258,16 @@
         <v>293</v>
       </c>
       <c r="D75" t="n">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E75" t="n">
         <v>293</v>
       </c>
       <c r="F75" t="n">
-        <v>524.7966</v>
+        <v>342.175</v>
       </c>
       <c r="G75" t="n">
-        <v>285.4166666666667</v>
+        <v>285.2166666666666</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3012,8 +3276,14 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>282</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3026,7 +3296,7 @@
         <v>293</v>
       </c>
       <c r="C76" t="n">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D76" t="n">
         <v>295</v>
@@ -3035,10 +3305,10 @@
         <v>293</v>
       </c>
       <c r="F76" t="n">
-        <v>1276.1657</v>
+        <v>524.7966</v>
       </c>
       <c r="G76" t="n">
-        <v>285.6666666666667</v>
+        <v>285.4166666666667</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3047,8 +3317,14 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>282</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3058,22 +3334,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
+        <v>293</v>
+      </c>
+      <c r="C77" t="n">
         <v>295</v>
-      </c>
-      <c r="C77" t="n">
-        <v>292</v>
       </c>
       <c r="D77" t="n">
         <v>295</v>
       </c>
       <c r="E77" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F77" t="n">
-        <v>1977.5593</v>
+        <v>1276.1657</v>
       </c>
       <c r="G77" t="n">
-        <v>285.8666666666667</v>
+        <v>285.6666666666667</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3082,8 +3358,14 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>282</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3093,22 +3375,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="C78" t="n">
         <v>292</v>
       </c>
       <c r="D78" t="n">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="E78" t="n">
         <v>292</v>
       </c>
       <c r="F78" t="n">
-        <v>6059.0854</v>
+        <v>1977.5593</v>
       </c>
       <c r="G78" t="n">
-        <v>286.0666666666667</v>
+        <v>285.8666666666667</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3117,8 +3399,14 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>282</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3140,10 +3428,10 @@
         <v>292</v>
       </c>
       <c r="F79" t="n">
-        <v>7585.7944</v>
+        <v>6059.0854</v>
       </c>
       <c r="G79" t="n">
-        <v>286.2</v>
+        <v>286.0666666666667</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3152,8 +3440,14 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>282</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3166,19 +3460,19 @@
         <v>292</v>
       </c>
       <c r="C80" t="n">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D80" t="n">
         <v>292</v>
       </c>
       <c r="E80" t="n">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F80" t="n">
-        <v>5894.3123</v>
+        <v>7585.7944</v>
       </c>
       <c r="G80" t="n">
-        <v>286.4</v>
+        <v>286.2</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3187,8 +3481,14 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>282</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3198,22 +3498,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C81" t="n">
         <v>291</v>
       </c>
       <c r="D81" t="n">
+        <v>292</v>
+      </c>
+      <c r="E81" t="n">
         <v>291</v>
       </c>
-      <c r="E81" t="n">
-        <v>290</v>
-      </c>
       <c r="F81" t="n">
-        <v>1438.1786103</v>
+        <v>5894.3123</v>
       </c>
       <c r="G81" t="n">
-        <v>286.6</v>
+        <v>286.4</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3222,8 +3522,14 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>282</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3233,22 +3539,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C82" t="n">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="D82" t="n">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="E82" t="n">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="F82" t="n">
-        <v>5703.2624</v>
+        <v>1438.1786103</v>
       </c>
       <c r="G82" t="n">
-        <v>286.75</v>
+        <v>286.6</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3257,8 +3563,14 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>282</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3268,22 +3580,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C83" t="n">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D83" t="n">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E83" t="n">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F83" t="n">
-        <v>565.8486</v>
+        <v>5703.2624</v>
       </c>
       <c r="G83" t="n">
-        <v>286.9333333333333</v>
+        <v>286.75</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3292,8 +3604,14 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>282</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3303,22 +3621,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C84" t="n">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D84" t="n">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="E84" t="n">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F84" t="n">
-        <v>325.2332</v>
+        <v>565.8486</v>
       </c>
       <c r="G84" t="n">
-        <v>287.0666666666667</v>
+        <v>286.9333333333333</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3327,8 +3645,14 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>282</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3344,16 +3668,16 @@
         <v>287</v>
       </c>
       <c r="D85" t="n">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E85" t="n">
         <v>287</v>
       </c>
       <c r="F85" t="n">
-        <v>410.1822</v>
+        <v>325.2332</v>
       </c>
       <c r="G85" t="n">
-        <v>287.2</v>
+        <v>287.0666666666667</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3362,8 +3686,14 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>282</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3373,22 +3703,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C86" t="n">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D86" t="n">
         <v>288</v>
       </c>
       <c r="E86" t="n">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F86" t="n">
-        <v>426.335</v>
+        <v>410.1822</v>
       </c>
       <c r="G86" t="n">
-        <v>287.3666666666667</v>
+        <v>287.2</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3397,8 +3727,14 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>282</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3408,22 +3744,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C87" t="n">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D87" t="n">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E87" t="n">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F87" t="n">
-        <v>1576.5758</v>
+        <v>426.335</v>
       </c>
       <c r="G87" t="n">
-        <v>287.5666666666667</v>
+        <v>287.3666666666667</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3432,8 +3768,14 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>282</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3443,7 +3785,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C88" t="n">
         <v>290</v>
@@ -3452,13 +3794,13 @@
         <v>290</v>
       </c>
       <c r="E88" t="n">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F88" t="n">
-        <v>1268.2965</v>
+        <v>1576.5758</v>
       </c>
       <c r="G88" t="n">
-        <v>287.75</v>
+        <v>287.5666666666667</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3467,8 +3809,14 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>282</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3478,22 +3826,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C89" t="n">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D89" t="n">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E89" t="n">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F89" t="n">
-        <v>147.4644</v>
+        <v>1268.2965</v>
       </c>
       <c r="G89" t="n">
-        <v>287.9166666666667</v>
+        <v>287.75</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3502,8 +3850,14 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>282</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3525,10 +3879,10 @@
         <v>289</v>
       </c>
       <c r="F90" t="n">
-        <v>231.9856</v>
+        <v>147.4644</v>
       </c>
       <c r="G90" t="n">
-        <v>288.0333333333334</v>
+        <v>287.9166666666667</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3537,8 +3891,14 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>282</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3560,10 +3920,10 @@
         <v>289</v>
       </c>
       <c r="F91" t="n">
-        <v>881.1942</v>
+        <v>231.9856</v>
       </c>
       <c r="G91" t="n">
-        <v>288.1666666666667</v>
+        <v>288.0333333333334</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3572,8 +3932,14 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>282</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3595,10 +3961,10 @@
         <v>289</v>
       </c>
       <c r="F92" t="n">
-        <v>396.4492</v>
+        <v>881.1942</v>
       </c>
       <c r="G92" t="n">
-        <v>288.3</v>
+        <v>288.1666666666667</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3607,8 +3973,14 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>282</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3618,22 +3990,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C93" t="n">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D93" t="n">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E93" t="n">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F93" t="n">
-        <v>5668.8077</v>
+        <v>396.4492</v>
       </c>
       <c r="G93" t="n">
-        <v>288.4</v>
+        <v>288.3</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3642,8 +4014,14 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>282</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3653,22 +4031,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C94" t="n">
         <v>287</v>
       </c>
       <c r="D94" t="n">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E94" t="n">
         <v>287</v>
       </c>
       <c r="F94" t="n">
-        <v>278.4886</v>
+        <v>5668.8077</v>
       </c>
       <c r="G94" t="n">
-        <v>288.5</v>
+        <v>288.4</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3677,8 +4055,14 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>282</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3700,7 +4084,7 @@
         <v>287</v>
       </c>
       <c r="F95" t="n">
-        <v>26.8397</v>
+        <v>278.4886</v>
       </c>
       <c r="G95" t="n">
         <v>288.5</v>
@@ -3712,8 +4096,14 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>282</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3735,7 +4125,7 @@
         <v>287</v>
       </c>
       <c r="F96" t="n">
-        <v>638.1707</v>
+        <v>26.8397</v>
       </c>
       <c r="G96" t="n">
         <v>288.5</v>
@@ -3747,8 +4137,14 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>282</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3770,10 +4166,10 @@
         <v>287</v>
       </c>
       <c r="F97" t="n">
-        <v>17403.8136</v>
+        <v>638.1707</v>
       </c>
       <c r="G97" t="n">
-        <v>288.5166666666667</v>
+        <v>288.5</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3782,8 +4178,14 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>282</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3793,22 +4195,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C98" t="n">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D98" t="n">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E98" t="n">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F98" t="n">
-        <v>36.2599</v>
+        <v>17403.8136</v>
       </c>
       <c r="G98" t="n">
-        <v>288.5666666666667</v>
+        <v>288.5166666666667</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3817,8 +4219,14 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>282</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -3828,22 +4236,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C99" t="n">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D99" t="n">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E99" t="n">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F99" t="n">
-        <v>338.9103</v>
+        <v>36.2599</v>
       </c>
       <c r="G99" t="n">
-        <v>288.65</v>
+        <v>288.5666666666667</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3852,8 +4260,14 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>282</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -3863,22 +4277,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C100" t="n">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D100" t="n">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="E100" t="n">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F100" t="n">
-        <v>26</v>
+        <v>338.9103</v>
       </c>
       <c r="G100" t="n">
-        <v>288.7</v>
+        <v>288.65</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3887,8 +4301,14 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>282</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -3898,22 +4318,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C101" t="n">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D101" t="n">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E101" t="n">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F101" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="G101" t="n">
-        <v>288.8166666666667</v>
+        <v>288.7</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3922,8 +4342,14 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>282</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -3936,19 +4362,19 @@
         <v>290</v>
       </c>
       <c r="C102" t="n">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D102" t="n">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="E102" t="n">
         <v>290</v>
       </c>
       <c r="F102" t="n">
-        <v>3034.60231152</v>
+        <v>1</v>
       </c>
       <c r="G102" t="n">
-        <v>289</v>
+        <v>288.8166666666667</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3957,8 +4383,14 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>282</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -3968,22 +4400,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
+        <v>290</v>
+      </c>
+      <c r="C103" t="n">
         <v>295</v>
       </c>
-      <c r="C103" t="n">
-        <v>296</v>
-      </c>
       <c r="D103" t="n">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E103" t="n">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="F103" t="n">
-        <v>3013.48920435</v>
+        <v>3034.60231152</v>
       </c>
       <c r="G103" t="n">
-        <v>289.2</v>
+        <v>289</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -3992,8 +4424,14 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>282</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4003,22 +4441,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
+        <v>295</v>
+      </c>
+      <c r="C104" t="n">
         <v>296</v>
       </c>
-      <c r="C104" t="n">
-        <v>300</v>
-      </c>
       <c r="D104" t="n">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="E104" t="n">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F104" t="n">
-        <v>18505.97708346</v>
+        <v>3013.48920435</v>
       </c>
       <c r="G104" t="n">
-        <v>289.4666666666666</v>
+        <v>289.2</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4027,8 +4465,14 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>282</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4038,22 +4482,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
+        <v>296</v>
+      </c>
+      <c r="C105" t="n">
         <v>300</v>
       </c>
-      <c r="C105" t="n">
-        <v>305</v>
-      </c>
       <c r="D105" t="n">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="E105" t="n">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="F105" t="n">
-        <v>55898.47012898</v>
+        <v>18505.97708346</v>
       </c>
       <c r="G105" t="n">
-        <v>289.8333333333333</v>
+        <v>289.4666666666666</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4062,8 +4506,14 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>282</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4073,22 +4523,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
+        <v>300</v>
+      </c>
+      <c r="C106" t="n">
         <v>305</v>
       </c>
-      <c r="C106" t="n">
-        <v>309</v>
-      </c>
       <c r="D106" t="n">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="E106" t="n">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F106" t="n">
-        <v>11486.2389</v>
+        <v>55898.47012898</v>
       </c>
       <c r="G106" t="n">
-        <v>290.25</v>
+        <v>289.8333333333333</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4097,8 +4547,14 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>282</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4108,22 +4564,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="C107" t="n">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D107" t="n">
         <v>310</v>
       </c>
       <c r="E107" t="n">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F107" t="n">
-        <v>2039.7047</v>
+        <v>11486.2389</v>
       </c>
       <c r="G107" t="n">
-        <v>290.6666666666667</v>
+        <v>290.25</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4132,8 +4588,14 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>282</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4143,10 +4605,10 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
+        <v>310</v>
+      </c>
+      <c r="C108" t="n">
         <v>308</v>
-      </c>
-      <c r="C108" t="n">
-        <v>310</v>
       </c>
       <c r="D108" t="n">
         <v>310</v>
@@ -4155,10 +4617,10 @@
         <v>307</v>
       </c>
       <c r="F108" t="n">
-        <v>3753.54600806</v>
+        <v>2039.7047</v>
       </c>
       <c r="G108" t="n">
-        <v>291.1166666666667</v>
+        <v>290.6666666666667</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4167,8 +4629,14 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>282</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4178,22 +4646,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
+        <v>308</v>
+      </c>
+      <c r="C109" t="n">
         <v>310</v>
       </c>
-      <c r="C109" t="n">
-        <v>315</v>
-      </c>
       <c r="D109" t="n">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="E109" t="n">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F109" t="n">
-        <v>28984.20794961</v>
+        <v>3753.54600806</v>
       </c>
       <c r="G109" t="n">
-        <v>291.6666666666667</v>
+        <v>291.1166666666667</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4202,8 +4670,14 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>282</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4213,22 +4687,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
+        <v>310</v>
+      </c>
+      <c r="C110" t="n">
         <v>315</v>
       </c>
-      <c r="C110" t="n">
-        <v>319</v>
-      </c>
       <c r="D110" t="n">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E110" t="n">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="F110" t="n">
-        <v>9758.80514233</v>
+        <v>28984.20794961</v>
       </c>
       <c r="G110" t="n">
-        <v>292.2333333333333</v>
+        <v>291.6666666666667</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4237,8 +4711,14 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>282</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4248,22 +4728,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="C111" t="n">
         <v>319</v>
       </c>
       <c r="D111" t="n">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E111" t="n">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F111" t="n">
-        <v>12047.21317868</v>
+        <v>9758.80514233</v>
       </c>
       <c r="G111" t="n">
-        <v>292.7666666666667</v>
+        <v>292.2333333333333</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4272,10 +4752,16 @@
         <v>1</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>282</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M111" t="n">
-        <v>1</v>
+        <v>1.126205673758865</v>
       </c>
     </row>
     <row r="112">
@@ -4283,22 +4769,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="C112" t="n">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D112" t="n">
+        <v>321</v>
+      </c>
+      <c r="E112" t="n">
         <v>319</v>
       </c>
-      <c r="E112" t="n">
-        <v>315</v>
-      </c>
       <c r="F112" t="n">
-        <v>13588.88688495</v>
+        <v>12047.21317868</v>
       </c>
       <c r="G112" t="n">
-        <v>293.3333333333333</v>
+        <v>292.7666666666667</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4318,22 +4804,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C113" t="n">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="D113" t="n">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E113" t="n">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="F113" t="n">
-        <v>358.9361</v>
+        <v>13588.88688495</v>
       </c>
       <c r="G113" t="n">
-        <v>293.8</v>
+        <v>293.3333333333333</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4353,22 +4839,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C114" t="n">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D114" t="n">
         <v>317</v>
       </c>
       <c r="E114" t="n">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F114" t="n">
-        <v>8830.792600000001</v>
+        <v>358.9361</v>
       </c>
       <c r="G114" t="n">
-        <v>294.3333333333333</v>
+        <v>293.8</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4388,22 +4874,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C115" t="n">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="D115" t="n">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="E115" t="n">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="F115" t="n">
-        <v>1030.1332</v>
+        <v>8830.792600000001</v>
       </c>
       <c r="G115" t="n">
-        <v>294.7666666666667</v>
+        <v>294.3333333333333</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4423,22 +4909,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="C116" t="n">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="D116" t="n">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="E116" t="n">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="F116" t="n">
-        <v>334.4477</v>
+        <v>1030.1332</v>
       </c>
       <c r="G116" t="n">
-        <v>295.1333333333333</v>
+        <v>294.7666666666667</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4458,22 +4944,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C117" t="n">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D117" t="n">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E117" t="n">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F117" t="n">
-        <v>17627.2079</v>
+        <v>334.4477</v>
       </c>
       <c r="G117" t="n">
-        <v>295.4333333333333</v>
+        <v>295.1333333333333</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4493,22 +4979,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C118" t="n">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="D118" t="n">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E118" t="n">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F118" t="n">
-        <v>3966.3546</v>
+        <v>17627.2079</v>
       </c>
       <c r="G118" t="n">
-        <v>295.8666666666667</v>
+        <v>295.4333333333333</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4528,22 +5014,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C119" t="n">
         <v>310</v>
       </c>
       <c r="D119" t="n">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="E119" t="n">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F119" t="n">
-        <v>7699.6774</v>
+        <v>3966.3546</v>
       </c>
       <c r="G119" t="n">
-        <v>296.2166666666666</v>
+        <v>295.8666666666667</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4566,19 +5052,19 @@
         <v>310</v>
       </c>
       <c r="C120" t="n">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="D120" t="n">
+        <v>315</v>
+      </c>
+      <c r="E120" t="n">
         <v>310</v>
       </c>
-      <c r="E120" t="n">
-        <v>307</v>
-      </c>
       <c r="F120" t="n">
-        <v>1828.4134</v>
+        <v>7699.6774</v>
       </c>
       <c r="G120" t="n">
-        <v>296.5333333333334</v>
+        <v>296.2166666666666</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4598,22 +5084,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
+        <v>310</v>
+      </c>
+      <c r="C121" t="n">
         <v>307</v>
       </c>
-      <c r="C121" t="n">
-        <v>300</v>
-      </c>
       <c r="D121" t="n">
+        <v>310</v>
+      </c>
+      <c r="E121" t="n">
         <v>307</v>
       </c>
-      <c r="E121" t="n">
-        <v>300</v>
-      </c>
       <c r="F121" t="n">
-        <v>2390.0935</v>
+        <v>1828.4134</v>
       </c>
       <c r="G121" t="n">
-        <v>296.7166666666666</v>
+        <v>296.5333333333334</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4633,22 +5119,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="C122" t="n">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D122" t="n">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="E122" t="n">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F122" t="n">
-        <v>10.3346</v>
+        <v>2390.0935</v>
       </c>
       <c r="G122" t="n">
-        <v>296.8833333333333</v>
+        <v>296.7166666666666</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4668,22 +5154,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C123" t="n">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="D123" t="n">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="E123" t="n">
         <v>302</v>
       </c>
       <c r="F123" t="n">
-        <v>10.8743</v>
+        <v>10.3346</v>
       </c>
       <c r="G123" t="n">
-        <v>297.1</v>
+        <v>296.8833333333333</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4703,22 +5189,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
+        <v>302</v>
+      </c>
+      <c r="C124" t="n">
         <v>307</v>
       </c>
-      <c r="C124" t="n">
-        <v>310</v>
-      </c>
       <c r="D124" t="n">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="E124" t="n">
         <v>302</v>
       </c>
       <c r="F124" t="n">
-        <v>1619.33</v>
+        <v>10.8743</v>
       </c>
       <c r="G124" t="n">
-        <v>297.3333333333333</v>
+        <v>297.1</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4738,7 +5224,7 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C125" t="n">
         <v>310</v>
@@ -4747,13 +5233,13 @@
         <v>310</v>
       </c>
       <c r="E125" t="n">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="F125" t="n">
-        <v>619.7018</v>
+        <v>1619.33</v>
       </c>
       <c r="G125" t="n">
-        <v>297.5666666666667</v>
+        <v>297.3333333333333</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4773,22 +5259,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C126" t="n">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="D126" t="n">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E126" t="n">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="F126" t="n">
-        <v>4697.7738</v>
+        <v>619.7018</v>
       </c>
       <c r="G126" t="n">
-        <v>297.7166666666666</v>
+        <v>297.5666666666667</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4808,22 +5294,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="C127" t="n">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="D127" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E127" t="n">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="F127" t="n">
-        <v>1134.1213</v>
+        <v>4697.7738</v>
       </c>
       <c r="G127" t="n">
-        <v>297.9666666666666</v>
+        <v>297.7166666666666</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4843,22 +5329,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
+        <v>308</v>
+      </c>
+      <c r="C128" t="n">
         <v>310</v>
       </c>
-      <c r="C128" t="n">
-        <v>316</v>
-      </c>
       <c r="D128" t="n">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="E128" t="n">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F128" t="n">
-        <v>4367.84692151</v>
+        <v>1134.1213</v>
       </c>
       <c r="G128" t="n">
-        <v>298.3166666666667</v>
+        <v>297.9666666666666</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4878,22 +5364,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C129" t="n">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D129" t="n">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="E129" t="n">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="F129" t="n">
-        <v>2725.8598</v>
+        <v>4367.84692151</v>
       </c>
       <c r="G129" t="n">
-        <v>298.6333333333333</v>
+        <v>298.3166666666667</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4916,19 +5402,19 @@
         <v>314</v>
       </c>
       <c r="C130" t="n">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D130" t="n">
         <v>314</v>
       </c>
       <c r="E130" t="n">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F130" t="n">
-        <v>203.7656</v>
+        <v>2725.8598</v>
       </c>
       <c r="G130" t="n">
-        <v>298.9333333333333</v>
+        <v>298.6333333333333</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4948,22 +5434,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
+        <v>314</v>
+      </c>
+      <c r="C131" t="n">
         <v>313</v>
       </c>
-      <c r="C131" t="n">
-        <v>307</v>
-      </c>
       <c r="D131" t="n">
+        <v>314</v>
+      </c>
+      <c r="E131" t="n">
         <v>313</v>
       </c>
-      <c r="E131" t="n">
-        <v>307</v>
-      </c>
       <c r="F131" t="n">
-        <v>3166.4516</v>
+        <v>203.7656</v>
       </c>
       <c r="G131" t="n">
-        <v>299.1833333333333</v>
+        <v>298.9333333333333</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -4983,22 +5469,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="C132" t="n">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D132" t="n">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="E132" t="n">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="F132" t="n">
-        <v>1124.7454</v>
+        <v>3166.4516</v>
       </c>
       <c r="G132" t="n">
-        <v>299.4333333333333</v>
+        <v>299.1833333333333</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5018,22 +5504,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="C133" t="n">
         <v>308</v>
       </c>
       <c r="D133" t="n">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="E133" t="n">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="F133" t="n">
-        <v>1705.8998</v>
+        <v>1124.7454</v>
       </c>
       <c r="G133" t="n">
-        <v>299.6833333333333</v>
+        <v>299.4333333333333</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5053,22 +5539,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="C134" t="n">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="D134" t="n">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="E134" t="n">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="F134" t="n">
-        <v>11237.186</v>
+        <v>1705.8998</v>
       </c>
       <c r="G134" t="n">
-        <v>299.85</v>
+        <v>299.6833333333333</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5094,16 +5580,16 @@
         <v>303</v>
       </c>
       <c r="D135" t="n">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="E135" t="n">
         <v>303</v>
       </c>
       <c r="F135" t="n">
-        <v>3001.6254</v>
+        <v>11237.186</v>
       </c>
       <c r="G135" t="n">
-        <v>300.0166666666667</v>
+        <v>299.85</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5126,19 +5612,19 @@
         <v>303</v>
       </c>
       <c r="C136" t="n">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="D136" t="n">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="E136" t="n">
         <v>303</v>
       </c>
       <c r="F136" t="n">
-        <v>435.17</v>
+        <v>3001.6254</v>
       </c>
       <c r="G136" t="n">
-        <v>300.2166666666666</v>
+        <v>300.0166666666667</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5158,22 +5644,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="C137" t="n">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="D137" t="n">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="E137" t="n">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F137" t="n">
-        <v>4858.0738</v>
+        <v>435.17</v>
       </c>
       <c r="G137" t="n">
-        <v>300.55</v>
+        <v>300.2166666666666</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5193,22 +5679,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
+        <v>308</v>
+      </c>
+      <c r="C138" t="n">
         <v>312</v>
       </c>
-      <c r="C138" t="n">
-        <v>313</v>
-      </c>
       <c r="D138" t="n">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E138" t="n">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="F138" t="n">
-        <v>2713.586</v>
+        <v>4858.0738</v>
       </c>
       <c r="G138" t="n">
-        <v>300.9</v>
+        <v>300.55</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5228,22 +5714,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C139" t="n">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D139" t="n">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="E139" t="n">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F139" t="n">
-        <v>8562.179</v>
+        <v>2713.586</v>
       </c>
       <c r="G139" t="n">
-        <v>301.3</v>
+        <v>300.9</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5263,22 +5749,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C140" t="n">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D140" t="n">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="E140" t="n">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F140" t="n">
-        <v>5916.8279</v>
+        <v>8562.179</v>
       </c>
       <c r="G140" t="n">
-        <v>301.6666666666667</v>
+        <v>301.3</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5298,22 +5784,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C141" t="n">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D141" t="n">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E141" t="n">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F141" t="n">
-        <v>784.3275</v>
+        <v>5916.8279</v>
       </c>
       <c r="G141" t="n">
-        <v>302.0833333333333</v>
+        <v>301.6666666666667</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5333,22 +5819,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C142" t="n">
         <v>316</v>
       </c>
       <c r="D142" t="n">
+        <v>317</v>
+      </c>
+      <c r="E142" t="n">
         <v>316</v>
       </c>
-      <c r="E142" t="n">
-        <v>315</v>
-      </c>
       <c r="F142" t="n">
-        <v>418.9612</v>
+        <v>784.3275</v>
       </c>
       <c r="G142" t="n">
-        <v>302.5666666666667</v>
+        <v>302.0833333333333</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5368,22 +5854,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
+        <v>315</v>
+      </c>
+      <c r="C143" t="n">
         <v>316</v>
       </c>
-      <c r="C143" t="n">
-        <v>318</v>
-      </c>
       <c r="D143" t="n">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E143" t="n">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F143" t="n">
-        <v>9528.98907849</v>
+        <v>418.9612</v>
       </c>
       <c r="G143" t="n">
-        <v>303.05</v>
+        <v>302.5666666666667</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5403,22 +5889,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
+        <v>316</v>
+      </c>
+      <c r="C144" t="n">
         <v>318</v>
       </c>
-      <c r="C144" t="n">
-        <v>320</v>
-      </c>
       <c r="D144" t="n">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E144" t="n">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F144" t="n">
-        <v>1725.7651</v>
+        <v>9528.98907849</v>
       </c>
       <c r="G144" t="n">
-        <v>303.6</v>
+        <v>303.05</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5441,19 +5927,19 @@
         <v>318</v>
       </c>
       <c r="C145" t="n">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D145" t="n">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="E145" t="n">
         <v>318</v>
       </c>
       <c r="F145" t="n">
-        <v>2418.5097</v>
+        <v>1725.7651</v>
       </c>
       <c r="G145" t="n">
-        <v>304.1166666666667</v>
+        <v>303.6</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5473,22 +5959,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C146" t="n">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D146" t="n">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E146" t="n">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="F146" t="n">
-        <v>3995.9559</v>
+        <v>2418.5097</v>
       </c>
       <c r="G146" t="n">
-        <v>304.5833333333333</v>
+        <v>304.1166666666667</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5508,22 +5994,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C147" t="n">
         <v>316</v>
       </c>
       <c r="D147" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E147" t="n">
         <v>316</v>
       </c>
       <c r="F147" t="n">
-        <v>1259.6626</v>
+        <v>3995.9559</v>
       </c>
       <c r="G147" t="n">
-        <v>305.0166666666667</v>
+        <v>304.5833333333333</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5546,19 +6032,19 @@
         <v>316</v>
       </c>
       <c r="C148" t="n">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="D148" t="n">
         <v>316</v>
       </c>
       <c r="E148" t="n">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="F148" t="n">
-        <v>8674.8514</v>
+        <v>1259.6626</v>
       </c>
       <c r="G148" t="n">
-        <v>305.3666666666667</v>
+        <v>305.0166666666667</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5578,22 +6064,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="C149" t="n">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D149" t="n">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="E149" t="n">
         <v>311</v>
       </c>
       <c r="F149" t="n">
-        <v>1756.7649</v>
+        <v>8674.8514</v>
       </c>
       <c r="G149" t="n">
-        <v>305.75</v>
+        <v>305.3666666666667</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5622,13 +6108,13 @@
         <v>312</v>
       </c>
       <c r="E150" t="n">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F150" t="n">
-        <v>8338.769</v>
+        <v>1756.7649</v>
       </c>
       <c r="G150" t="n">
-        <v>306.1333333333333</v>
+        <v>305.75</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5648,22 +6134,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C151" t="n">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D151" t="n">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="E151" t="n">
         <v>312</v>
       </c>
       <c r="F151" t="n">
-        <v>2054.7905</v>
+        <v>8338.769</v>
       </c>
       <c r="G151" t="n">
-        <v>306.5666666666667</v>
+        <v>306.1333333333333</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5683,22 +6169,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="C152" t="n">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="D152" t="n">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="E152" t="n">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="F152" t="n">
-        <v>1893.018</v>
+        <v>2054.7905</v>
       </c>
       <c r="G152" t="n">
-        <v>306.9333333333333</v>
+        <v>306.5666666666667</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5718,22 +6204,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C153" t="n">
         <v>311</v>
       </c>
       <c r="D153" t="n">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E153" t="n">
         <v>311</v>
       </c>
       <c r="F153" t="n">
-        <v>1431.8346</v>
+        <v>1893.018</v>
       </c>
       <c r="G153" t="n">
-        <v>307.3333333333333</v>
+        <v>306.9333333333333</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5753,22 +6239,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
+        <v>312</v>
+      </c>
+      <c r="C154" t="n">
         <v>311</v>
       </c>
-      <c r="C154" t="n">
-        <v>319</v>
-      </c>
       <c r="D154" t="n">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="E154" t="n">
         <v>311</v>
       </c>
       <c r="F154" t="n">
-        <v>4814.26473949</v>
+        <v>1431.8346</v>
       </c>
       <c r="G154" t="n">
-        <v>307.8666666666667</v>
+        <v>307.3333333333333</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5788,22 +6274,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="C155" t="n">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="D155" t="n">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E155" t="n">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="F155" t="n">
-        <v>21.9725</v>
+        <v>4814.26473949</v>
       </c>
       <c r="G155" t="n">
-        <v>308.3166666666667</v>
+        <v>307.8666666666667</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5823,22 +6309,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
+        <v>317</v>
+      </c>
+      <c r="C156" t="n">
         <v>314</v>
       </c>
-      <c r="C156" t="n">
-        <v>310</v>
-      </c>
       <c r="D156" t="n">
+        <v>317</v>
+      </c>
+      <c r="E156" t="n">
         <v>314</v>
       </c>
-      <c r="E156" t="n">
-        <v>310</v>
-      </c>
       <c r="F156" t="n">
-        <v>20691.6627</v>
+        <v>21.9725</v>
       </c>
       <c r="G156" t="n">
-        <v>308.7</v>
+        <v>308.3166666666667</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5858,22 +6344,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C157" t="n">
         <v>310</v>
       </c>
       <c r="D157" t="n">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E157" t="n">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F157" t="n">
-        <v>43</v>
+        <v>20691.6627</v>
       </c>
       <c r="G157" t="n">
-        <v>309.0833333333333</v>
+        <v>308.7</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -5893,22 +6379,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C158" t="n">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="D158" t="n">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="E158" t="n">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="F158" t="n">
-        <v>8892.037892779999</v>
+        <v>43</v>
       </c>
       <c r="G158" t="n">
-        <v>309.6</v>
+        <v>309.0833333333333</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -5928,22 +6414,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C159" t="n">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="D159" t="n">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="E159" t="n">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="F159" t="n">
-        <v>2166.8408</v>
+        <v>8892.037892779999</v>
       </c>
       <c r="G159" t="n">
-        <v>309.9</v>
+        <v>309.6</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -5963,22 +6449,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="C160" t="n">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D160" t="n">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="E160" t="n">
         <v>308</v>
       </c>
       <c r="F160" t="n">
-        <v>1603.3992</v>
+        <v>2166.8408</v>
       </c>
       <c r="G160" t="n">
-        <v>310.2833333333334</v>
+        <v>309.9</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6001,19 +6487,19 @@
         <v>311</v>
       </c>
       <c r="C161" t="n">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D161" t="n">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E161" t="n">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F161" t="n">
-        <v>147.13116134</v>
+        <v>1603.3992</v>
       </c>
       <c r="G161" t="n">
-        <v>310.6666666666667</v>
+        <v>310.2833333333334</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6033,22 +6519,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
+        <v>311</v>
+      </c>
+      <c r="C162" t="n">
         <v>313</v>
       </c>
-      <c r="C162" t="n">
-        <v>318</v>
-      </c>
       <c r="D162" t="n">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="E162" t="n">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F162" t="n">
-        <v>4532.24421476</v>
+        <v>147.13116134</v>
       </c>
       <c r="G162" t="n">
-        <v>311.05</v>
+        <v>310.6666666666667</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6068,22 +6554,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C163" t="n">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D163" t="n">
         <v>318</v>
       </c>
       <c r="E163" t="n">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F163" t="n">
-        <v>1597.562</v>
+        <v>4532.24421476</v>
       </c>
       <c r="G163" t="n">
-        <v>311.4</v>
+        <v>311.05</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6106,19 +6592,19 @@
         <v>316</v>
       </c>
       <c r="C164" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D164" t="n">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="E164" t="n">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F164" t="n">
-        <v>53.6761</v>
+        <v>1597.562</v>
       </c>
       <c r="G164" t="n">
-        <v>311.6666666666667</v>
+        <v>311.4</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6138,7 +6624,7 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C165" t="n">
         <v>316</v>
@@ -6147,13 +6633,13 @@
         <v>316</v>
       </c>
       <c r="E165" t="n">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="F165" t="n">
-        <v>680.8425</v>
+        <v>53.6761</v>
       </c>
       <c r="G165" t="n">
-        <v>311.85</v>
+        <v>311.6666666666667</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6173,7 +6659,7 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C166" t="n">
         <v>316</v>
@@ -6185,10 +6671,10 @@
         <v>314</v>
       </c>
       <c r="F166" t="n">
-        <v>4791.1088</v>
+        <v>680.8425</v>
       </c>
       <c r="G166" t="n">
-        <v>311.9666666666666</v>
+        <v>311.85</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6217,13 +6703,13 @@
         <v>316</v>
       </c>
       <c r="E167" t="n">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="F167" t="n">
-        <v>80</v>
+        <v>4791.1088</v>
       </c>
       <c r="G167" t="n">
-        <v>312.1</v>
+        <v>311.9666666666666</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6246,19 +6732,19 @@
         <v>316</v>
       </c>
       <c r="C168" t="n">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D168" t="n">
         <v>316</v>
       </c>
       <c r="E168" t="n">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="F168" t="n">
-        <v>1337.8771</v>
+        <v>80</v>
       </c>
       <c r="G168" t="n">
-        <v>312.1666666666667</v>
+        <v>312.1</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6278,22 +6764,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C169" t="n">
         <v>314</v>
       </c>
       <c r="D169" t="n">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="E169" t="n">
         <v>314</v>
       </c>
       <c r="F169" t="n">
-        <v>612.8881</v>
+        <v>1337.8771</v>
       </c>
       <c r="G169" t="n">
-        <v>312.15</v>
+        <v>312.1666666666667</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6313,22 +6799,22 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="C170" t="n">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="D170" t="n">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="E170" t="n">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="F170" t="n">
-        <v>874.1676</v>
+        <v>612.8881</v>
       </c>
       <c r="G170" t="n">
-        <v>312</v>
+        <v>312.15</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6348,22 +6834,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
+        <v>311</v>
+      </c>
+      <c r="C171" t="n">
         <v>310</v>
       </c>
-      <c r="C171" t="n">
-        <v>307</v>
-      </c>
       <c r="D171" t="n">
+        <v>311</v>
+      </c>
+      <c r="E171" t="n">
         <v>310</v>
       </c>
-      <c r="E171" t="n">
-        <v>307</v>
-      </c>
       <c r="F171" t="n">
-        <v>15309.9249</v>
+        <v>874.1676</v>
       </c>
       <c r="G171" t="n">
-        <v>311.8</v>
+        <v>312</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6383,22 +6869,22 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="C172" t="n">
         <v>307</v>
       </c>
       <c r="D172" t="n">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="E172" t="n">
         <v>307</v>
       </c>
       <c r="F172" t="n">
-        <v>719.4442</v>
+        <v>15309.9249</v>
       </c>
       <c r="G172" t="n">
-        <v>311.6166666666667</v>
+        <v>311.8</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6418,22 +6904,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C173" t="n">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D173" t="n">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="E173" t="n">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="F173" t="n">
-        <v>859.3279</v>
+        <v>719.4442</v>
       </c>
       <c r="G173" t="n">
-        <v>311.4833333333333</v>
+        <v>311.6166666666667</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6453,22 +6939,22 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C174" t="n">
         <v>305</v>
       </c>
       <c r="D174" t="n">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E174" t="n">
         <v>305</v>
       </c>
       <c r="F174" t="n">
-        <v>328.1493</v>
+        <v>859.3279</v>
       </c>
       <c r="G174" t="n">
-        <v>311.3</v>
+        <v>311.4833333333333</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6488,19 +6974,19 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C175" t="n">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="D175" t="n">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="E175" t="n">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="F175" t="n">
-        <v>68.1854</v>
+        <v>328.1493</v>
       </c>
       <c r="G175" t="n">
         <v>311.3</v>
@@ -6535,10 +7021,10 @@
         <v>310</v>
       </c>
       <c r="F176" t="n">
-        <v>53.1723</v>
+        <v>68.1854</v>
       </c>
       <c r="G176" t="n">
-        <v>311.3666666666667</v>
+        <v>311.3</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6558,22 +7044,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C177" t="n">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D177" t="n">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E177" t="n">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F177" t="n">
-        <v>9.807</v>
+        <v>53.1723</v>
       </c>
       <c r="G177" t="n">
-        <v>311.4666666666666</v>
+        <v>311.3666666666667</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6593,19 +7079,19 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C178" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D178" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E178" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F178" t="n">
-        <v>0.6423</v>
+        <v>9.807</v>
       </c>
       <c r="G178" t="n">
         <v>311.4666666666666</v>
@@ -6628,22 +7114,22 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C179" t="n">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D179" t="n">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E179" t="n">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="F179" t="n">
-        <v>128</v>
+        <v>0.6423</v>
       </c>
       <c r="G179" t="n">
-        <v>311.4333333333333</v>
+        <v>311.4666666666666</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6663,22 +7149,22 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C180" t="n">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D180" t="n">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E180" t="n">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F180" t="n">
-        <v>49.2327</v>
+        <v>128</v>
       </c>
       <c r="G180" t="n">
-        <v>311.4833333333333</v>
+        <v>311.4333333333333</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6701,19 +7187,19 @@
         <v>310</v>
       </c>
       <c r="C181" t="n">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="D181" t="n">
         <v>310</v>
       </c>
       <c r="E181" t="n">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="F181" t="n">
-        <v>29805.6559</v>
+        <v>49.2327</v>
       </c>
       <c r="G181" t="n">
-        <v>311.5</v>
+        <v>311.4833333333333</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -6733,22 +7219,22 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="C182" t="n">
         <v>301</v>
       </c>
       <c r="D182" t="n">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="E182" t="n">
         <v>301</v>
       </c>
       <c r="F182" t="n">
-        <v>4502.0092</v>
+        <v>29805.6559</v>
       </c>
       <c r="G182" t="n">
-        <v>311.4666666666666</v>
+        <v>311.5</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -6771,19 +7257,19 @@
         <v>302</v>
       </c>
       <c r="C183" t="n">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D183" t="n">
         <v>302</v>
       </c>
       <c r="E183" t="n">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F183" t="n">
-        <v>7133.5896</v>
+        <v>4502.0092</v>
       </c>
       <c r="G183" t="n">
-        <v>311.3833333333333</v>
+        <v>311.4666666666666</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -6803,22 +7289,22 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C184" t="n">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D184" t="n">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="E184" t="n">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F184" t="n">
-        <v>15089.3803</v>
+        <v>7133.5896</v>
       </c>
       <c r="G184" t="n">
-        <v>311.2333333333333</v>
+        <v>311.3833333333333</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -6841,19 +7327,19 @@
         <v>301</v>
       </c>
       <c r="C185" t="n">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D185" t="n">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="E185" t="n">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F185" t="n">
-        <v>5764.8203</v>
+        <v>15089.3803</v>
       </c>
       <c r="G185" t="n">
-        <v>311.1166666666667</v>
+        <v>311.2333333333333</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -6873,22 +7359,22 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
+        <v>301</v>
+      </c>
+      <c r="C186" t="n">
         <v>303</v>
       </c>
-      <c r="C186" t="n">
-        <v>310</v>
-      </c>
       <c r="D186" t="n">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="E186" t="n">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F186" t="n">
-        <v>3386.3906</v>
+        <v>5764.8203</v>
       </c>
       <c r="G186" t="n">
-        <v>311.2833333333334</v>
+        <v>311.1166666666667</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -6908,7 +7394,7 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="C187" t="n">
         <v>310</v>
@@ -6917,10 +7403,10 @@
         <v>310</v>
       </c>
       <c r="E187" t="n">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="F187" t="n">
-        <v>2721.4426</v>
+        <v>3386.3906</v>
       </c>
       <c r="G187" t="n">
         <v>311.2833333333334</v>
@@ -6955,10 +7441,10 @@
         <v>310</v>
       </c>
       <c r="F188" t="n">
-        <v>2068.4329</v>
+        <v>2721.4426</v>
       </c>
       <c r="G188" t="n">
-        <v>311.1833333333333</v>
+        <v>311.2833333333334</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -6978,22 +7464,22 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="C189" t="n">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="D189" t="n">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="E189" t="n">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="F189" t="n">
-        <v>498.776</v>
+        <v>2068.4329</v>
       </c>
       <c r="G189" t="n">
-        <v>311.05</v>
+        <v>311.1833333333333</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7025,10 +7511,10 @@
         <v>306</v>
       </c>
       <c r="F190" t="n">
-        <v>2289.9803</v>
+        <v>498.776</v>
       </c>
       <c r="G190" t="n">
-        <v>310.9333333333333</v>
+        <v>311.05</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7048,22 +7534,22 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C191" t="n">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D191" t="n">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="E191" t="n">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F191" t="n">
-        <v>3</v>
+        <v>2289.9803</v>
       </c>
       <c r="G191" t="n">
-        <v>310.9666666666666</v>
+        <v>310.9333333333333</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7086,19 +7572,19 @@
         <v>309</v>
       </c>
       <c r="C192" t="n">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="D192" t="n">
         <v>309</v>
       </c>
       <c r="E192" t="n">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="F192" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G192" t="n">
-        <v>310.9333333333333</v>
+        <v>310.9666666666666</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7118,22 +7604,22 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C193" t="n">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D193" t="n">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E193" t="n">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F193" t="n">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="G193" t="n">
-        <v>310.8666666666667</v>
+        <v>310.9333333333333</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7153,22 +7639,22 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="C194" t="n">
         <v>304</v>
       </c>
       <c r="D194" t="n">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="E194" t="n">
         <v>304</v>
       </c>
       <c r="F194" t="n">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="G194" t="n">
-        <v>310.8833333333333</v>
+        <v>310.8666666666667</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7188,22 +7674,22 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C195" t="n">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="D195" t="n">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="E195" t="n">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="F195" t="n">
-        <v>974.0259</v>
+        <v>1</v>
       </c>
       <c r="G195" t="n">
-        <v>310.9666666666666</v>
+        <v>310.8833333333333</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7223,22 +7709,22 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="C196" t="n">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="D196" t="n">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="E196" t="n">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="F196" t="n">
-        <v>5</v>
+        <v>974.0259</v>
       </c>
       <c r="G196" t="n">
-        <v>310.9166666666667</v>
+        <v>310.9666666666666</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7261,19 +7747,19 @@
         <v>304</v>
       </c>
       <c r="C197" t="n">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D197" t="n">
         <v>304</v>
       </c>
       <c r="E197" t="n">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F197" t="n">
-        <v>2083.0476</v>
+        <v>5</v>
       </c>
       <c r="G197" t="n">
-        <v>310.7666666666667</v>
+        <v>310.9166666666667</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7293,22 +7779,22 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C198" t="n">
         <v>303</v>
       </c>
       <c r="D198" t="n">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E198" t="n">
         <v>303</v>
       </c>
       <c r="F198" t="n">
-        <v>2526.848</v>
+        <v>2083.0476</v>
       </c>
       <c r="G198" t="n">
-        <v>310.6</v>
+        <v>310.7666666666667</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7328,7 +7814,7 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C199" t="n">
         <v>303</v>
@@ -7337,13 +7823,13 @@
         <v>303</v>
       </c>
       <c r="E199" t="n">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F199" t="n">
-        <v>1254.2699</v>
+        <v>2526.848</v>
       </c>
       <c r="G199" t="n">
-        <v>310.3833333333333</v>
+        <v>310.6</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7366,7 +7852,7 @@
         <v>302</v>
       </c>
       <c r="C200" t="n">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D200" t="n">
         <v>303</v>
@@ -7375,10 +7861,10 @@
         <v>302</v>
       </c>
       <c r="F200" t="n">
-        <v>493.3835</v>
+        <v>1254.2699</v>
       </c>
       <c r="G200" t="n">
-        <v>310.2</v>
+        <v>310.3833333333333</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7401,19 +7887,19 @@
         <v>302</v>
       </c>
       <c r="C201" t="n">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D201" t="n">
         <v>303</v>
       </c>
       <c r="E201" t="n">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="F201" t="n">
-        <v>10769.0133</v>
+        <v>493.3835</v>
       </c>
       <c r="G201" t="n">
-        <v>309.9833333333333</v>
+        <v>310.2</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7433,22 +7919,22 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C202" t="n">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D202" t="n">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="E202" t="n">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="F202" t="n">
-        <v>11</v>
+        <v>10769.0133</v>
       </c>
       <c r="G202" t="n">
-        <v>309.7333333333333</v>
+        <v>309.9833333333333</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -7468,22 +7954,22 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C203" t="n">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D203" t="n">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="E203" t="n">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F203" t="n">
-        <v>262.6886</v>
+        <v>11</v>
       </c>
       <c r="G203" t="n">
-        <v>309.4833333333333</v>
+        <v>309.7333333333333</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -7503,22 +7989,22 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="C204" t="n">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D204" t="n">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="E204" t="n">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="F204" t="n">
-        <v>1078.7326</v>
+        <v>262.6886</v>
       </c>
       <c r="G204" t="n">
-        <v>309.1666666666667</v>
+        <v>309.4833333333333</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -7541,19 +8027,19 @@
         <v>298</v>
       </c>
       <c r="C205" t="n">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="D205" t="n">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="E205" t="n">
         <v>298</v>
       </c>
       <c r="F205" t="n">
-        <v>2</v>
+        <v>1078.7326</v>
       </c>
       <c r="G205" t="n">
-        <v>308.8333333333333</v>
+        <v>309.1666666666667</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -7573,22 +8059,22 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="C206" t="n">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D206" t="n">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="E206" t="n">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F206" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G206" t="n">
-        <v>308.5666666666667</v>
+        <v>308.8333333333333</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -7608,22 +8094,22 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C207" t="n">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D207" t="n">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="E207" t="n">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F207" t="n">
-        <v>1313.2605</v>
+        <v>10</v>
       </c>
       <c r="G207" t="n">
-        <v>308.3166666666667</v>
+        <v>308.5666666666667</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -7643,22 +8129,22 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C208" t="n">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="D208" t="n">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="E208" t="n">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="F208" t="n">
-        <v>2900.3157</v>
+        <v>1313.2605</v>
       </c>
       <c r="G208" t="n">
-        <v>308.0833333333333</v>
+        <v>308.3166666666667</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -7678,22 +8164,22 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C209" t="n">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D209" t="n">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E209" t="n">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F209" t="n">
-        <v>4715.6274</v>
+        <v>2900.3157</v>
       </c>
       <c r="G209" t="n">
-        <v>307.8166666666667</v>
+        <v>308.0833333333333</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -7725,10 +8211,10 @@
         <v>296</v>
       </c>
       <c r="F210" t="n">
-        <v>14.6355</v>
+        <v>4715.6274</v>
       </c>
       <c r="G210" t="n">
-        <v>307.55</v>
+        <v>307.8166666666667</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -7748,22 +8234,22 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C211" t="n">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D211" t="n">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="E211" t="n">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F211" t="n">
-        <v>92.4684</v>
+        <v>14.6355</v>
       </c>
       <c r="G211" t="n">
-        <v>307.3</v>
+        <v>307.55</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -7786,19 +8272,19 @@
         <v>297</v>
       </c>
       <c r="C212" t="n">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="D212" t="n">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E212" t="n">
         <v>297</v>
       </c>
       <c r="F212" t="n">
-        <v>1499.6898</v>
+        <v>92.4684</v>
       </c>
       <c r="G212" t="n">
-        <v>307.0666666666667</v>
+        <v>307.3</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -7821,19 +8307,19 @@
         <v>297</v>
       </c>
       <c r="C213" t="n">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D213" t="n">
         <v>297</v>
       </c>
       <c r="E213" t="n">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F213" t="n">
-        <v>7906.9911</v>
+        <v>1499.6898</v>
       </c>
       <c r="G213" t="n">
-        <v>306.8166666666667</v>
+        <v>307.0666666666667</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -7856,19 +8342,19 @@
         <v>297</v>
       </c>
       <c r="C214" t="n">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D214" t="n">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E214" t="n">
         <v>296</v>
       </c>
       <c r="F214" t="n">
-        <v>3656.2656</v>
+        <v>7906.9911</v>
       </c>
       <c r="G214" t="n">
-        <v>306.5</v>
+        <v>306.8166666666667</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -7888,7 +8374,7 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C215" t="n">
         <v>300</v>
@@ -7897,13 +8383,13 @@
         <v>300</v>
       </c>
       <c r="E215" t="n">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="F215" t="n">
-        <v>6853.6475</v>
+        <v>3656.2656</v>
       </c>
       <c r="G215" t="n">
-        <v>306.2666666666667</v>
+        <v>306.5</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -7935,10 +8421,10 @@
         <v>300</v>
       </c>
       <c r="F216" t="n">
-        <v>147.6429</v>
+        <v>6853.6475</v>
       </c>
       <c r="G216" t="n">
-        <v>306.1</v>
+        <v>306.2666666666667</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -7970,10 +8456,10 @@
         <v>300</v>
       </c>
       <c r="F217" t="n">
-        <v>64.6382</v>
+        <v>147.6429</v>
       </c>
       <c r="G217" t="n">
-        <v>305.9333333333333</v>
+        <v>306.1</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -7993,22 +8479,22 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C218" t="n">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D218" t="n">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E218" t="n">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F218" t="n">
-        <v>8346.398300000001</v>
+        <v>64.6382</v>
       </c>
       <c r="G218" t="n">
-        <v>305.65</v>
+        <v>305.9333333333333</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -8031,35 +8517,29 @@
         <v>302</v>
       </c>
       <c r="C219" t="n">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D219" t="n">
         <v>302</v>
       </c>
       <c r="E219" t="n">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F219" t="n">
-        <v>20190.3298</v>
+        <v>8346.398300000001</v>
       </c>
       <c r="G219" t="n">
-        <v>305.5166666666667</v>
+        <v>305.65</v>
       </c>
       <c r="H219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
-      <c r="J219" t="n">
-        <v>302</v>
-      </c>
+      <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L219" t="inlineStr"/>
       <c r="M219" t="n">
         <v>1</v>
       </c>
@@ -8069,38 +8549,32 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
+        <v>302</v>
+      </c>
+      <c r="C220" t="n">
         <v>300</v>
       </c>
-      <c r="C220" t="n">
-        <v>304</v>
-      </c>
       <c r="D220" t="n">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E220" t="n">
         <v>300</v>
       </c>
       <c r="F220" t="n">
-        <v>71.0032921</v>
+        <v>20190.3298</v>
       </c>
       <c r="G220" t="n">
-        <v>305.4</v>
+        <v>305.5166666666667</v>
       </c>
       <c r="H220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
       </c>
-      <c r="J220" t="n">
-        <v>300</v>
-      </c>
+      <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L220" t="inlineStr"/>
       <c r="M220" t="n">
         <v>1</v>
       </c>
@@ -8113,35 +8587,29 @@
         <v>300</v>
       </c>
       <c r="C221" t="n">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="D221" t="n">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="E221" t="n">
         <v>300</v>
       </c>
       <c r="F221" t="n">
-        <v>1232.7985</v>
+        <v>71.0032921</v>
       </c>
       <c r="G221" t="n">
-        <v>305.1833333333333</v>
+        <v>305.4</v>
       </c>
       <c r="H221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
       </c>
-      <c r="J221" t="n">
-        <v>304</v>
-      </c>
+      <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L221" t="inlineStr"/>
       <c r="M221" t="n">
         <v>1</v>
       </c>
@@ -8163,26 +8631,20 @@
         <v>300</v>
       </c>
       <c r="F222" t="n">
-        <v>1653.4848</v>
+        <v>1232.7985</v>
       </c>
       <c r="G222" t="n">
-        <v>304.8833333333333</v>
+        <v>305.1833333333333</v>
       </c>
       <c r="H222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
       </c>
-      <c r="J222" t="n">
-        <v>300</v>
-      </c>
+      <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L222" t="inlineStr"/>
       <c r="M222" t="n">
         <v>1</v>
       </c>
@@ -8204,26 +8666,20 @@
         <v>300</v>
       </c>
       <c r="F223" t="n">
-        <v>262.4129</v>
+        <v>1653.4848</v>
       </c>
       <c r="G223" t="n">
-        <v>304.6</v>
+        <v>304.8833333333333</v>
       </c>
       <c r="H223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
       </c>
-      <c r="J223" t="n">
-        <v>300</v>
-      </c>
+      <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L223" t="inlineStr"/>
       <c r="M223" t="n">
         <v>1</v>
       </c>
@@ -8245,26 +8701,20 @@
         <v>300</v>
       </c>
       <c r="F224" t="n">
-        <v>9841.3986</v>
+        <v>262.4129</v>
       </c>
       <c r="G224" t="n">
-        <v>304.3333333333333</v>
+        <v>304.6</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
       </c>
-      <c r="J224" t="n">
-        <v>300</v>
-      </c>
+      <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L224" t="inlineStr"/>
       <c r="M224" t="n">
         <v>1</v>
       </c>
@@ -8274,38 +8724,32 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C225" t="n">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="D225" t="n">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="E225" t="n">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F225" t="n">
-        <v>5755.8201</v>
+        <v>9841.3986</v>
       </c>
       <c r="G225" t="n">
-        <v>304.1666666666667</v>
+        <v>304.3333333333333</v>
       </c>
       <c r="H225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
       </c>
-      <c r="J225" t="n">
-        <v>300</v>
-      </c>
+      <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L225" t="inlineStr"/>
       <c r="M225" t="n">
         <v>1</v>
       </c>
@@ -8315,38 +8759,32 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
+        <v>302</v>
+      </c>
+      <c r="C226" t="n">
         <v>306</v>
       </c>
-      <c r="C226" t="n">
-        <v>308</v>
-      </c>
       <c r="D226" t="n">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="E226" t="n">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="F226" t="n">
-        <v>8626.222900000001</v>
+        <v>5755.8201</v>
       </c>
       <c r="G226" t="n">
-        <v>304.0333333333334</v>
+        <v>304.1666666666667</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I226" t="n">
         <v>0</v>
       </c>
-      <c r="J226" t="n">
-        <v>306</v>
-      </c>
+      <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L226" t="inlineStr"/>
       <c r="M226" t="n">
         <v>1</v>
       </c>
@@ -8356,38 +8794,32 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C227" t="n">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D227" t="n">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E227" t="n">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F227" t="n">
-        <v>11310.0912</v>
+        <v>8626.222900000001</v>
       </c>
       <c r="G227" t="n">
-        <v>303.95</v>
+        <v>304.0333333333334</v>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
       </c>
-      <c r="J227" t="n">
-        <v>308</v>
-      </c>
+      <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L227" t="inlineStr"/>
       <c r="M227" t="n">
         <v>1</v>
       </c>
@@ -8397,22 +8829,22 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C228" t="n">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D228" t="n">
         <v>312</v>
       </c>
       <c r="E228" t="n">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F228" t="n">
-        <v>9442.259148380001</v>
+        <v>11310.0912</v>
       </c>
       <c r="G228" t="n">
-        <v>303.9166666666667</v>
+        <v>303.95</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -8422,11 +8854,7 @@
       </c>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L228" t="inlineStr"/>
       <c r="M228" t="n">
         <v>1</v>
       </c>
@@ -8436,22 +8864,22 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C229" t="n">
         <v>312</v>
       </c>
       <c r="D229" t="n">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E229" t="n">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F229" t="n">
-        <v>4391.63121086</v>
+        <v>9442.259148380001</v>
       </c>
       <c r="G229" t="n">
-        <v>303.8833333333333</v>
+        <v>303.9166666666667</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -8461,11 +8889,7 @@
       </c>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L229" t="inlineStr"/>
       <c r="M229" t="n">
         <v>1</v>
       </c>
@@ -8475,22 +8899,22 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C230" t="n">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="D230" t="n">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="E230" t="n">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="F230" t="n">
-        <v>1245.8789</v>
+        <v>4391.63121086</v>
       </c>
       <c r="G230" t="n">
-        <v>303.85</v>
+        <v>303.8833333333333</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -8500,11 +8924,7 @@
       </c>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L230" t="inlineStr"/>
       <c r="M230" t="n">
         <v>1</v>
       </c>
@@ -8514,22 +8934,22 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C231" t="n">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D231" t="n">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E231" t="n">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F231" t="n">
-        <v>726.9195999999999</v>
+        <v>1245.8789</v>
       </c>
       <c r="G231" t="n">
-        <v>303.9166666666667</v>
+        <v>303.85</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -8539,11 +8959,7 @@
       </c>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L231" t="inlineStr"/>
       <c r="M231" t="n">
         <v>1</v>
       </c>
@@ -8553,22 +8969,22 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="C232" t="n">
-        <v>300</v>
+        <v>311</v>
       </c>
       <c r="D232" t="n">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="E232" t="n">
-        <v>297</v>
+        <v>310</v>
       </c>
       <c r="F232" t="n">
-        <v>13101.9517</v>
+        <v>726.9195999999999</v>
       </c>
       <c r="G232" t="n">
-        <v>303.8</v>
+        <v>303.9166666666667</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -8578,11 +8994,7 @@
       </c>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L232" t="inlineStr"/>
       <c r="M232" t="n">
         <v>1</v>
       </c>
@@ -8592,22 +9004,22 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
+        <v>301</v>
+      </c>
+      <c r="C233" t="n">
         <v>300</v>
       </c>
-      <c r="C233" t="n">
-        <v>303</v>
-      </c>
       <c r="D233" t="n">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E233" t="n">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="F233" t="n">
-        <v>2694.7747</v>
+        <v>13101.9517</v>
       </c>
       <c r="G233" t="n">
-        <v>303.7666666666667</v>
+        <v>303.8</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -8617,11 +9029,7 @@
       </c>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L233" t="inlineStr"/>
       <c r="M233" t="n">
         <v>1</v>
       </c>
@@ -8631,22 +9039,22 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C234" t="n">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D234" t="n">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E234" t="n">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F234" t="n">
-        <v>100.435</v>
+        <v>2694.7747</v>
       </c>
       <c r="G234" t="n">
-        <v>303.7</v>
+        <v>303.7666666666667</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -8656,11 +9064,7 @@
       </c>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L234" t="inlineStr"/>
       <c r="M234" t="n">
         <v>1</v>
       </c>
@@ -8673,19 +9077,19 @@
         <v>302</v>
       </c>
       <c r="C235" t="n">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D235" t="n">
         <v>302</v>
       </c>
       <c r="E235" t="n">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F235" t="n">
-        <v>2723.5346</v>
+        <v>100.435</v>
       </c>
       <c r="G235" t="n">
-        <v>303.5666666666667</v>
+        <v>303.7</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -8695,11 +9099,7 @@
       </c>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L235" t="inlineStr"/>
       <c r="M235" t="n">
         <v>1</v>
       </c>
@@ -8721,10 +9121,10 @@
         <v>302</v>
       </c>
       <c r="F236" t="n">
-        <v>1602.5794</v>
+        <v>2723.5346</v>
       </c>
       <c r="G236" t="n">
-        <v>303.4333333333333</v>
+        <v>303.5666666666667</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -8734,11 +9134,7 @@
       </c>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L236" t="inlineStr"/>
       <c r="M236" t="n">
         <v>1</v>
       </c>
@@ -8751,19 +9147,19 @@
         <v>302</v>
       </c>
       <c r="C237" t="n">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D237" t="n">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E237" t="n">
         <v>302</v>
       </c>
       <c r="F237" t="n">
-        <v>1405.2898</v>
+        <v>1602.5794</v>
       </c>
       <c r="G237" t="n">
-        <v>303.3</v>
+        <v>303.4333333333333</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -8773,11 +9169,7 @@
       </c>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L237" t="inlineStr"/>
       <c r="M237" t="n">
         <v>1</v>
       </c>
@@ -8787,22 +9179,22 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C238" t="n">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D238" t="n">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E238" t="n">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F238" t="n">
-        <v>96.6863</v>
+        <v>1405.2898</v>
       </c>
       <c r="G238" t="n">
-        <v>303.2166666666666</v>
+        <v>303.3</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -8812,11 +9204,7 @@
       </c>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L238" t="inlineStr"/>
       <c r="M238" t="n">
         <v>1</v>
       </c>
@@ -8826,7 +9214,7 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C239" t="n">
         <v>305</v>
@@ -8835,13 +9223,13 @@
         <v>305</v>
       </c>
       <c r="E239" t="n">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F239" t="n">
-        <v>37.1034</v>
+        <v>96.6863</v>
       </c>
       <c r="G239" t="n">
-        <v>303.1666666666667</v>
+        <v>303.2166666666666</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -8851,11 +9239,7 @@
       </c>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L239" t="inlineStr"/>
       <c r="M239" t="n">
         <v>1</v>
       </c>
@@ -8865,22 +9249,22 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C240" t="n">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D240" t="n">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E240" t="n">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F240" t="n">
-        <v>61.4869</v>
+        <v>37.1034</v>
       </c>
       <c r="G240" t="n">
-        <v>303.0666666666667</v>
+        <v>303.1666666666667</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -8890,11 +9274,7 @@
       </c>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L240" t="inlineStr"/>
       <c r="M240" t="n">
         <v>1</v>
       </c>
@@ -8904,22 +9284,22 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C241" t="n">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="D241" t="n">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="E241" t="n">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="F241" t="n">
-        <v>1387.0106</v>
+        <v>61.4869</v>
       </c>
       <c r="G241" t="n">
-        <v>303.05</v>
+        <v>303.0666666666667</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -8929,11 +9309,7 @@
       </c>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L241" t="inlineStr"/>
       <c r="M241" t="n">
         <v>1</v>
       </c>
@@ -8943,22 +9319,22 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C242" t="n">
         <v>300</v>
       </c>
       <c r="D242" t="n">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="E242" t="n">
         <v>300</v>
       </c>
       <c r="F242" t="n">
-        <v>1435.1617</v>
+        <v>1387.0106</v>
       </c>
       <c r="G242" t="n">
-        <v>303.0333333333334</v>
+        <v>303.05</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -8968,11 +9344,7 @@
       </c>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L242" t="inlineStr"/>
       <c r="M242" t="n">
         <v>1</v>
       </c>
@@ -8982,22 +9354,22 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C243" t="n">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D243" t="n">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E243" t="n">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F243" t="n">
-        <v>451</v>
+        <v>1435.1617</v>
       </c>
       <c r="G243" t="n">
-        <v>303.0166666666667</v>
+        <v>303.0333333333334</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -9007,11 +9379,7 @@
       </c>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L243" t="inlineStr"/>
       <c r="M243" t="n">
         <v>1</v>
       </c>
@@ -9021,22 +9389,22 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C244" t="n">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D244" t="n">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E244" t="n">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F244" t="n">
-        <v>75.1253</v>
+        <v>451</v>
       </c>
       <c r="G244" t="n">
-        <v>303.05</v>
+        <v>303.0166666666667</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -9046,11 +9414,7 @@
       </c>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L244" t="inlineStr"/>
       <c r="M244" t="n">
         <v>1</v>
       </c>
@@ -9060,22 +9424,22 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C245" t="n">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D245" t="n">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E245" t="n">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F245" t="n">
-        <v>798.8058</v>
+        <v>75.1253</v>
       </c>
       <c r="G245" t="n">
-        <v>303.0666666666667</v>
+        <v>303.05</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -9085,12 +9449,43 @@
       </c>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L245" t="inlineStr"/>
       <c r="M245" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="n">
+        <v>304</v>
+      </c>
+      <c r="C246" t="n">
+        <v>304</v>
+      </c>
+      <c r="D246" t="n">
+        <v>304</v>
+      </c>
+      <c r="E246" t="n">
+        <v>304</v>
+      </c>
+      <c r="F246" t="n">
+        <v>798.8058</v>
+      </c>
+      <c r="G246" t="n">
+        <v>303.0666666666667</v>
+      </c>
+      <c r="H246" t="n">
+        <v>0</v>
+      </c>
+      <c r="I246" t="n">
+        <v>0</v>
+      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
+      <c r="L246" t="inlineStr"/>
+      <c r="M246" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-10 BackTest ARN.xlsx
+++ b/BackTest/2019-10-10 BackTest ARN.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>394692.8407</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -517,10 +517,14 @@
         <v>377838.6262</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>266</v>
+      </c>
+      <c r="J4" t="n">
+        <v>266</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
@@ -550,11 +554,19 @@
         <v>659271.5553</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>275</v>
+      </c>
+      <c r="J5" t="n">
+        <v>266</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,11 +595,19 @@
         <v>1563318.479</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>276</v>
+      </c>
+      <c r="J6" t="n">
+        <v>266</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -748,11 +768,17 @@
         <v>1144747.749</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>277</v>
+      </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -781,11 +807,17 @@
         <v>1145658.4674</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>276</v>
+      </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -814,11 +846,17 @@
         <v>1141686.4268</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>277</v>
+      </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -847,11 +885,17 @@
         <v>113348.3371</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>276</v>
+      </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -880,11 +924,17 @@
         <v>113348.3371</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>275</v>
+      </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -913,11 +963,17 @@
         <v>113348.3371</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>275</v>
+      </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -946,11 +1002,17 @@
         <v>113348.3371</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>275</v>
+      </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -979,11 +1041,17 @@
         <v>113348.3371</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>275</v>
+      </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1012,11 +1080,17 @@
         <v>113348.3371</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>275</v>
+      </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1045,11 +1119,17 @@
         <v>113348.3371</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>275</v>
+      </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1078,11 +1158,17 @@
         <v>-1152818.5093</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>275</v>
+      </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1111,11 +1197,17 @@
         <v>-1152818.5093</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>274</v>
+      </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1144,11 +1236,17 @@
         <v>-1152818.5093</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>274</v>
+      </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1177,11 +1275,17 @@
         <v>-1152818.5093</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>274</v>
+      </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1210,11 +1314,17 @@
         <v>-1152818.5093</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>274</v>
+      </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1243,11 +1353,17 @@
         <v>-1152818.5093</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>274</v>
+      </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1280,7 +1396,11 @@
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1313,7 +1433,11 @@
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1346,7 +1470,11 @@
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1379,7 +1507,11 @@
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1412,7 +1544,11 @@
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1445,7 +1581,11 @@
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1478,7 +1618,11 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1511,7 +1655,11 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1544,7 +1692,11 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1577,7 +1729,11 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1610,7 +1766,11 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1643,7 +1803,11 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1676,7 +1840,11 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1709,7 +1877,11 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1742,7 +1914,11 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1775,7 +1951,11 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1808,7 +1988,11 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1841,7 +2025,11 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1874,7 +2062,11 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1907,7 +2099,11 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1940,7 +2136,11 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1973,7 +2173,11 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2006,7 +2210,11 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2039,7 +2247,11 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2072,7 +2284,11 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2105,7 +2321,11 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2138,7 +2358,11 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2171,7 +2395,11 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2204,7 +2432,11 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2237,7 +2469,11 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2270,7 +2506,11 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2303,7 +2543,11 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2336,7 +2580,11 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2369,7 +2617,11 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2402,7 +2654,11 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2435,7 +2691,11 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2468,7 +2728,11 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2501,7 +2765,11 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2534,7 +2802,11 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2567,7 +2839,11 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2600,7 +2876,11 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2633,7 +2913,11 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2666,7 +2950,11 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2699,7 +2987,11 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2732,7 +3024,11 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2765,7 +3061,11 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2798,7 +3098,11 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2831,7 +3135,11 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2864,7 +3172,11 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2897,7 +3209,11 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2930,7 +3246,11 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2963,7 +3283,11 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -2996,7 +3320,11 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3025,15 +3353,15 @@
         <v>-346477.99592837</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
-      </c>
-      <c r="I80" t="n">
-        <v>279</v>
-      </c>
-      <c r="J80" t="n">
-        <v>279</v>
-      </c>
-      <c r="K80" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3065,12 +3393,10 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>279</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L81" t="n">
@@ -3104,12 +3430,10 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>279</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L82" t="n">
@@ -3144,7 +3468,11 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3177,7 +3505,11 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3210,7 +3542,11 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3243,7 +3579,11 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3276,7 +3616,11 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3309,7 +3653,11 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3342,7 +3690,11 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3375,7 +3727,11 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3408,7 +3764,11 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3441,7 +3801,11 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3474,7 +3838,11 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3507,7 +3875,11 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3536,15 +3908,15 @@
         <v>-337234.73997908</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
-      </c>
-      <c r="I95" t="n">
-        <v>287</v>
-      </c>
-      <c r="J95" t="n">
-        <v>287</v>
-      </c>
-      <c r="K95" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3573,17 +3945,13 @@
         <v>-341297.72147908</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
-      </c>
-      <c r="I96" t="n">
-        <v>287</v>
-      </c>
-      <c r="J96" t="n">
-        <v>287</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L96" t="n">
@@ -3614,14 +3982,10 @@
         <v>-341331.97877908</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
-      </c>
-      <c r="I97" t="n">
-        <v>286</v>
-      </c>
-      <c r="J97" t="n">
-        <v>287</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3658,9 +4022,7 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>287</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3694,14 +4056,10 @@
         <v>-341331.97877908</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
-      </c>
-      <c r="I99" t="n">
-        <v>285</v>
-      </c>
-      <c r="J99" t="n">
-        <v>287</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3735,14 +4093,10 @@
         <v>-342131.97877908</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
-      </c>
-      <c r="I100" t="n">
-        <v>285</v>
-      </c>
-      <c r="J100" t="n">
-        <v>287</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3776,14 +4130,12 @@
         <v>-338851.97877908</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
         <v>283</v>
       </c>
-      <c r="J101" t="n">
-        <v>287</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3817,14 +4169,10 @@
         <v>-338851.97877908</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
-      </c>
-      <c r="I102" t="n">
-        <v>284</v>
-      </c>
-      <c r="J102" t="n">
-        <v>287</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3858,14 +4206,10 @@
         <v>-338851.97877908</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
-      </c>
-      <c r="I103" t="n">
-        <v>284</v>
-      </c>
-      <c r="J103" t="n">
-        <v>287</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3899,14 +4243,10 @@
         <v>-339811.97877908</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
-      </c>
-      <c r="I104" t="n">
-        <v>284</v>
-      </c>
-      <c r="J104" t="n">
-        <v>287</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3940,14 +4280,10 @@
         <v>-338371.97877908</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
-      </c>
-      <c r="I105" t="n">
-        <v>283</v>
-      </c>
-      <c r="J105" t="n">
-        <v>287</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3981,14 +4317,10 @@
         <v>-339849.07877908</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
-      </c>
-      <c r="I106" t="n">
-        <v>284</v>
-      </c>
-      <c r="J106" t="n">
-        <v>287</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4022,14 +4354,10 @@
         <v>-339849.07877908</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
-      </c>
-      <c r="I107" t="n">
-        <v>283</v>
-      </c>
-      <c r="J107" t="n">
-        <v>287</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4063,14 +4391,10 @@
         <v>-339873.4974790799</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
-      </c>
-      <c r="I108" t="n">
-        <v>283</v>
-      </c>
-      <c r="J108" t="n">
-        <v>287</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4104,14 +4428,12 @@
         <v>-339850.5994790799</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
         <v>282</v>
       </c>
-      <c r="J109" t="n">
-        <v>287</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4145,14 +4467,10 @@
         <v>-336896.8784790799</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
-      </c>
-      <c r="I110" t="n">
-        <v>285</v>
-      </c>
-      <c r="J110" t="n">
-        <v>287</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4186,14 +4504,10 @@
         <v>-338122.9139790799</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
-      </c>
-      <c r="I111" t="n">
-        <v>287</v>
-      </c>
-      <c r="J111" t="n">
-        <v>287</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4227,14 +4541,10 @@
         <v>-337836.0354790799</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
-      </c>
-      <c r="I112" t="n">
-        <v>284</v>
-      </c>
-      <c r="J112" t="n">
-        <v>287</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4268,14 +4578,10 @@
         <v>-341880.23327908</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
-      </c>
-      <c r="I113" t="n">
-        <v>285</v>
-      </c>
-      <c r="J113" t="n">
-        <v>287</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4309,14 +4615,10 @@
         <v>-341880.23327908</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
-      </c>
-      <c r="I114" t="n">
-        <v>284</v>
-      </c>
-      <c r="J114" t="n">
-        <v>287</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4353,9 +4655,7 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>287</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4389,14 +4689,10 @@
         <v>-341636.23327908</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
-      </c>
-      <c r="I116" t="n">
-        <v>284</v>
-      </c>
-      <c r="J116" t="n">
-        <v>287</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4430,14 +4726,10 @@
         <v>-341672.1592790799</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
-      </c>
-      <c r="I117" t="n">
-        <v>287</v>
-      </c>
-      <c r="J117" t="n">
-        <v>287</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4471,14 +4763,10 @@
         <v>-332553.7395790799</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
-      </c>
-      <c r="I118" t="n">
-        <v>284</v>
-      </c>
-      <c r="J118" t="n">
-        <v>287</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4515,9 +4803,7 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>287</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4554,9 +4840,7 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>287</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4593,9 +4877,7 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>287</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4632,9 +4914,7 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>287</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4671,9 +4951,7 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>287</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4710,9 +4988,7 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>287</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4749,9 +5025,7 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>287</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4788,9 +5062,7 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>287</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4827,9 +5099,7 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>287</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4866,9 +5136,7 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>287</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4905,9 +5173,7 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>287</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4944,9 +5210,7 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>287</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4983,9 +5247,7 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>287</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5019,14 +5281,10 @@
         <v>-309313.9765790799</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
-      </c>
-      <c r="I132" t="n">
-        <v>293</v>
-      </c>
-      <c r="J132" t="n">
-        <v>287</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5060,14 +5318,10 @@
         <v>-309313.9765790799</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
-      </c>
-      <c r="I133" t="n">
-        <v>293</v>
-      </c>
-      <c r="J133" t="n">
-        <v>287</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5101,14 +5355,10 @@
         <v>-309313.9765790799</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
-      </c>
-      <c r="I134" t="n">
-        <v>293</v>
-      </c>
-      <c r="J134" t="n">
-        <v>287</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5142,12 +5392,12 @@
         <v>-308037.8108790799</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>287</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>293</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5181,12 +5431,12 @@
         <v>-310015.3701790799</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>287</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>295</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5220,12 +5470,12 @@
         <v>-310015.3701790799</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>287</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>292</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5259,12 +5509,12 @@
         <v>-310015.3701790799</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>287</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>292</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5298,12 +5548,12 @@
         <v>-315909.6824790799</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>287</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>292</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5337,12 +5587,12 @@
         <v>-315909.6824790799</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>287</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>291</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5376,12 +5626,12 @@
         <v>-321612.9448790799</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>287</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>291</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5415,12 +5665,12 @@
         <v>-321047.0962790799</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
         <v>287</v>
       </c>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5454,12 +5704,12 @@
         <v>-321372.3294790799</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>287</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>289</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5493,12 +5743,12 @@
         <v>-321372.3294790799</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
         <v>287</v>
       </c>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5532,12 +5782,12 @@
         <v>-320945.9944790799</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
         <v>287</v>
       </c>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5571,12 +5821,12 @@
         <v>-319369.4186790799</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>287</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>288</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5610,12 +5860,12 @@
         <v>-319369.4186790799</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>287</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>290</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5649,12 +5899,12 @@
         <v>-319516.8830790799</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>287</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>290</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5688,12 +5938,12 @@
         <v>-319516.8830790799</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>287</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>289</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5727,12 +5977,12 @@
         <v>-319516.8830790799</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>287</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>289</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5766,12 +6016,12 @@
         <v>-319516.8830790799</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>287</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>289</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5805,12 +6055,12 @@
         <v>-325185.6907790799</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>287</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>289</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5844,12 +6094,12 @@
         <v>-325185.6907790799</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
+        <v>1</v>
+      </c>
+      <c r="I153" t="n">
         <v>287</v>
       </c>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5883,12 +6133,12 @@
         <v>-325185.6907790799</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
         <v>287</v>
       </c>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5922,12 +6172,12 @@
         <v>-325185.6907790799</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
         <v>287</v>
       </c>
+      <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5961,12 +6211,12 @@
         <v>-325185.6907790799</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
         <v>287</v>
       </c>
+      <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6000,12 +6250,12 @@
         <v>-325149.4308790799</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
         <v>287</v>
       </c>
+      <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6039,12 +6289,12 @@
         <v>-324810.5205790799</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>287</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I158" t="n">
+        <v>288</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6078,12 +6328,12 @@
         <v>-324836.5205790799</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>287</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>290</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6117,12 +6367,12 @@
         <v>-324835.5205790799</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>287</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>288</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6156,14 +6406,12 @@
         <v>-321800.9182675599</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I161" t="n">
         <v>290</v>
       </c>
-      <c r="J161" t="n">
-        <v>287</v>
-      </c>
+      <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6197,12 +6445,12 @@
         <v>-318787.4290632099</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>287</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>295</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6239,9 +6487,7 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>287</v>
-      </c>
+      <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6278,9 +6524,7 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>287</v>
-      </c>
+      <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6314,23 +6558,19 @@
         <v>-232896.7429507699</v>
       </c>
       <c r="H165" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>287</v>
-      </c>
+      <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L165" t="n">
-        <v>1.071655052264809</v>
-      </c>
-      <c r="M165" t="n">
-        <v>1.078947368421053</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6355,11 +6595,15 @@
         <v>-234936.4476507699</v>
       </c>
       <c r="H166" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6388,11 +6632,15 @@
         <v>-231182.9016427099</v>
       </c>
       <c r="H167" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6421,11 +6669,15 @@
         <v>-202198.6936930999</v>
       </c>
       <c r="H168" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6454,11 +6706,15 @@
         <v>-192439.8885507699</v>
       </c>
       <c r="H169" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6487,11 +6743,15 @@
         <v>-192439.8885507699</v>
       </c>
       <c r="H170" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6520,11 +6780,15 @@
         <v>-206028.7754357199</v>
       </c>
       <c r="H171" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6553,11 +6817,15 @@
         <v>-206387.7115357199</v>
       </c>
       <c r="H172" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6586,11 +6854,15 @@
         <v>-197556.9189357199</v>
       </c>
       <c r="H173" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6619,11 +6891,15 @@
         <v>-198587.0521357199</v>
       </c>
       <c r="H174" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6652,11 +6928,15 @@
         <v>-198921.4998357199</v>
       </c>
       <c r="H175" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6685,11 +6965,15 @@
         <v>-216548.7077357199</v>
       </c>
       <c r="H176" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6722,7 +7006,11 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6751,11 +7039,15 @@
         <v>-212582.35313572</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6788,7 +7080,11 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6821,7 +7117,11 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6854,7 +7154,11 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6887,7 +7191,11 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6920,7 +7228,11 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6953,7 +7265,11 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6982,11 +7298,15 @@
         <v>-219858.0949357199</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7015,11 +7335,15 @@
         <v>-218723.9736357199</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7048,11 +7372,15 @@
         <v>-214356.1267142099</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7081,11 +7409,15 @@
         <v>-217081.9865142099</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7114,11 +7446,15 @@
         <v>-217285.75211421</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7147,11 +7483,15 @@
         <v>-220452.20371421</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7180,11 +7520,15 @@
         <v>-219327.4583142099</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7213,11 +7557,15 @@
         <v>-219327.4583142099</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7246,11 +7594,15 @@
         <v>-230564.6443142099</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7279,11 +7631,15 @@
         <v>-230564.6443142099</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7316,7 +7672,11 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7345,11 +7705,15 @@
         <v>-225271.4005142099</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7378,11 +7742,15 @@
         <v>-222557.8145142099</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7411,11 +7779,15 @@
         <v>-213995.6355142099</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7444,11 +7816,15 @@
         <v>-219912.4634142099</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7477,11 +7853,15 @@
         <v>-219128.1359142099</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7514,7 +7894,11 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7547,7 +7931,11 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7576,14 +7964,16 @@
         <v>-207873.3817357199</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L203" t="inlineStr"/>
       <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
@@ -7609,7 +7999,7 @@
         <v>-210291.8914357199</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7642,7 +8032,7 @@
         <v>-214287.8473357199</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7675,7 +8065,7 @@
         <v>-214287.8473357199</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7708,7 +8098,7 @@
         <v>-222962.6987357199</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7741,7 +8131,7 @@
         <v>-221205.9338357199</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7774,7 +8164,7 @@
         <v>-221205.9338357199</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7807,7 +8197,7 @@
         <v>-219151.1433357199</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7840,7 +8230,7 @@
         <v>-221044.1613357199</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7873,7 +8263,7 @@
         <v>-221044.1613357199</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7906,7 +8296,7 @@
         <v>-216229.8965962299</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7939,7 +8329,7 @@
         <v>-216251.8690962299</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7972,7 +8362,7 @@
         <v>-236943.5317962299</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -8005,7 +8395,7 @@
         <v>-236943.5317962299</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -8038,7 +8428,7 @@
         <v>-228051.4939034499</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -8071,7 +8461,7 @@
         <v>-230218.3347034499</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -8104,7 +8494,7 @@
         <v>-228614.9355034499</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -8137,7 +8527,7 @@
         <v>-228467.8043421099</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -8170,7 +8560,7 @@
         <v>-223935.5601273499</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -8203,7 +8593,7 @@
         <v>-225533.1221273499</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -8236,7 +8626,7 @@
         <v>-225586.7982273499</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -8269,7 +8659,7 @@
         <v>-225586.7982273499</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -8302,7 +8692,7 @@
         <v>-225586.7982273499</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -8335,7 +8725,7 @@
         <v>-225586.7982273499</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -8368,7 +8758,7 @@
         <v>-226924.6753273499</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -8401,7 +8791,7 @@
         <v>-226924.6753273499</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -8434,7 +8824,7 @@
         <v>-227798.8429273499</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -8467,7 +8857,7 @@
         <v>-243108.7678273499</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8500,7 +8890,7 @@
         <v>-243108.7678273499</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8533,7 +8923,7 @@
         <v>-243968.0957273499</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8566,7 +8956,7 @@
         <v>-243968.0957273499</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8599,7 +8989,7 @@
         <v>-243899.9103273499</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8632,7 +9022,7 @@
         <v>-243899.9103273499</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8665,7 +9055,7 @@
         <v>-243890.1033273499</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8698,7 +9088,7 @@
         <v>-243890.7456273499</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8731,7 +9121,7 @@
         <v>-244018.7456273499</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8764,7 +9154,7 @@
         <v>-243969.5129273499</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8797,7 +9187,7 @@
         <v>-273775.16882735</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8830,7 +9220,7 @@
         <v>-273775.16882735</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8863,7 +9253,7 @@
         <v>-266641.57922735</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8896,7 +9286,7 @@
         <v>-281730.95952735</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8929,7 +9319,7 @@
         <v>-275966.13922735</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8995,7 +9385,7 @@
         <v>-272579.74862735</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -9028,7 +9418,7 @@
         <v>-272579.74862735</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -9061,7 +9451,7 @@
         <v>-273078.52462735</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -9094,7 +9484,7 @@
         <v>-273078.52462735</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -9127,7 +9517,7 @@
         <v>-273075.52462735</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -9160,7 +9550,7 @@
         <v>-273081.52462735</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -11250,6 +11640,6 @@
       <c r="M314" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-10 BackTest ARN.xlsx
+++ b/BackTest/2019-10-10 BackTest ARN.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>394692.8407</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -517,14 +517,10 @@
         <v>377838.6262</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>266</v>
-      </c>
-      <c r="J4" t="n">
-        <v>266</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
@@ -554,19 +550,11 @@
         <v>659271.5553</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>275</v>
-      </c>
-      <c r="J5" t="n">
-        <v>266</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -595,19 +583,11 @@
         <v>1563318.479</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>276</v>
-      </c>
-      <c r="J6" t="n">
-        <v>266</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -669,7 +649,7 @@
         <v>1563318.479</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -702,7 +682,7 @@
         <v>1563318.479</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -735,7 +715,7 @@
         <v>1563318.479</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -768,17 +748,11 @@
         <v>1144747.749</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>277</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -807,17 +781,11 @@
         <v>1145658.4674</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>276</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -846,17 +814,11 @@
         <v>1141686.4268</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>277</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -885,17 +847,11 @@
         <v>113348.3371</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>276</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -924,17 +880,11 @@
         <v>113348.3371</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>275</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -963,17 +913,11 @@
         <v>113348.3371</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>275</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1002,17 +946,11 @@
         <v>113348.3371</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>275</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1041,17 +979,11 @@
         <v>113348.3371</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>275</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1080,17 +1012,11 @@
         <v>113348.3371</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>275</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1119,17 +1045,11 @@
         <v>113348.3371</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>275</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1158,17 +1078,11 @@
         <v>-1152818.5093</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>275</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1197,17 +1111,11 @@
         <v>-1152818.5093</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>274</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1236,17 +1144,11 @@
         <v>-1152818.5093</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>274</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1275,17 +1177,11 @@
         <v>-1152818.5093</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>274</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1314,17 +1210,11 @@
         <v>-1152818.5093</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>274</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1353,17 +1243,11 @@
         <v>-1152818.5093</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>274</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1396,11 +1280,7 @@
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1433,11 +1313,7 @@
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1470,11 +1346,7 @@
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1507,11 +1379,7 @@
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1544,11 +1412,7 @@
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1581,11 +1445,7 @@
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1618,11 +1478,7 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1655,11 +1511,7 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1692,11 +1544,7 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1729,11 +1577,7 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1766,11 +1610,7 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1803,11 +1643,7 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1840,11 +1676,7 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1877,11 +1709,7 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1914,11 +1742,7 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1951,11 +1775,7 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1988,11 +1808,7 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2025,11 +1841,7 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2062,11 +1874,7 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2099,11 +1907,7 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2136,11 +1940,7 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2173,11 +1973,7 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2210,11 +2006,7 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2247,11 +2039,7 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2284,11 +2072,7 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2321,11 +2105,7 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2358,11 +2138,7 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2395,11 +2171,7 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2432,11 +2204,7 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2469,11 +2237,7 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2506,11 +2270,7 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2543,11 +2303,7 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2580,11 +2336,7 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2617,11 +2369,7 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2654,11 +2402,7 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2691,11 +2435,7 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2728,11 +2468,7 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2765,11 +2501,7 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2802,11 +2534,7 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2839,11 +2567,7 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2876,11 +2600,7 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2913,11 +2633,7 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2950,11 +2666,7 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2987,11 +2699,7 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3024,11 +2732,7 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3061,11 +2765,7 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3098,11 +2798,7 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3135,11 +2831,7 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3172,11 +2864,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3209,11 +2897,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3246,11 +2930,7 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3283,11 +2963,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3320,11 +2996,7 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3357,11 +3029,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3394,11 +3062,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3431,11 +3095,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3468,11 +3128,7 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3505,11 +3161,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3538,13 +3190,15 @@
         <v>-355001.27882837</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>279</v>
+      </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L85" t="n">
@@ -3575,9 +3229,11 @@
         <v>-355001.27882837</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>278</v>
+      </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
@@ -3612,9 +3268,11 @@
         <v>-354081.92482837</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>278</v>
+      </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
@@ -3649,9 +3307,11 @@
         <v>-354081.92482837</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>279</v>
+      </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
@@ -3686,9 +3346,11 @@
         <v>-353904.26670745</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>279</v>
+      </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
@@ -3723,9 +3385,11 @@
         <v>-353964.77930745</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>282</v>
+      </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
@@ -3760,9 +3424,11 @@
         <v>-353964.77930745</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>281</v>
+      </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
@@ -3797,9 +3463,11 @@
         <v>-353964.77930745</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>281</v>
+      </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
@@ -3834,9 +3502,11 @@
         <v>-353964.77930745</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>281</v>
+      </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
@@ -3871,9 +3541,11 @@
         <v>-337234.73997908</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>281</v>
+      </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
@@ -3908,9 +3580,11 @@
         <v>-337234.73997908</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>287</v>
+      </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
@@ -3945,9 +3619,11 @@
         <v>-341297.72147908</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>287</v>
+      </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
@@ -3982,9 +3658,11 @@
         <v>-341331.97877908</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>286</v>
+      </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
@@ -4019,9 +3697,11 @@
         <v>-341331.97877908</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>285</v>
+      </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
@@ -4056,9 +3736,11 @@
         <v>-341331.97877908</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>285</v>
+      </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
@@ -4093,9 +3775,11 @@
         <v>-342131.97877908</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>285</v>
+      </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
@@ -4169,9 +3853,11 @@
         <v>-338851.97877908</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>284</v>
+      </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
@@ -4206,9 +3892,11 @@
         <v>-338851.97877908</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>284</v>
+      </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
@@ -4243,9 +3931,11 @@
         <v>-339811.97877908</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>284</v>
+      </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
@@ -4280,9 +3970,11 @@
         <v>-338371.97877908</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>283</v>
+      </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr">
         <is>
@@ -4317,9 +4009,11 @@
         <v>-339849.07877908</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>284</v>
+      </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
@@ -4354,9 +4048,11 @@
         <v>-339849.07877908</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>283</v>
+      </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
@@ -4391,9 +4087,11 @@
         <v>-339873.4974790799</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>283</v>
+      </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
         <is>
@@ -4467,9 +4165,11 @@
         <v>-336896.8784790799</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>285</v>
+      </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr">
         <is>
@@ -4504,9 +4204,11 @@
         <v>-338122.9139790799</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>287</v>
+      </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr">
         <is>
@@ -4541,9 +4243,11 @@
         <v>-337836.0354790799</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>284</v>
+      </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr">
         <is>
@@ -4578,9 +4282,11 @@
         <v>-341880.23327908</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>285</v>
+      </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr">
         <is>
@@ -4615,9 +4321,11 @@
         <v>-341880.23327908</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>284</v>
+      </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr">
         <is>
@@ -4652,9 +4360,11 @@
         <v>-341880.23327908</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>284</v>
+      </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr">
         <is>
@@ -4689,9 +4399,11 @@
         <v>-341636.23327908</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>284</v>
+      </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr">
         <is>
@@ -4726,9 +4438,11 @@
         <v>-341672.1592790799</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>287</v>
+      </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
@@ -4763,9 +4477,11 @@
         <v>-332553.7395790799</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>284</v>
+      </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr">
         <is>
@@ -4948,18 +4664,16 @@
         <v>-303213.4509790799</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
@@ -4985,15 +4699,11 @@
         <v>-303213.4509790799</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5022,15 +4732,11 @@
         <v>-310038.2657790799</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5059,15 +4765,11 @@
         <v>-308952.6048790799</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5096,15 +4798,11 @@
         <v>-308952.6048790799</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5133,15 +4831,11 @@
         <v>-308952.6048790799</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5170,15 +4864,11 @@
         <v>-308952.6048790799</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5207,15 +4897,11 @@
         <v>-309339.9765790799</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5244,15 +4930,11 @@
         <v>-309313.9765790799</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5281,15 +4963,11 @@
         <v>-309313.9765790799</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5318,15 +4996,11 @@
         <v>-309313.9765790799</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5355,15 +5029,11 @@
         <v>-309313.9765790799</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5392,17 +5062,11 @@
         <v>-308037.8108790799</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="n">
-        <v>293</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5431,17 +5095,11 @@
         <v>-310015.3701790799</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="n">
-        <v>295</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5470,17 +5128,11 @@
         <v>-310015.3701790799</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
-      </c>
-      <c r="I137" t="n">
-        <v>292</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5509,17 +5161,11 @@
         <v>-310015.3701790799</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
-      </c>
-      <c r="I138" t="n">
-        <v>292</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5548,17 +5194,11 @@
         <v>-315909.6824790799</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
-      </c>
-      <c r="I139" t="n">
-        <v>292</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5587,17 +5227,11 @@
         <v>-315909.6824790799</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
-      </c>
-      <c r="I140" t="n">
-        <v>291</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5626,17 +5260,11 @@
         <v>-321612.9448790799</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
-      </c>
-      <c r="I141" t="n">
-        <v>291</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5665,17 +5293,11 @@
         <v>-321047.0962790799</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
-      </c>
-      <c r="I142" t="n">
-        <v>287</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5704,17 +5326,11 @@
         <v>-321372.3294790799</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
-      </c>
-      <c r="I143" t="n">
-        <v>289</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5743,17 +5359,11 @@
         <v>-321372.3294790799</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I144" t="n">
-        <v>287</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5787,12 +5397,10 @@
       <c r="I145" t="n">
         <v>287</v>
       </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="n">
+        <v>287</v>
+      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5826,10 +5434,12 @@
       <c r="I146" t="n">
         <v>288</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>287</v>
+      </c>
       <c r="K146" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L146" t="n">
@@ -5865,10 +5475,12 @@
       <c r="I147" t="n">
         <v>290</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>287</v>
+      </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L147" t="n">
@@ -5899,17 +5511,11 @@
         <v>-319516.8830790799</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
-      </c>
-      <c r="I148" t="n">
-        <v>290</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5943,12 +5549,10 @@
       <c r="I149" t="n">
         <v>289</v>
       </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="n">
+        <v>289</v>
+      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5982,10 +5586,12 @@
       <c r="I150" t="n">
         <v>289</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>289</v>
+      </c>
       <c r="K150" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L150" t="n">
@@ -6016,15 +5622,15 @@
         <v>-319516.8830790799</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
-      </c>
-      <c r="I151" t="n">
+        <v>2</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="n">
         <v>289</v>
       </c>
-      <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L151" t="n">
@@ -6055,17 +5661,11 @@
         <v>-325185.6907790799</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
-      </c>
-      <c r="I152" t="n">
-        <v>289</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6099,12 +5699,10 @@
       <c r="I153" t="n">
         <v>287</v>
       </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="n">
+        <v>287</v>
+      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6138,10 +5736,12 @@
       <c r="I154" t="n">
         <v>287</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>287</v>
+      </c>
       <c r="K154" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L154" t="n">
@@ -6177,10 +5777,12 @@
       <c r="I155" t="n">
         <v>287</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>287</v>
+      </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L155" t="n">
@@ -6216,12 +5818,10 @@
       <c r="I156" t="n">
         <v>287</v>
       </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="n">
+        <v>287</v>
+      </c>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6255,10 +5855,12 @@
       <c r="I157" t="n">
         <v>287</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>287</v>
+      </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L157" t="n">
@@ -6294,10 +5896,12 @@
       <c r="I158" t="n">
         <v>288</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>287</v>
+      </c>
       <c r="K158" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L158" t="n">
@@ -6328,17 +5932,11 @@
         <v>-324836.5205790799</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
-      </c>
-      <c r="I159" t="n">
-        <v>290</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6367,17 +5965,11 @@
         <v>-324835.5205790799</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
-      </c>
-      <c r="I160" t="n">
-        <v>288</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6414,7 +6006,7 @@
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L161" t="n">
@@ -6484,7 +6076,7 @@
         <v>-300281.4519797499</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6521,7 +6113,7 @@
         <v>-244382.9818507699</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6558,7 +6150,7 @@
         <v>-232896.7429507699</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6595,7 +6187,7 @@
         <v>-234936.4476507699</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6632,7 +6224,7 @@
         <v>-231182.9016427099</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6669,7 +6261,7 @@
         <v>-202198.6936930999</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -7964,16 +7556,18 @@
         <v>-207873.3817357199</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L203" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
       <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
@@ -7999,11 +7593,15 @@
         <v>-210291.8914357199</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -8032,11 +7630,15 @@
         <v>-214287.8473357199</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8065,11 +7667,15 @@
         <v>-214287.8473357199</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8098,11 +7704,15 @@
         <v>-222962.6987357199</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8131,11 +7741,15 @@
         <v>-221205.9338357199</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8164,11 +7778,15 @@
         <v>-221205.9338357199</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8197,11 +7815,15 @@
         <v>-219151.1433357199</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8230,11 +7852,15 @@
         <v>-221044.1613357199</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8263,11 +7889,15 @@
         <v>-221044.1613357199</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8296,11 +7926,15 @@
         <v>-216229.8965962299</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8329,11 +7963,15 @@
         <v>-216251.8690962299</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8362,11 +8000,15 @@
         <v>-236943.5317962299</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8395,11 +8037,15 @@
         <v>-236943.5317962299</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8428,11 +8074,15 @@
         <v>-228051.4939034499</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8461,11 +8111,15 @@
         <v>-230218.3347034499</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8494,11 +8148,15 @@
         <v>-228614.9355034499</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8527,11 +8185,15 @@
         <v>-228467.8043421099</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8560,11 +8222,15 @@
         <v>-223935.5601273499</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8593,11 +8259,15 @@
         <v>-225533.1221273499</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8626,11 +8296,15 @@
         <v>-225586.7982273499</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8659,11 +8333,15 @@
         <v>-225586.7982273499</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8692,11 +8370,15 @@
         <v>-225586.7982273499</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8725,11 +8407,15 @@
         <v>-225586.7982273499</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8758,11 +8444,15 @@
         <v>-226924.6753273499</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8791,11 +8481,15 @@
         <v>-226924.6753273499</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8824,11 +8518,15 @@
         <v>-227798.8429273499</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8857,11 +8555,15 @@
         <v>-243108.7678273499</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8890,11 +8592,15 @@
         <v>-243108.7678273499</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8923,11 +8629,15 @@
         <v>-243968.0957273499</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8956,11 +8666,15 @@
         <v>-243968.0957273499</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8989,11 +8703,15 @@
         <v>-243899.9103273499</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9022,11 +8740,15 @@
         <v>-243899.9103273499</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9055,11 +8777,15 @@
         <v>-243890.1033273499</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9088,11 +8814,15 @@
         <v>-243890.7456273499</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9121,11 +8851,15 @@
         <v>-244018.7456273499</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9154,11 +8888,15 @@
         <v>-243969.5129273499</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9187,11 +8925,15 @@
         <v>-273775.16882735</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9220,11 +8962,15 @@
         <v>-273775.16882735</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9253,11 +8999,15 @@
         <v>-266641.57922735</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9286,11 +9036,15 @@
         <v>-281730.95952735</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9319,11 +9073,15 @@
         <v>-275966.13922735</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9356,7 +9114,11 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9385,11 +9147,15 @@
         <v>-272579.74862735</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9418,11 +9184,15 @@
         <v>-272579.74862735</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9451,11 +9221,15 @@
         <v>-273078.52462735</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9484,11 +9258,15 @@
         <v>-273078.52462735</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9517,11 +9295,15 @@
         <v>-273075.52462735</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9550,11 +9332,15 @@
         <v>-273081.52462735</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9587,7 +9373,11 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9620,7 +9410,11 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9653,7 +9447,11 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9686,7 +9484,11 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9719,7 +9521,11 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9752,7 +9558,11 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9785,7 +9595,11 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9818,7 +9632,11 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9851,7 +9669,11 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9884,7 +9706,11 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9917,7 +9743,11 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9950,7 +9780,11 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9983,7 +9817,11 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10016,7 +9854,11 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10049,7 +9891,11 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10082,7 +9928,11 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10115,7 +9965,11 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10148,7 +10002,11 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10181,7 +10039,11 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10214,7 +10076,11 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10247,7 +10113,11 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10276,11 +10146,17 @@
         <v>-276743.5900273499</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I273" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I273" t="n">
+        <v>296</v>
+      </c>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10313,7 +10189,11 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10346,7 +10226,11 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10379,7 +10263,11 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10412,7 +10300,11 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10445,7 +10337,11 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10478,7 +10374,11 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10511,7 +10411,11 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10544,7 +10448,11 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10577,7 +10485,11 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10610,7 +10522,11 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10643,7 +10559,11 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10676,7 +10596,11 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10709,7 +10633,11 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10742,7 +10670,11 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10775,7 +10707,11 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10808,7 +10744,11 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10841,7 +10781,11 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10874,7 +10818,11 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10907,7 +10855,11 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10940,7 +10892,11 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10973,7 +10929,11 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -11006,7 +10966,11 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -11039,7 +11003,11 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -11072,7 +11040,11 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -11105,7 +11077,11 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -11138,7 +11114,11 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11171,7 +11151,11 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11204,7 +11188,11 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11237,7 +11225,11 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11270,7 +11262,11 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11303,7 +11299,11 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11336,7 +11336,11 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11369,7 +11373,11 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11402,7 +11410,11 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11435,7 +11447,11 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11468,7 +11484,11 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11501,7 +11521,11 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11534,7 +11558,11 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11567,7 +11595,11 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11600,7 +11632,11 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11633,13 +11669,17 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
       <c r="M314" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-10 BackTest ARN.xlsx
+++ b/BackTest/2019-10-10 BackTest ARN.xlsx
@@ -649,7 +649,7 @@
         <v>1563318.479</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>1563318.479</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>1563318.479</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>1144747.749</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>1145658.4674</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -3157,10 +3157,14 @@
         <v>-347057.33302837</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>279</v>
+      </c>
+      <c r="J84" t="n">
+        <v>279</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
@@ -3195,7 +3199,9 @@
       <c r="I85" t="n">
         <v>279</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>279</v>
+      </c>
       <c r="K85" t="inlineStr">
         <is>
           <t>매수 체결</t>
@@ -3234,7 +3240,9 @@
       <c r="I86" t="n">
         <v>278</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>279</v>
+      </c>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3273,7 +3281,9 @@
       <c r="I87" t="n">
         <v>278</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>279</v>
+      </c>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3312,7 +3322,9 @@
       <c r="I88" t="n">
         <v>279</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>279</v>
+      </c>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3351,7 +3363,9 @@
       <c r="I89" t="n">
         <v>279</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>279</v>
+      </c>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3390,7 +3404,9 @@
       <c r="I90" t="n">
         <v>282</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>279</v>
+      </c>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3429,7 +3445,9 @@
       <c r="I91" t="n">
         <v>281</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>279</v>
+      </c>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3463,12 +3481,12 @@
         <v>-353964.77930745</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>281</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>279</v>
+      </c>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3507,7 +3525,9 @@
       <c r="I93" t="n">
         <v>281</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>279</v>
+      </c>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3546,7 +3566,9 @@
       <c r="I94" t="n">
         <v>281</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>279</v>
+      </c>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3585,7 +3607,9 @@
       <c r="I95" t="n">
         <v>287</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>279</v>
+      </c>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3624,7 +3648,9 @@
       <c r="I96" t="n">
         <v>287</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>279</v>
+      </c>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3663,7 +3689,9 @@
       <c r="I97" t="n">
         <v>286</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>279</v>
+      </c>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3702,7 +3730,9 @@
       <c r="I98" t="n">
         <v>285</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>279</v>
+      </c>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3741,7 +3771,9 @@
       <c r="I99" t="n">
         <v>285</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>279</v>
+      </c>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3780,7 +3812,9 @@
       <c r="I100" t="n">
         <v>285</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>279</v>
+      </c>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3819,7 +3853,9 @@
       <c r="I101" t="n">
         <v>283</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>279</v>
+      </c>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3858,7 +3894,9 @@
       <c r="I102" t="n">
         <v>284</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>279</v>
+      </c>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3897,7 +3935,9 @@
       <c r="I103" t="n">
         <v>284</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>279</v>
+      </c>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3936,7 +3976,9 @@
       <c r="I104" t="n">
         <v>284</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>279</v>
+      </c>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3975,7 +4017,9 @@
       <c r="I105" t="n">
         <v>283</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>279</v>
+      </c>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4014,7 +4058,9 @@
       <c r="I106" t="n">
         <v>284</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>279</v>
+      </c>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4053,7 +4099,9 @@
       <c r="I107" t="n">
         <v>283</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>279</v>
+      </c>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4092,7 +4140,9 @@
       <c r="I108" t="n">
         <v>283</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>279</v>
+      </c>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4131,7 +4181,9 @@
       <c r="I109" t="n">
         <v>282</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>279</v>
+      </c>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4170,7 +4222,9 @@
       <c r="I110" t="n">
         <v>285</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>279</v>
+      </c>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4209,7 +4263,9 @@
       <c r="I111" t="n">
         <v>287</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>279</v>
+      </c>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4248,7 +4304,9 @@
       <c r="I112" t="n">
         <v>284</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>279</v>
+      </c>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4287,7 +4345,9 @@
       <c r="I113" t="n">
         <v>285</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>279</v>
+      </c>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4326,7 +4386,9 @@
       <c r="I114" t="n">
         <v>284</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>279</v>
+      </c>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4365,7 +4427,9 @@
       <c r="I115" t="n">
         <v>284</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>279</v>
+      </c>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4404,7 +4468,9 @@
       <c r="I116" t="n">
         <v>284</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>279</v>
+      </c>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4443,7 +4509,9 @@
       <c r="I117" t="n">
         <v>287</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>279</v>
+      </c>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4482,7 +4550,9 @@
       <c r="I118" t="n">
         <v>284</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>279</v>
+      </c>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4516,10 +4586,14 @@
         <v>-336387.9629790799</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>289</v>
+      </c>
+      <c r="J119" t="n">
+        <v>279</v>
+      </c>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4553,10 +4627,14 @@
         <v>-335911.9629790799</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>288</v>
+      </c>
+      <c r="J120" t="n">
+        <v>279</v>
+      </c>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4590,10 +4668,14 @@
         <v>-320968.5749790799</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>289</v>
+      </c>
+      <c r="J121" t="n">
+        <v>279</v>
+      </c>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4627,10 +4709,14 @@
         <v>-307418.0047790799</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>293</v>
+      </c>
+      <c r="J122" t="n">
+        <v>279</v>
+      </c>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4664,16 +4750,22 @@
         <v>-303213.4509790799</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>294</v>
+      </c>
+      <c r="J123" t="n">
+        <v>279</v>
+      </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
       <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
@@ -4699,11 +4791,19 @@
         <v>-303213.4509790799</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>296</v>
+      </c>
+      <c r="J124" t="n">
+        <v>279</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4732,11 +4832,19 @@
         <v>-310038.2657790799</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>296</v>
+      </c>
+      <c r="J125" t="n">
+        <v>279</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4765,11 +4873,19 @@
         <v>-308952.6048790799</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>291</v>
+      </c>
+      <c r="J126" t="n">
+        <v>279</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4798,11 +4914,19 @@
         <v>-308952.6048790799</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>295</v>
+      </c>
+      <c r="J127" t="n">
+        <v>279</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4831,11 +4955,19 @@
         <v>-308952.6048790799</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>295</v>
+      </c>
+      <c r="J128" t="n">
+        <v>279</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4864,11 +4996,19 @@
         <v>-308952.6048790799</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>295</v>
+      </c>
+      <c r="J129" t="n">
+        <v>279</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4897,11 +5037,19 @@
         <v>-309339.9765790799</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>295</v>
+      </c>
+      <c r="J130" t="n">
+        <v>279</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4930,11 +5078,19 @@
         <v>-309313.9765790799</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>292</v>
+      </c>
+      <c r="J131" t="n">
+        <v>279</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4963,11 +5119,19 @@
         <v>-309313.9765790799</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>293</v>
+      </c>
+      <c r="J132" t="n">
+        <v>279</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4996,11 +5160,19 @@
         <v>-309313.9765790799</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>293</v>
+      </c>
+      <c r="J133" t="n">
+        <v>279</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5029,11 +5201,19 @@
         <v>-309313.9765790799</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>293</v>
+      </c>
+      <c r="J134" t="n">
+        <v>279</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5062,11 +5242,19 @@
         <v>-308037.8108790799</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>293</v>
+      </c>
+      <c r="J135" t="n">
+        <v>279</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5095,11 +5283,19 @@
         <v>-310015.3701790799</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>295</v>
+      </c>
+      <c r="J136" t="n">
+        <v>279</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5128,11 +5324,19 @@
         <v>-310015.3701790799</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>292</v>
+      </c>
+      <c r="J137" t="n">
+        <v>279</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5161,11 +5365,19 @@
         <v>-310015.3701790799</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>292</v>
+      </c>
+      <c r="J138" t="n">
+        <v>279</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5194,11 +5406,19 @@
         <v>-315909.6824790799</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>292</v>
+      </c>
+      <c r="J139" t="n">
+        <v>279</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5227,11 +5447,19 @@
         <v>-315909.6824790799</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>291</v>
+      </c>
+      <c r="J140" t="n">
+        <v>279</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5260,11 +5488,19 @@
         <v>-321612.9448790799</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>291</v>
+      </c>
+      <c r="J141" t="n">
+        <v>279</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5293,11 +5529,19 @@
         <v>-321047.0962790799</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>287</v>
+      </c>
+      <c r="J142" t="n">
+        <v>279</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5326,11 +5570,19 @@
         <v>-321372.3294790799</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>289</v>
+      </c>
+      <c r="J143" t="n">
+        <v>279</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5359,11 +5611,19 @@
         <v>-321372.3294790799</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>287</v>
+      </c>
+      <c r="J144" t="n">
+        <v>279</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5398,9 +5658,13 @@
         <v>287</v>
       </c>
       <c r="J145" t="n">
-        <v>287</v>
-      </c>
-      <c r="K145" t="inlineStr"/>
+        <v>279</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5435,11 +5699,11 @@
         <v>288</v>
       </c>
       <c r="J146" t="n">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L146" t="n">
@@ -5476,11 +5740,11 @@
         <v>290</v>
       </c>
       <c r="J147" t="n">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L147" t="n">
@@ -5511,11 +5775,19 @@
         <v>-319516.8830790799</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>290</v>
+      </c>
+      <c r="J148" t="n">
+        <v>279</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5550,9 +5822,13 @@
         <v>289</v>
       </c>
       <c r="J149" t="n">
-        <v>289</v>
-      </c>
-      <c r="K149" t="inlineStr"/>
+        <v>279</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5587,11 +5863,11 @@
         <v>289</v>
       </c>
       <c r="J150" t="n">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L150" t="n">
@@ -5622,15 +5898,17 @@
         <v>-319516.8830790799</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>289</v>
+      </c>
       <c r="J151" t="n">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L151" t="n">
@@ -5661,11 +5939,19 @@
         <v>-325185.6907790799</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>289</v>
+      </c>
+      <c r="J152" t="n">
+        <v>279</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5700,9 +5986,13 @@
         <v>287</v>
       </c>
       <c r="J153" t="n">
-        <v>287</v>
-      </c>
-      <c r="K153" t="inlineStr"/>
+        <v>279</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5737,11 +6027,11 @@
         <v>287</v>
       </c>
       <c r="J154" t="n">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L154" t="n">
@@ -5778,11 +6068,11 @@
         <v>287</v>
       </c>
       <c r="J155" t="n">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L155" t="n">
@@ -5819,9 +6109,13 @@
         <v>287</v>
       </c>
       <c r="J156" t="n">
-        <v>287</v>
-      </c>
-      <c r="K156" t="inlineStr"/>
+        <v>279</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5856,11 +6150,11 @@
         <v>287</v>
       </c>
       <c r="J157" t="n">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L157" t="n">
@@ -5897,11 +6191,11 @@
         <v>288</v>
       </c>
       <c r="J158" t="n">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L158" t="n">
@@ -5932,11 +6226,19 @@
         <v>-324836.5205790799</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>290</v>
+      </c>
+      <c r="J159" t="n">
+        <v>279</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5965,11 +6267,19 @@
         <v>-324835.5205790799</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>288</v>
+      </c>
+      <c r="J160" t="n">
+        <v>279</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6003,10 +6313,12 @@
       <c r="I161" t="n">
         <v>290</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>279</v>
+      </c>
       <c r="K161" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L161" t="n">
@@ -6042,7 +6354,9 @@
       <c r="I162" t="n">
         <v>295</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>279</v>
+      </c>
       <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6076,10 +6390,12 @@
         <v>-300281.4519797499</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>279</v>
+      </c>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6113,10 +6429,12 @@
         <v>-244382.9818507699</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>279</v>
+      </c>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6150,10 +6468,12 @@
         <v>-232896.7429507699</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>279</v>
+      </c>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6187,10 +6507,12 @@
         <v>-234936.4476507699</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>279</v>
+      </c>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6224,10 +6546,12 @@
         <v>-231182.9016427099</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>279</v>
+      </c>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6261,10 +6585,12 @@
         <v>-202198.6936930999</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>279</v>
+      </c>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6298,19 +6624,23 @@
         <v>-192439.8885507699</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>279</v>
+      </c>
       <c r="K169" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+        <v>1.13836917562724</v>
+      </c>
+      <c r="M169" t="n">
+        <v>1.067669172932331</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6335,15 +6665,11 @@
         <v>-192439.8885507699</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6372,15 +6698,11 @@
         <v>-206028.7754357199</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6409,15 +6731,11 @@
         <v>-206387.7115357199</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6446,15 +6764,11 @@
         <v>-197556.9189357199</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6483,15 +6797,11 @@
         <v>-198587.0521357199</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6520,15 +6830,11 @@
         <v>-198921.4998357199</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6561,11 +6867,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6598,11 +6900,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6635,11 +6933,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6668,15 +6962,11 @@
         <v>-214410.7665357199</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6709,11 +6999,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6746,11 +7032,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6783,11 +7065,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6820,11 +7098,7 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6857,11 +7131,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6890,15 +7160,11 @@
         <v>-219858.0949357199</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6931,11 +7197,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6968,11 +7230,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7001,15 +7259,11 @@
         <v>-217081.9865142099</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7038,15 +7292,11 @@
         <v>-217285.75211421</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7075,15 +7325,11 @@
         <v>-220452.20371421</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7112,15 +7358,11 @@
         <v>-219327.4583142099</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7153,11 +7395,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7186,15 +7424,11 @@
         <v>-230564.6443142099</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7227,11 +7461,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7264,11 +7494,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7301,11 +7527,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7334,15 +7556,11 @@
         <v>-222557.8145142099</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7371,15 +7589,11 @@
         <v>-213995.6355142099</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7408,15 +7622,11 @@
         <v>-219912.4634142099</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7445,15 +7655,11 @@
         <v>-219128.1359142099</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7482,15 +7688,11 @@
         <v>-219128.1359142099</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7519,15 +7721,11 @@
         <v>-209599.1468357199</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7556,15 +7754,11 @@
         <v>-207873.3817357199</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7593,15 +7787,11 @@
         <v>-210291.8914357199</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7630,15 +7820,11 @@
         <v>-214287.8473357199</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7667,15 +7853,11 @@
         <v>-214287.8473357199</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7704,15 +7886,11 @@
         <v>-222962.6987357199</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7745,11 +7923,7 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7782,11 +7956,7 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7819,11 +7989,7 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7856,11 +8022,7 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7893,11 +8055,7 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7930,11 +8088,7 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7967,11 +8121,7 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8004,11 +8154,7 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8041,11 +8187,7 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8078,11 +8220,7 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8111,15 +8249,11 @@
         <v>-230218.3347034499</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8152,11 +8286,7 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8189,11 +8319,7 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8226,11 +8352,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8259,15 +8381,11 @@
         <v>-225533.1221273499</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8296,15 +8414,11 @@
         <v>-225586.7982273499</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8333,15 +8447,11 @@
         <v>-225586.7982273499</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8370,15 +8480,11 @@
         <v>-225586.7982273499</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8407,15 +8513,11 @@
         <v>-225586.7982273499</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8444,15 +8546,11 @@
         <v>-226924.6753273499</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8485,11 +8583,7 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8522,11 +8616,7 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8559,11 +8649,7 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8596,11 +8682,7 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8633,11 +8715,7 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8670,11 +8748,7 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8707,11 +8781,7 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8744,11 +8814,7 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8781,11 +8847,7 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8818,11 +8880,7 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8855,11 +8913,7 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8892,11 +8946,7 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8929,11 +8979,7 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8966,11 +9012,7 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9003,11 +9045,7 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9040,11 +9078,7 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9077,11 +9111,7 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9114,11 +9144,7 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9151,11 +9177,7 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9188,11 +9210,7 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9225,11 +9243,7 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9262,11 +9276,7 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9299,11 +9309,7 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9336,11 +9342,7 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9373,11 +9375,7 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9410,11 +9408,7 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9447,11 +9441,7 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9484,11 +9474,7 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9521,11 +9507,7 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9558,11 +9540,7 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9595,11 +9573,7 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9632,11 +9606,7 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9669,11 +9639,7 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9706,11 +9672,7 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9743,11 +9705,7 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9780,11 +9738,7 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9817,11 +9771,7 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9854,11 +9804,7 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9891,11 +9837,7 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9928,11 +9870,7 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9965,11 +9903,7 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10002,11 +9936,7 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10039,11 +9969,7 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10076,11 +10002,7 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10113,11 +10035,7 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10146,17 +10064,11 @@
         <v>-276743.5900273499</v>
       </c>
       <c r="H273" t="n">
-        <v>1</v>
-      </c>
-      <c r="I273" t="n">
-        <v>296</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10189,11 +10101,7 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10226,11 +10134,7 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10263,11 +10167,7 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10300,11 +10200,7 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10337,11 +10233,7 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10374,11 +10266,7 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10411,11 +10299,7 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10448,11 +10332,7 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10485,11 +10365,7 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10522,11 +10398,7 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10559,11 +10431,7 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10596,11 +10464,7 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10633,11 +10497,7 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10670,11 +10530,7 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10707,11 +10563,7 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10744,11 +10596,7 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10781,11 +10629,7 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10818,11 +10662,7 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10855,11 +10695,7 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10892,11 +10728,7 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10929,11 +10761,7 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10966,11 +10794,7 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -11003,11 +10827,7 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -11040,11 +10860,7 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -11077,11 +10893,7 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -11114,11 +10926,7 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11151,11 +10959,7 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11188,11 +10992,7 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11225,11 +11025,7 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11262,11 +11058,7 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11299,11 +11091,7 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11336,11 +11124,7 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11373,11 +11157,7 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11410,11 +11190,7 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11447,11 +11223,7 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11484,11 +11256,7 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11521,11 +11289,7 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11558,11 +11322,7 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11595,11 +11355,7 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11632,11 +11388,7 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11669,11 +11421,7 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-10-10 BackTest ARN.xlsx
+++ b/BackTest/2019-10-10 BackTest ARN.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M314"/>
+  <dimension ref="A1:L314"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>425.9892</v>
       </c>
       <c r="G2" t="n">
-        <v>394692.8407</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>23440.7248</v>
       </c>
       <c r="G3" t="n">
-        <v>371252.1159</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>6586.5103</v>
       </c>
       <c r="G4" t="n">
-        <v>377838.6262</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>281432.9291</v>
       </c>
       <c r="G5" t="n">
-        <v>659271.5553</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>904046.9237</v>
       </c>
       <c r="G6" t="n">
-        <v>1563318.479</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>1781934.8527</v>
       </c>
       <c r="G7" t="n">
-        <v>1563318.479</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>1729261.1857</v>
       </c>
       <c r="G8" t="n">
-        <v>1563318.479</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>1775403.9616</v>
       </c>
       <c r="G9" t="n">
-        <v>1563318.479</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>1757618.0907</v>
       </c>
       <c r="G10" t="n">
-        <v>1563318.479</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>418570.73</v>
       </c>
       <c r="G11" t="n">
-        <v>1144747.749</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>910.7184</v>
       </c>
       <c r="G12" t="n">
-        <v>1145658.4674</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>3972.0406</v>
       </c>
       <c r="G13" t="n">
-        <v>1141686.4268</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>1028338.0897</v>
       </c>
       <c r="G14" t="n">
-        <v>113348.3371</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,19 @@
         <v>1542000</v>
       </c>
       <c r="G15" t="n">
-        <v>113348.3371</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
+        <v>275</v>
+      </c>
+      <c r="I15" t="n">
+        <v>275</v>
+      </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +867,21 @@
         <v>1522848.7424</v>
       </c>
       <c r="G16" t="n">
-        <v>113348.3371</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="n">
+        <v>275</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +903,21 @@
         <v>1501151.2576</v>
       </c>
       <c r="G17" t="n">
-        <v>113348.3371</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="n">
+        <v>275</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +939,15 @@
         <v>1542000</v>
       </c>
       <c r="G18" t="n">
-        <v>113348.3371</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +969,15 @@
         <v>1518000</v>
       </c>
       <c r="G19" t="n">
-        <v>113348.3371</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +999,15 @@
         <v>1326068.1854</v>
       </c>
       <c r="G20" t="n">
-        <v>113348.3371</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1029,15 @@
         <v>1266166.8464</v>
       </c>
       <c r="G21" t="n">
-        <v>-1152818.5093</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1059,19 @@
         <v>1524000</v>
       </c>
       <c r="G22" t="n">
-        <v>-1152818.5093</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
+        <v>274</v>
+      </c>
+      <c r="I22" t="n">
+        <v>274</v>
+      </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1093,23 @@
         <v>1524000</v>
       </c>
       <c r="G23" t="n">
-        <v>-1152818.5093</v>
+        <v>1</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+        <v>274</v>
+      </c>
+      <c r="I23" t="n">
+        <v>274</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1131,21 @@
         <v>1506000</v>
       </c>
       <c r="G24" t="n">
-        <v>-1152818.5093</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="n">
+        <v>274</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1167,21 @@
         <v>1500000</v>
       </c>
       <c r="G25" t="n">
-        <v>-1152818.5093</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="n">
+        <v>274</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1203,21 @@
         <v>1506000</v>
       </c>
       <c r="G26" t="n">
-        <v>-1152818.5093</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="n">
+        <v>274</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1239,21 @@
         <v>1488000</v>
       </c>
       <c r="G27" t="n">
-        <v>-1152818.5093</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="n">
+        <v>274</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1275,21 @@
         <v>1494000</v>
       </c>
       <c r="G28" t="n">
-        <v>-1152818.5093</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="n">
+        <v>274</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1311,23 @@
         <v>1506000</v>
       </c>
       <c r="G29" t="n">
-        <v>-1152818.5093</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+        <v>274</v>
+      </c>
+      <c r="I29" t="n">
+        <v>274</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1349,23 @@
         <v>1470000</v>
       </c>
       <c r="G30" t="n">
-        <v>-1152818.5093</v>
+        <v>1</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+        <v>274</v>
+      </c>
+      <c r="I30" t="n">
+        <v>274</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1387,23 @@
         <v>1500000</v>
       </c>
       <c r="G31" t="n">
-        <v>-1152818.5093</v>
+        <v>1</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+        <v>274</v>
+      </c>
+      <c r="I31" t="n">
+        <v>274</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1425,23 @@
         <v>1404000</v>
       </c>
       <c r="G32" t="n">
-        <v>-1152818.5093</v>
+        <v>1</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+        <v>274</v>
+      </c>
+      <c r="I32" t="n">
+        <v>274</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1463,23 @@
         <v>10</v>
       </c>
       <c r="G33" t="n">
-        <v>-1152808.5093</v>
+        <v>1</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+        <v>274</v>
+      </c>
+      <c r="I33" t="n">
+        <v>274</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1501,23 @@
         <v>9835.6353</v>
       </c>
       <c r="G34" t="n">
-        <v>-1152808.5093</v>
+        <v>1</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+        <v>275</v>
+      </c>
+      <c r="I34" t="n">
+        <v>274</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1539,23 @@
         <v>422500</v>
       </c>
       <c r="G35" t="n">
-        <v>-1152808.5093</v>
+        <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+        <v>275</v>
+      </c>
+      <c r="I35" t="n">
+        <v>274</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1577,23 @@
         <v>1586000</v>
       </c>
       <c r="G36" t="n">
-        <v>-1152808.5093</v>
+        <v>1</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+        <v>275</v>
+      </c>
+      <c r="I36" t="n">
+        <v>274</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1615,23 @@
         <v>786000</v>
       </c>
       <c r="G37" t="n">
-        <v>-1152808.5093</v>
+        <v>1</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+        <v>275</v>
+      </c>
+      <c r="I37" t="n">
+        <v>274</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1653,23 @@
         <v>1512000</v>
       </c>
       <c r="G38" t="n">
-        <v>-1152808.5093</v>
+        <v>1</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+        <v>275</v>
+      </c>
+      <c r="I38" t="n">
+        <v>274</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1691,23 @@
         <v>1530000</v>
       </c>
       <c r="G39" t="n">
-        <v>-1152808.5093</v>
+        <v>1</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+        <v>275</v>
+      </c>
+      <c r="I39" t="n">
+        <v>274</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1729,23 @@
         <v>1522274.8737</v>
       </c>
       <c r="G40" t="n">
-        <v>-1152808.5093</v>
+        <v>1</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+        <v>275</v>
+      </c>
+      <c r="I40" t="n">
+        <v>274</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1767,23 @@
         <v>1255725.1263</v>
       </c>
       <c r="G41" t="n">
-        <v>-1152808.5093</v>
+        <v>1</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+        <v>275</v>
+      </c>
+      <c r="I41" t="n">
+        <v>274</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1805,23 @@
         <v>396000</v>
       </c>
       <c r="G42" t="n">
-        <v>-756808.5093</v>
+        <v>1</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+        <v>275</v>
+      </c>
+      <c r="I42" t="n">
+        <v>274</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1843,23 @@
         <v>144054.1826</v>
       </c>
       <c r="G43" t="n">
-        <v>-756808.5093</v>
+        <v>1</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+        <v>276</v>
+      </c>
+      <c r="I43" t="n">
+        <v>274</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1881,23 @@
         <v>248780</v>
       </c>
       <c r="G44" t="n">
-        <v>-508028.5093</v>
+        <v>1</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+        <v>276</v>
+      </c>
+      <c r="I44" t="n">
+        <v>274</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1919,23 @@
         <v>902716</v>
       </c>
       <c r="G45" t="n">
-        <v>-508028.5093</v>
+        <v>1</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+        <v>277</v>
+      </c>
+      <c r="I45" t="n">
+        <v>274</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1957,23 @@
         <v>685922</v>
       </c>
       <c r="G46" t="n">
-        <v>-508028.5093</v>
+        <v>1</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+        <v>277</v>
+      </c>
+      <c r="I46" t="n">
+        <v>274</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1995,23 @@
         <v>161891.8397</v>
       </c>
       <c r="G47" t="n">
-        <v>-346136.6696</v>
+        <v>1</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+        <v>277</v>
+      </c>
+      <c r="I47" t="n">
+        <v>274</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +2033,23 @@
         <v>66512.1826</v>
       </c>
       <c r="G48" t="n">
-        <v>-346136.6696</v>
+        <v>1</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+        <v>278</v>
+      </c>
+      <c r="I48" t="n">
+        <v>274</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +2071,23 @@
         <v>61.4344</v>
       </c>
       <c r="G49" t="n">
-        <v>-346075.2352</v>
+        <v>1</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+        <v>278</v>
+      </c>
+      <c r="I49" t="n">
+        <v>274</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +2109,23 @@
         <v>5000</v>
       </c>
       <c r="G50" t="n">
-        <v>-346075.2352</v>
+        <v>1</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+        <v>280</v>
+      </c>
+      <c r="I50" t="n">
+        <v>274</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +2147,21 @@
         <v>4000</v>
       </c>
       <c r="G51" t="n">
-        <v>-346075.2352</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="n">
+        <v>274</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +2183,21 @@
         <v>886.567</v>
       </c>
       <c r="G52" t="n">
-        <v>-345188.6682</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="n">
+        <v>274</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +2219,21 @@
         <v>76.13590000000001</v>
       </c>
       <c r="G53" t="n">
-        <v>-345188.6682</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="n">
+        <v>274</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2255,21 @@
         <v>37.2971</v>
       </c>
       <c r="G54" t="n">
-        <v>-345188.6682</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="n">
+        <v>274</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2291,21 @@
         <v>1000</v>
       </c>
       <c r="G55" t="n">
-        <v>-346188.6682</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="n">
+        <v>274</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2327,21 @@
         <v>10632.3907</v>
       </c>
       <c r="G56" t="n">
-        <v>-346188.6682</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="n">
+        <v>274</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2363,23 @@
         <v>1720.8134</v>
       </c>
       <c r="G57" t="n">
-        <v>-346188.6682</v>
+        <v>1</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+        <v>280</v>
+      </c>
+      <c r="I57" t="n">
+        <v>274</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2401,23 @@
         <v>13277.3972</v>
       </c>
       <c r="G58" t="n">
-        <v>-346188.6682</v>
+        <v>1</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+        <v>280</v>
+      </c>
+      <c r="I58" t="n">
+        <v>274</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2439,23 @@
         <v>2257.5777</v>
       </c>
       <c r="G59" t="n">
-        <v>-343931.0905</v>
+        <v>1</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+        <v>280</v>
+      </c>
+      <c r="I59" t="n">
+        <v>274</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2477,23 @@
         <v>428.6393</v>
       </c>
       <c r="G60" t="n">
-        <v>-343931.0905</v>
+        <v>1</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+        <v>281</v>
+      </c>
+      <c r="I60" t="n">
+        <v>274</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2515,23 @@
         <v>1.773</v>
       </c>
       <c r="G61" t="n">
-        <v>-343931.0905</v>
+        <v>1</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+        <v>281</v>
+      </c>
+      <c r="I61" t="n">
+        <v>274</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2553,23 @@
         <v>1</v>
       </c>
       <c r="G62" t="n">
-        <v>-343930.0905</v>
+        <v>1</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+        <v>281</v>
+      </c>
+      <c r="I62" t="n">
+        <v>274</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2591,23 @@
         <v>965</v>
       </c>
       <c r="G63" t="n">
-        <v>-344895.0905</v>
+        <v>1</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+        <v>282</v>
+      </c>
+      <c r="I63" t="n">
+        <v>274</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2629,23 @@
         <v>484.4185</v>
       </c>
       <c r="G64" t="n">
-        <v>-344895.0905</v>
+        <v>1</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+        <v>281</v>
+      </c>
+      <c r="I64" t="n">
+        <v>274</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2667,23 @@
         <v>724</v>
       </c>
       <c r="G65" t="n">
-        <v>-345619.0905</v>
+        <v>1</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+        <v>281</v>
+      </c>
+      <c r="I65" t="n">
+        <v>274</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2705,23 @@
         <v>1</v>
       </c>
       <c r="G66" t="n">
-        <v>-345618.0905</v>
+        <v>1</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+        <v>280</v>
+      </c>
+      <c r="I66" t="n">
+        <v>274</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2743,23 @@
         <v>66.4376</v>
       </c>
       <c r="G67" t="n">
-        <v>-345618.0905</v>
+        <v>1</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+        <v>282</v>
+      </c>
+      <c r="I67" t="n">
+        <v>274</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2781,23 @@
         <v>144.6583</v>
       </c>
       <c r="G68" t="n">
-        <v>-345762.7488</v>
+        <v>1</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+        <v>282</v>
+      </c>
+      <c r="I68" t="n">
+        <v>274</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2819,21 @@
         <v>1236.1843</v>
       </c>
       <c r="G69" t="n">
-        <v>-345762.7488</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="n">
+        <v>274</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2855,21 @@
         <v>791.8439716300001</v>
       </c>
       <c r="G70" t="n">
-        <v>-344970.90482837</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="n">
+        <v>274</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2891,21 @@
         <v>2000</v>
       </c>
       <c r="G71" t="n">
-        <v>-346970.90482837</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="n">
+        <v>274</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2927,21 @@
         <v>126</v>
       </c>
       <c r="G72" t="n">
-        <v>-346844.90482837</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="n">
+        <v>274</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2963,21 @@
         <v>810</v>
       </c>
       <c r="G73" t="n">
-        <v>-346034.90482837</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="n">
+        <v>274</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2999,21 @@
         <v>62.0609</v>
       </c>
       <c r="G74" t="n">
-        <v>-346096.96572837</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="n">
+        <v>274</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +3035,21 @@
         <v>820.1431</v>
       </c>
       <c r="G75" t="n">
-        <v>-346917.10882837</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="n">
+        <v>274</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +3071,21 @@
         <v>123.9863</v>
       </c>
       <c r="G76" t="n">
-        <v>-346917.10882837</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="n">
+        <v>274</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +3107,21 @@
         <v>57.7895</v>
       </c>
       <c r="G77" t="n">
-        <v>-346917.10882837</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="n">
+        <v>274</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +3143,21 @@
         <v>930</v>
       </c>
       <c r="G78" t="n">
-        <v>-345987.10882837</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="n">
+        <v>274</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +3179,21 @@
         <v>490.8871</v>
       </c>
       <c r="G79" t="n">
-        <v>-346477.99592837</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="n">
+        <v>274</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +3215,21 @@
         <v>223</v>
       </c>
       <c r="G80" t="n">
-        <v>-346477.99592837</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="n">
+        <v>274</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +3251,21 @@
         <v>811.6559999999999</v>
       </c>
       <c r="G81" t="n">
-        <v>-347289.65192837</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="n">
+        <v>274</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +3287,21 @@
         <v>1015.4975</v>
       </c>
       <c r="G82" t="n">
-        <v>-347289.65192837</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="n">
+        <v>274</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +3323,21 @@
         <v>232.3189</v>
       </c>
       <c r="G83" t="n">
-        <v>-347057.33302837</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="n">
+        <v>274</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,22 +3359,21 @@
         <v>946.2059</v>
       </c>
       <c r="G84" t="n">
-        <v>-347057.33302837</v>
-      </c>
-      <c r="H84" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="n">
-        <v>279</v>
-      </c>
-      <c r="J84" t="n">
-        <v>279</v>
-      </c>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+        <v>274</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3191,26 +3395,21 @@
         <v>7943.9458</v>
       </c>
       <c r="G85" t="n">
-        <v>-355001.27882837</v>
-      </c>
-      <c r="H85" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="n">
-        <v>279</v>
-      </c>
-      <c r="J85" t="n">
-        <v>279</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+        <v>274</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3232,26 +3431,21 @@
         <v>1675.9903</v>
       </c>
       <c r="G86" t="n">
-        <v>-355001.27882837</v>
-      </c>
-      <c r="H86" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="n">
-        <v>278</v>
-      </c>
-      <c r="J86" t="n">
-        <v>279</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+        <v>274</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3273,26 +3467,21 @@
         <v>919.354</v>
       </c>
       <c r="G87" t="n">
-        <v>-354081.92482837</v>
-      </c>
-      <c r="H87" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="n">
-        <v>278</v>
-      </c>
-      <c r="J87" t="n">
-        <v>279</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+        <v>274</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3314,26 +3503,21 @@
         <v>2835.5603</v>
       </c>
       <c r="G88" t="n">
-        <v>-354081.92482837</v>
-      </c>
-      <c r="H88" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="n">
-        <v>279</v>
-      </c>
-      <c r="J88" t="n">
-        <v>279</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+        <v>274</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3355,26 +3539,21 @@
         <v>177.65812092</v>
       </c>
       <c r="G89" t="n">
-        <v>-353904.26670745</v>
-      </c>
-      <c r="H89" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="n">
-        <v>279</v>
-      </c>
-      <c r="J89" t="n">
-        <v>279</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+        <v>274</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3396,26 +3575,21 @@
         <v>60.5126</v>
       </c>
       <c r="G90" t="n">
-        <v>-353964.77930745</v>
-      </c>
-      <c r="H90" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="n">
-        <v>282</v>
-      </c>
-      <c r="J90" t="n">
-        <v>279</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+        <v>274</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3437,26 +3611,21 @@
         <v>1816.9445</v>
       </c>
       <c r="G91" t="n">
-        <v>-353964.77930745</v>
-      </c>
-      <c r="H91" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="n">
-        <v>281</v>
-      </c>
-      <c r="J91" t="n">
-        <v>279</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+        <v>274</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3478,24 +3647,21 @@
         <v>1877.4572</v>
       </c>
       <c r="G92" t="n">
-        <v>-353964.77930745</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>279</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="n">
+        <v>274</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3517,26 +3683,21 @@
         <v>869.1041</v>
       </c>
       <c r="G93" t="n">
-        <v>-353964.77930745</v>
-      </c>
-      <c r="H93" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="n">
-        <v>281</v>
-      </c>
-      <c r="J93" t="n">
-        <v>279</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+        <v>274</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3558,26 +3719,21 @@
         <v>16730.03932837</v>
       </c>
       <c r="G94" t="n">
-        <v>-337234.73997908</v>
-      </c>
-      <c r="H94" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="n">
-        <v>281</v>
-      </c>
-      <c r="J94" t="n">
-        <v>279</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+        <v>274</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3599,26 +3755,21 @@
         <v>982.2822</v>
       </c>
       <c r="G95" t="n">
-        <v>-337234.73997908</v>
-      </c>
-      <c r="H95" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="n">
-        <v>287</v>
-      </c>
-      <c r="J95" t="n">
-        <v>279</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+        <v>274</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3640,26 +3791,21 @@
         <v>4062.9815</v>
       </c>
       <c r="G96" t="n">
-        <v>-341297.72147908</v>
-      </c>
-      <c r="H96" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="n">
-        <v>287</v>
-      </c>
-      <c r="J96" t="n">
-        <v>279</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+        <v>274</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3681,26 +3827,21 @@
         <v>34.2573</v>
       </c>
       <c r="G97" t="n">
-        <v>-341331.97877908</v>
-      </c>
-      <c r="H97" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="n">
-        <v>286</v>
-      </c>
-      <c r="J97" t="n">
-        <v>279</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+        <v>274</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3722,26 +3863,21 @@
         <v>54.081</v>
       </c>
       <c r="G98" t="n">
-        <v>-341331.97877908</v>
-      </c>
-      <c r="H98" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="n">
-        <v>285</v>
-      </c>
-      <c r="J98" t="n">
-        <v>279</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+        <v>274</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3763,26 +3899,21 @@
         <v>28.394</v>
       </c>
       <c r="G99" t="n">
-        <v>-341331.97877908</v>
-      </c>
-      <c r="H99" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="n">
-        <v>285</v>
-      </c>
-      <c r="J99" t="n">
-        <v>279</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+        <v>274</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3804,26 +3935,21 @@
         <v>800</v>
       </c>
       <c r="G100" t="n">
-        <v>-342131.97877908</v>
-      </c>
-      <c r="H100" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="n">
-        <v>285</v>
-      </c>
-      <c r="J100" t="n">
-        <v>279</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+        <v>274</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3845,26 +3971,21 @@
         <v>3280</v>
       </c>
       <c r="G101" t="n">
-        <v>-338851.97877908</v>
-      </c>
-      <c r="H101" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="n">
-        <v>283</v>
-      </c>
-      <c r="J101" t="n">
-        <v>279</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+        <v>274</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3886,26 +4007,21 @@
         <v>2043</v>
       </c>
       <c r="G102" t="n">
-        <v>-338851.97877908</v>
-      </c>
-      <c r="H102" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="n">
-        <v>284</v>
-      </c>
-      <c r="J102" t="n">
-        <v>279</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+        <v>274</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3927,26 +4043,21 @@
         <v>1455.0708</v>
       </c>
       <c r="G103" t="n">
-        <v>-338851.97877908</v>
-      </c>
-      <c r="H103" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="n">
-        <v>284</v>
-      </c>
-      <c r="J103" t="n">
-        <v>279</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+        <v>274</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3968,26 +4079,21 @@
         <v>960</v>
       </c>
       <c r="G104" t="n">
-        <v>-339811.97877908</v>
-      </c>
-      <c r="H104" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="n">
-        <v>284</v>
-      </c>
-      <c r="J104" t="n">
-        <v>279</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+        <v>274</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4009,26 +4115,21 @@
         <v>1440</v>
       </c>
       <c r="G105" t="n">
-        <v>-338371.97877908</v>
-      </c>
-      <c r="H105" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="n">
-        <v>283</v>
-      </c>
-      <c r="J105" t="n">
-        <v>279</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+        <v>274</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4050,26 +4151,21 @@
         <v>1477.1</v>
       </c>
       <c r="G106" t="n">
-        <v>-339849.07877908</v>
-      </c>
-      <c r="H106" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="n">
-        <v>284</v>
-      </c>
-      <c r="J106" t="n">
-        <v>279</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+        <v>274</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4091,26 +4187,21 @@
         <v>1440</v>
       </c>
       <c r="G107" t="n">
-        <v>-339849.07877908</v>
-      </c>
-      <c r="H107" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="n">
-        <v>283</v>
-      </c>
-      <c r="J107" t="n">
-        <v>279</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+        <v>274</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4132,26 +4223,21 @@
         <v>24.4187</v>
       </c>
       <c r="G108" t="n">
-        <v>-339873.4974790799</v>
-      </c>
-      <c r="H108" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="n">
-        <v>283</v>
-      </c>
-      <c r="J108" t="n">
-        <v>279</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+        <v>274</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4173,26 +4259,21 @@
         <v>22.898</v>
       </c>
       <c r="G109" t="n">
-        <v>-339850.5994790799</v>
-      </c>
-      <c r="H109" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="n">
-        <v>282</v>
-      </c>
-      <c r="J109" t="n">
-        <v>279</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+        <v>274</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4214,26 +4295,21 @@
         <v>2953.721</v>
       </c>
       <c r="G110" t="n">
-        <v>-336896.8784790799</v>
-      </c>
-      <c r="H110" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="n">
-        <v>285</v>
-      </c>
-      <c r="J110" t="n">
-        <v>279</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+        <v>274</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4255,26 +4331,21 @@
         <v>1226.0355</v>
       </c>
       <c r="G111" t="n">
-        <v>-338122.9139790799</v>
-      </c>
-      <c r="H111" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="n">
-        <v>287</v>
-      </c>
-      <c r="J111" t="n">
-        <v>279</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+        <v>274</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4296,26 +4367,21 @@
         <v>286.8785</v>
       </c>
       <c r="G112" t="n">
-        <v>-337836.0354790799</v>
-      </c>
-      <c r="H112" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="n">
-        <v>284</v>
-      </c>
-      <c r="J112" t="n">
-        <v>279</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+        <v>274</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4337,26 +4403,21 @@
         <v>4044.1978</v>
       </c>
       <c r="G113" t="n">
-        <v>-341880.23327908</v>
-      </c>
-      <c r="H113" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="n">
-        <v>285</v>
-      </c>
-      <c r="J113" t="n">
-        <v>279</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+        <v>274</v>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4378,26 +4439,21 @@
         <v>6074.2711</v>
       </c>
       <c r="G114" t="n">
-        <v>-341880.23327908</v>
-      </c>
-      <c r="H114" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="n">
-        <v>284</v>
-      </c>
-      <c r="J114" t="n">
-        <v>279</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+        <v>274</v>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4419,26 +4475,21 @@
         <v>5473.2059</v>
       </c>
       <c r="G115" t="n">
-        <v>-341880.23327908</v>
-      </c>
-      <c r="H115" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="n">
-        <v>284</v>
-      </c>
-      <c r="J115" t="n">
-        <v>279</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+        <v>274</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4460,26 +4511,21 @@
         <v>244</v>
       </c>
       <c r="G116" t="n">
-        <v>-341636.23327908</v>
-      </c>
-      <c r="H116" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="n">
-        <v>284</v>
-      </c>
-      <c r="J116" t="n">
-        <v>279</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+        <v>274</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4501,26 +4547,21 @@
         <v>35.926</v>
       </c>
       <c r="G117" t="n">
-        <v>-341672.1592790799</v>
-      </c>
-      <c r="H117" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="n">
-        <v>287</v>
-      </c>
-      <c r="J117" t="n">
-        <v>279</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+        <v>274</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4542,26 +4583,21 @@
         <v>9118.4197</v>
       </c>
       <c r="G118" t="n">
-        <v>-332553.7395790799</v>
-      </c>
-      <c r="H118" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="n">
-        <v>284</v>
-      </c>
-      <c r="J118" t="n">
-        <v>279</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+        <v>274</v>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4583,26 +4619,21 @@
         <v>3834.2234</v>
       </c>
       <c r="G119" t="n">
-        <v>-336387.9629790799</v>
-      </c>
-      <c r="H119" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="n">
-        <v>289</v>
-      </c>
-      <c r="J119" t="n">
-        <v>279</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+        <v>274</v>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4624,26 +4655,21 @@
         <v>476</v>
       </c>
       <c r="G120" t="n">
-        <v>-335911.9629790799</v>
-      </c>
-      <c r="H120" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="n">
-        <v>288</v>
-      </c>
-      <c r="J120" t="n">
-        <v>279</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+        <v>274</v>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4665,26 +4691,21 @@
         <v>14943.388</v>
       </c>
       <c r="G121" t="n">
-        <v>-320968.5749790799</v>
-      </c>
-      <c r="H121" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="n">
-        <v>289</v>
-      </c>
-      <c r="J121" t="n">
-        <v>279</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+        <v>274</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4706,26 +4727,21 @@
         <v>13550.5702</v>
       </c>
       <c r="G122" t="n">
-        <v>-307418.0047790799</v>
-      </c>
-      <c r="H122" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="n">
-        <v>293</v>
-      </c>
-      <c r="J122" t="n">
-        <v>279</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+        <v>274</v>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4747,26 +4763,21 @@
         <v>4204.5538</v>
       </c>
       <c r="G123" t="n">
-        <v>-303213.4509790799</v>
-      </c>
-      <c r="H123" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="n">
-        <v>294</v>
-      </c>
-      <c r="J123" t="n">
-        <v>279</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+        <v>274</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4788,26 +4799,21 @@
         <v>8108.8599</v>
       </c>
       <c r="G124" t="n">
-        <v>-303213.4509790799</v>
-      </c>
-      <c r="H124" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="n">
-        <v>296</v>
-      </c>
-      <c r="J124" t="n">
-        <v>279</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+        <v>274</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4829,26 +4835,21 @@
         <v>6824.8148</v>
       </c>
       <c r="G125" t="n">
-        <v>-310038.2657790799</v>
-      </c>
-      <c r="H125" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="n">
-        <v>296</v>
-      </c>
-      <c r="J125" t="n">
-        <v>279</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+        <v>274</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4870,26 +4871,21 @@
         <v>1085.6609</v>
       </c>
       <c r="G126" t="n">
-        <v>-308952.6048790799</v>
-      </c>
-      <c r="H126" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="n">
-        <v>291</v>
-      </c>
-      <c r="J126" t="n">
-        <v>279</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+        <v>274</v>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4911,26 +4907,21 @@
         <v>623.8187</v>
       </c>
       <c r="G127" t="n">
-        <v>-308952.6048790799</v>
-      </c>
-      <c r="H127" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="n">
-        <v>295</v>
-      </c>
-      <c r="J127" t="n">
-        <v>279</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+        <v>274</v>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4952,26 +4943,21 @@
         <v>12</v>
       </c>
       <c r="G128" t="n">
-        <v>-308952.6048790799</v>
-      </c>
-      <c r="H128" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="n">
-        <v>295</v>
-      </c>
-      <c r="J128" t="n">
-        <v>279</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+        <v>274</v>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4993,26 +4979,21 @@
         <v>377.0728</v>
       </c>
       <c r="G129" t="n">
-        <v>-308952.6048790799</v>
-      </c>
-      <c r="H129" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="n">
-        <v>295</v>
-      </c>
-      <c r="J129" t="n">
-        <v>279</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+        <v>274</v>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5034,26 +5015,21 @@
         <v>387.3717</v>
       </c>
       <c r="G130" t="n">
-        <v>-309339.9765790799</v>
-      </c>
-      <c r="H130" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="n">
-        <v>295</v>
-      </c>
-      <c r="J130" t="n">
-        <v>279</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+        <v>274</v>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5075,26 +5051,21 @@
         <v>26</v>
       </c>
       <c r="G131" t="n">
-        <v>-309313.9765790799</v>
-      </c>
-      <c r="H131" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="n">
-        <v>292</v>
-      </c>
-      <c r="J131" t="n">
-        <v>279</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+        <v>274</v>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5116,26 +5087,21 @@
         <v>197.6714</v>
       </c>
       <c r="G132" t="n">
-        <v>-309313.9765790799</v>
-      </c>
-      <c r="H132" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="n">
-        <v>293</v>
-      </c>
-      <c r="J132" t="n">
-        <v>279</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+        <v>274</v>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5157,26 +5123,21 @@
         <v>342.175</v>
       </c>
       <c r="G133" t="n">
-        <v>-309313.9765790799</v>
-      </c>
-      <c r="H133" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="n">
-        <v>293</v>
-      </c>
-      <c r="J133" t="n">
-        <v>279</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+        <v>274</v>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5198,26 +5159,21 @@
         <v>524.7966</v>
       </c>
       <c r="G134" t="n">
-        <v>-309313.9765790799</v>
-      </c>
-      <c r="H134" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="n">
-        <v>293</v>
-      </c>
-      <c r="J134" t="n">
-        <v>279</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+        <v>274</v>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5239,26 +5195,21 @@
         <v>1276.1657</v>
       </c>
       <c r="G135" t="n">
-        <v>-308037.8108790799</v>
-      </c>
-      <c r="H135" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="n">
-        <v>293</v>
-      </c>
-      <c r="J135" t="n">
-        <v>279</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+        <v>274</v>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5280,26 +5231,21 @@
         <v>1977.5593</v>
       </c>
       <c r="G136" t="n">
-        <v>-310015.3701790799</v>
-      </c>
-      <c r="H136" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="n">
-        <v>295</v>
-      </c>
-      <c r="J136" t="n">
-        <v>279</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+        <v>274</v>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5321,26 +5267,21 @@
         <v>6059.0854</v>
       </c>
       <c r="G137" t="n">
-        <v>-310015.3701790799</v>
-      </c>
-      <c r="H137" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="n">
-        <v>292</v>
-      </c>
-      <c r="J137" t="n">
-        <v>279</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+        <v>274</v>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5362,26 +5303,21 @@
         <v>7585.7944</v>
       </c>
       <c r="G138" t="n">
-        <v>-310015.3701790799</v>
-      </c>
-      <c r="H138" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="n">
-        <v>292</v>
-      </c>
-      <c r="J138" t="n">
-        <v>279</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+        <v>274</v>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5403,26 +5339,21 @@
         <v>5894.3123</v>
       </c>
       <c r="G139" t="n">
-        <v>-315909.6824790799</v>
-      </c>
-      <c r="H139" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="n">
-        <v>292</v>
-      </c>
-      <c r="J139" t="n">
-        <v>279</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+        <v>274</v>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5444,26 +5375,21 @@
         <v>1438.1786103</v>
       </c>
       <c r="G140" t="n">
-        <v>-315909.6824790799</v>
-      </c>
-      <c r="H140" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="n">
-        <v>291</v>
-      </c>
-      <c r="J140" t="n">
-        <v>279</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+        <v>274</v>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5485,26 +5411,21 @@
         <v>5703.2624</v>
       </c>
       <c r="G141" t="n">
-        <v>-321612.9448790799</v>
-      </c>
-      <c r="H141" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="n">
-        <v>291</v>
-      </c>
-      <c r="J141" t="n">
-        <v>279</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+        <v>274</v>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5526,26 +5447,21 @@
         <v>565.8486</v>
       </c>
       <c r="G142" t="n">
-        <v>-321047.0962790799</v>
-      </c>
-      <c r="H142" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="n">
-        <v>287</v>
-      </c>
-      <c r="J142" t="n">
-        <v>279</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+        <v>274</v>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5567,26 +5483,21 @@
         <v>325.2332</v>
       </c>
       <c r="G143" t="n">
-        <v>-321372.3294790799</v>
-      </c>
-      <c r="H143" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="n">
-        <v>289</v>
-      </c>
-      <c r="J143" t="n">
-        <v>279</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+        <v>274</v>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5608,26 +5519,21 @@
         <v>410.1822</v>
       </c>
       <c r="G144" t="n">
-        <v>-321372.3294790799</v>
-      </c>
-      <c r="H144" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="n">
-        <v>287</v>
-      </c>
-      <c r="J144" t="n">
-        <v>279</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+        <v>274</v>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5649,26 +5555,21 @@
         <v>426.335</v>
       </c>
       <c r="G145" t="n">
-        <v>-320945.9944790799</v>
-      </c>
-      <c r="H145" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="n">
-        <v>287</v>
-      </c>
-      <c r="J145" t="n">
-        <v>279</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+        <v>274</v>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5690,26 +5591,21 @@
         <v>1576.5758</v>
       </c>
       <c r="G146" t="n">
-        <v>-319369.4186790799</v>
-      </c>
-      <c r="H146" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="n">
-        <v>288</v>
-      </c>
-      <c r="J146" t="n">
-        <v>279</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+        <v>274</v>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5731,26 +5627,21 @@
         <v>1268.2965</v>
       </c>
       <c r="G147" t="n">
-        <v>-319369.4186790799</v>
-      </c>
-      <c r="H147" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="n">
-        <v>290</v>
-      </c>
-      <c r="J147" t="n">
-        <v>279</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+        <v>274</v>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5772,26 +5663,21 @@
         <v>147.4644</v>
       </c>
       <c r="G148" t="n">
-        <v>-319516.8830790799</v>
-      </c>
-      <c r="H148" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="n">
-        <v>290</v>
-      </c>
-      <c r="J148" t="n">
-        <v>279</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+        <v>274</v>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5813,26 +5699,21 @@
         <v>231.9856</v>
       </c>
       <c r="G149" t="n">
-        <v>-319516.8830790799</v>
-      </c>
-      <c r="H149" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="n">
-        <v>289</v>
-      </c>
-      <c r="J149" t="n">
-        <v>279</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+        <v>274</v>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5854,26 +5735,21 @@
         <v>881.1942</v>
       </c>
       <c r="G150" t="n">
-        <v>-319516.8830790799</v>
-      </c>
-      <c r="H150" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="n">
-        <v>289</v>
-      </c>
-      <c r="J150" t="n">
-        <v>279</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+        <v>274</v>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5895,26 +5771,21 @@
         <v>396.4492</v>
       </c>
       <c r="G151" t="n">
-        <v>-319516.8830790799</v>
-      </c>
-      <c r="H151" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="n">
-        <v>289</v>
-      </c>
-      <c r="J151" t="n">
-        <v>279</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+        <v>274</v>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5936,26 +5807,21 @@
         <v>5668.8077</v>
       </c>
       <c r="G152" t="n">
-        <v>-325185.6907790799</v>
-      </c>
-      <c r="H152" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="n">
-        <v>289</v>
-      </c>
-      <c r="J152" t="n">
-        <v>279</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+        <v>274</v>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5977,26 +5843,21 @@
         <v>278.4886</v>
       </c>
       <c r="G153" t="n">
-        <v>-325185.6907790799</v>
-      </c>
-      <c r="H153" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="n">
-        <v>287</v>
-      </c>
-      <c r="J153" t="n">
-        <v>279</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+        <v>274</v>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6018,26 +5879,21 @@
         <v>26.8397</v>
       </c>
       <c r="G154" t="n">
-        <v>-325185.6907790799</v>
-      </c>
-      <c r="H154" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="n">
-        <v>287</v>
-      </c>
-      <c r="J154" t="n">
-        <v>279</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+        <v>274</v>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6059,26 +5915,21 @@
         <v>638.1707</v>
       </c>
       <c r="G155" t="n">
-        <v>-325185.6907790799</v>
-      </c>
-      <c r="H155" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="n">
-        <v>287</v>
-      </c>
-      <c r="J155" t="n">
-        <v>279</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+        <v>274</v>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6100,26 +5951,21 @@
         <v>17403.8136</v>
       </c>
       <c r="G156" t="n">
-        <v>-325185.6907790799</v>
-      </c>
-      <c r="H156" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="n">
-        <v>287</v>
-      </c>
-      <c r="J156" t="n">
-        <v>279</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+        <v>274</v>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6141,26 +5987,21 @@
         <v>36.2599</v>
       </c>
       <c r="G157" t="n">
-        <v>-325149.4308790799</v>
-      </c>
-      <c r="H157" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="n">
-        <v>287</v>
-      </c>
-      <c r="J157" t="n">
-        <v>279</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+        <v>274</v>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6182,26 +6023,21 @@
         <v>338.9103</v>
       </c>
       <c r="G158" t="n">
-        <v>-324810.5205790799</v>
-      </c>
-      <c r="H158" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="n">
-        <v>288</v>
-      </c>
-      <c r="J158" t="n">
-        <v>279</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+        <v>274</v>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6223,26 +6059,21 @@
         <v>26</v>
       </c>
       <c r="G159" t="n">
-        <v>-324836.5205790799</v>
-      </c>
-      <c r="H159" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="n">
-        <v>290</v>
-      </c>
-      <c r="J159" t="n">
-        <v>279</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+        <v>274</v>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6264,26 +6095,21 @@
         <v>1</v>
       </c>
       <c r="G160" t="n">
-        <v>-324835.5205790799</v>
-      </c>
-      <c r="H160" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="n">
-        <v>288</v>
-      </c>
-      <c r="J160" t="n">
-        <v>279</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+        <v>274</v>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6305,26 +6131,21 @@
         <v>3034.60231152</v>
       </c>
       <c r="G161" t="n">
-        <v>-321800.9182675599</v>
-      </c>
-      <c r="H161" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="n">
-        <v>290</v>
-      </c>
-      <c r="J161" t="n">
-        <v>279</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+        <v>274</v>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6346,26 +6167,21 @@
         <v>3013.48920435</v>
       </c>
       <c r="G162" t="n">
-        <v>-318787.4290632099</v>
-      </c>
-      <c r="H162" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="n">
-        <v>295</v>
-      </c>
-      <c r="J162" t="n">
-        <v>279</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+        <v>274</v>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6387,24 +6203,21 @@
         <v>18505.97708346</v>
       </c>
       <c r="G163" t="n">
-        <v>-300281.4519797499</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>279</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
+      <c r="I163" t="n">
+        <v>274</v>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6426,24 +6239,21 @@
         <v>55898.47012898</v>
       </c>
       <c r="G164" t="n">
-        <v>-244382.9818507699</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>279</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
+      <c r="I164" t="n">
+        <v>274</v>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6465,24 +6275,21 @@
         <v>11486.2389</v>
       </c>
       <c r="G165" t="n">
-        <v>-232896.7429507699</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>279</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
+      <c r="I165" t="n">
+        <v>274</v>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6504,24 +6311,21 @@
         <v>2039.7047</v>
       </c>
       <c r="G166" t="n">
-        <v>-234936.4476507699</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>279</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
+      <c r="I166" t="n">
+        <v>274</v>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6543,24 +6347,21 @@
         <v>3753.54600806</v>
       </c>
       <c r="G167" t="n">
-        <v>-231182.9016427099</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>279</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
+      <c r="I167" t="n">
+        <v>274</v>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6582,24 +6383,21 @@
         <v>28984.20794961</v>
       </c>
       <c r="G168" t="n">
-        <v>-202198.6936930999</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>279</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
+      <c r="I168" t="n">
+        <v>274</v>
+      </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6621,26 +6419,21 @@
         <v>9758.80514233</v>
       </c>
       <c r="G169" t="n">
-        <v>-192439.8885507699</v>
-      </c>
-      <c r="H169" t="n">
-        <v>2</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>279</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L169" t="n">
-        <v>1.13836917562724</v>
-      </c>
-      <c r="M169" t="n">
-        <v>1.067669172932331</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
+      <c r="I169" t="n">
+        <v>274</v>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6662,18 +6455,21 @@
         <v>12047.21317868</v>
       </c>
       <c r="G170" t="n">
-        <v>-192439.8885507699</v>
-      </c>
-      <c r="H170" t="n">
-        <v>2</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
+      <c r="I170" t="n">
+        <v>274</v>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6695,18 +6491,23 @@
         <v>13588.88688495</v>
       </c>
       <c r="G171" t="n">
-        <v>-206028.7754357199</v>
-      </c>
-      <c r="H171" t="n">
         <v>2</v>
       </c>
-      <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="H171" t="inlineStr"/>
+      <c r="I171" t="n">
+        <v>274</v>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K171" t="n">
+        <v>1.15558394160584</v>
+      </c>
       <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+        <v>1.048872180451128</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6728,18 +6529,15 @@
         <v>358.9361</v>
       </c>
       <c r="G172" t="n">
-        <v>-206387.7115357199</v>
-      </c>
-      <c r="H172" t="n">
         <v>2</v>
       </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6761,18 +6559,15 @@
         <v>8830.792600000001</v>
       </c>
       <c r="G173" t="n">
-        <v>-197556.9189357199</v>
-      </c>
-      <c r="H173" t="n">
         <v>2</v>
       </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6794,18 +6589,15 @@
         <v>1030.1332</v>
       </c>
       <c r="G174" t="n">
-        <v>-198587.0521357199</v>
-      </c>
-      <c r="H174" t="n">
         <v>2</v>
       </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6827,18 +6619,15 @@
         <v>334.4477</v>
       </c>
       <c r="G175" t="n">
-        <v>-198921.4998357199</v>
-      </c>
-      <c r="H175" t="n">
         <v>2</v>
       </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6860,18 +6649,15 @@
         <v>17627.2079</v>
       </c>
       <c r="G176" t="n">
-        <v>-216548.7077357199</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6893,18 +6679,15 @@
         <v>3966.3546</v>
       </c>
       <c r="G177" t="n">
-        <v>-212582.35313572</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6926,18 +6709,15 @@
         <v>7699.6774</v>
       </c>
       <c r="G178" t="n">
-        <v>-212582.35313572</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6959,18 +6739,15 @@
         <v>1828.4134</v>
       </c>
       <c r="G179" t="n">
-        <v>-214410.7665357199</v>
-      </c>
-      <c r="H179" t="n">
         <v>2</v>
       </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6992,18 +6769,15 @@
         <v>2390.0935</v>
       </c>
       <c r="G180" t="n">
-        <v>-216800.8600357199</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7025,18 +6799,15 @@
         <v>10.3346</v>
       </c>
       <c r="G181" t="n">
-        <v>-216790.5254357199</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7058,18 +6829,15 @@
         <v>10.8743</v>
       </c>
       <c r="G182" t="n">
-        <v>-216779.6511357199</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7091,18 +6859,15 @@
         <v>1619.33</v>
       </c>
       <c r="G183" t="n">
-        <v>-215160.3211357199</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7124,18 +6889,15 @@
         <v>619.7018</v>
       </c>
       <c r="G184" t="n">
-        <v>-215160.3211357199</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7157,18 +6919,15 @@
         <v>4697.7738</v>
       </c>
       <c r="G185" t="n">
-        <v>-219858.0949357199</v>
-      </c>
-      <c r="H185" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7190,18 +6949,15 @@
         <v>1134.1213</v>
       </c>
       <c r="G186" t="n">
-        <v>-218723.9736357199</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7223,18 +6979,15 @@
         <v>4367.84692151</v>
       </c>
       <c r="G187" t="n">
-        <v>-214356.1267142099</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7256,18 +7009,15 @@
         <v>2725.8598</v>
       </c>
       <c r="G188" t="n">
-        <v>-217081.9865142099</v>
-      </c>
-      <c r="H188" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7289,18 +7039,15 @@
         <v>203.7656</v>
       </c>
       <c r="G189" t="n">
-        <v>-217285.75211421</v>
-      </c>
-      <c r="H189" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7322,18 +7069,15 @@
         <v>3166.4516</v>
       </c>
       <c r="G190" t="n">
-        <v>-220452.20371421</v>
-      </c>
-      <c r="H190" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7355,18 +7099,15 @@
         <v>1124.7454</v>
       </c>
       <c r="G191" t="n">
-        <v>-219327.4583142099</v>
-      </c>
-      <c r="H191" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7388,18 +7129,15 @@
         <v>1705.8998</v>
       </c>
       <c r="G192" t="n">
-        <v>-219327.4583142099</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7421,18 +7159,15 @@
         <v>11237.186</v>
       </c>
       <c r="G193" t="n">
-        <v>-230564.6443142099</v>
-      </c>
-      <c r="H193" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7454,18 +7189,15 @@
         <v>3001.6254</v>
       </c>
       <c r="G194" t="n">
-        <v>-230564.6443142099</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7487,18 +7219,15 @@
         <v>435.17</v>
       </c>
       <c r="G195" t="n">
-        <v>-230129.4743142099</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7520,18 +7249,15 @@
         <v>4858.0738</v>
       </c>
       <c r="G196" t="n">
-        <v>-225271.4005142099</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7553,18 +7279,15 @@
         <v>2713.586</v>
       </c>
       <c r="G197" t="n">
-        <v>-222557.8145142099</v>
-      </c>
-      <c r="H197" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7586,18 +7309,15 @@
         <v>8562.179</v>
       </c>
       <c r="G198" t="n">
-        <v>-213995.6355142099</v>
-      </c>
-      <c r="H198" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7619,18 +7339,15 @@
         <v>5916.8279</v>
       </c>
       <c r="G199" t="n">
-        <v>-219912.4634142099</v>
-      </c>
-      <c r="H199" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7652,18 +7369,15 @@
         <v>784.3275</v>
       </c>
       <c r="G200" t="n">
-        <v>-219128.1359142099</v>
-      </c>
-      <c r="H200" t="n">
         <v>2</v>
       </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7685,18 +7399,15 @@
         <v>418.9612</v>
       </c>
       <c r="G201" t="n">
-        <v>-219128.1359142099</v>
-      </c>
-      <c r="H201" t="n">
         <v>2</v>
       </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7718,18 +7429,15 @@
         <v>9528.98907849</v>
       </c>
       <c r="G202" t="n">
-        <v>-209599.1468357199</v>
-      </c>
-      <c r="H202" t="n">
         <v>2</v>
       </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7751,18 +7459,15 @@
         <v>1725.7651</v>
       </c>
       <c r="G203" t="n">
-        <v>-207873.3817357199</v>
-      </c>
-      <c r="H203" t="n">
         <v>2</v>
       </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7784,18 +7489,15 @@
         <v>2418.5097</v>
       </c>
       <c r="G204" t="n">
-        <v>-210291.8914357199</v>
-      </c>
-      <c r="H204" t="n">
         <v>2</v>
       </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7817,18 +7519,15 @@
         <v>3995.9559</v>
       </c>
       <c r="G205" t="n">
-        <v>-214287.8473357199</v>
-      </c>
-      <c r="H205" t="n">
         <v>2</v>
       </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7850,18 +7549,15 @@
         <v>1259.6626</v>
       </c>
       <c r="G206" t="n">
-        <v>-214287.8473357199</v>
-      </c>
-      <c r="H206" t="n">
         <v>2</v>
       </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7883,18 +7579,15 @@
         <v>8674.8514</v>
       </c>
       <c r="G207" t="n">
-        <v>-222962.6987357199</v>
-      </c>
-      <c r="H207" t="n">
         <v>2</v>
       </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7916,18 +7609,15 @@
         <v>1756.7649</v>
       </c>
       <c r="G208" t="n">
-        <v>-221205.9338357199</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7949,18 +7639,15 @@
         <v>8338.769</v>
       </c>
       <c r="G209" t="n">
-        <v>-221205.9338357199</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7982,18 +7669,15 @@
         <v>2054.7905</v>
       </c>
       <c r="G210" t="n">
-        <v>-219151.1433357199</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8015,18 +7699,15 @@
         <v>1893.018</v>
       </c>
       <c r="G211" t="n">
-        <v>-221044.1613357199</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8048,18 +7729,15 @@
         <v>1431.8346</v>
       </c>
       <c r="G212" t="n">
-        <v>-221044.1613357199</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8081,18 +7759,15 @@
         <v>4814.26473949</v>
       </c>
       <c r="G213" t="n">
-        <v>-216229.8965962299</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8114,18 +7789,15 @@
         <v>21.9725</v>
       </c>
       <c r="G214" t="n">
-        <v>-216251.8690962299</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8147,18 +7819,15 @@
         <v>20691.6627</v>
       </c>
       <c r="G215" t="n">
-        <v>-236943.5317962299</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8180,18 +7849,15 @@
         <v>43</v>
       </c>
       <c r="G216" t="n">
-        <v>-236943.5317962299</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8213,18 +7879,15 @@
         <v>8892.037892779999</v>
       </c>
       <c r="G217" t="n">
-        <v>-228051.4939034499</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8246,18 +7909,15 @@
         <v>2166.8408</v>
       </c>
       <c r="G218" t="n">
-        <v>-230218.3347034499</v>
-      </c>
-      <c r="H218" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8279,18 +7939,15 @@
         <v>1603.3992</v>
       </c>
       <c r="G219" t="n">
-        <v>-228614.9355034499</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8312,18 +7969,15 @@
         <v>147.13116134</v>
       </c>
       <c r="G220" t="n">
-        <v>-228467.8043421099</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8345,18 +7999,15 @@
         <v>4532.24421476</v>
       </c>
       <c r="G221" t="n">
-        <v>-223935.5601273499</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8378,18 +8029,15 @@
         <v>1597.562</v>
       </c>
       <c r="G222" t="n">
-        <v>-225533.1221273499</v>
-      </c>
-      <c r="H222" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8411,18 +8059,15 @@
         <v>53.6761</v>
       </c>
       <c r="G223" t="n">
-        <v>-225586.7982273499</v>
-      </c>
-      <c r="H223" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8444,18 +8089,15 @@
         <v>680.8425</v>
       </c>
       <c r="G224" t="n">
-        <v>-225586.7982273499</v>
-      </c>
-      <c r="H224" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8477,18 +8119,15 @@
         <v>4791.1088</v>
       </c>
       <c r="G225" t="n">
-        <v>-225586.7982273499</v>
-      </c>
-      <c r="H225" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8510,18 +8149,15 @@
         <v>80</v>
       </c>
       <c r="G226" t="n">
-        <v>-225586.7982273499</v>
-      </c>
-      <c r="H226" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8543,18 +8179,15 @@
         <v>1337.8771</v>
       </c>
       <c r="G227" t="n">
-        <v>-226924.6753273499</v>
-      </c>
-      <c r="H227" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8576,18 +8209,15 @@
         <v>612.8881</v>
       </c>
       <c r="G228" t="n">
-        <v>-226924.6753273499</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8609,18 +8239,15 @@
         <v>874.1676</v>
       </c>
       <c r="G229" t="n">
-        <v>-227798.8429273499</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8642,18 +8269,15 @@
         <v>15309.9249</v>
       </c>
       <c r="G230" t="n">
-        <v>-243108.7678273499</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8675,18 +8299,15 @@
         <v>719.4442</v>
       </c>
       <c r="G231" t="n">
-        <v>-243108.7678273499</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8708,18 +8329,15 @@
         <v>859.3279</v>
       </c>
       <c r="G232" t="n">
-        <v>-243968.0957273499</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8741,18 +8359,15 @@
         <v>328.1493</v>
       </c>
       <c r="G233" t="n">
-        <v>-243968.0957273499</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8774,18 +8389,15 @@
         <v>68.1854</v>
       </c>
       <c r="G234" t="n">
-        <v>-243899.9103273499</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8807,18 +8419,15 @@
         <v>53.1723</v>
       </c>
       <c r="G235" t="n">
-        <v>-243899.9103273499</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8840,18 +8449,15 @@
         <v>9.807</v>
       </c>
       <c r="G236" t="n">
-        <v>-243890.1033273499</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8873,18 +8479,15 @@
         <v>0.6423</v>
       </c>
       <c r="G237" t="n">
-        <v>-243890.7456273499</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8906,18 +8509,15 @@
         <v>128</v>
       </c>
       <c r="G238" t="n">
-        <v>-244018.7456273499</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8939,18 +8539,15 @@
         <v>49.2327</v>
       </c>
       <c r="G239" t="n">
-        <v>-243969.5129273499</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -8972,18 +8569,15 @@
         <v>29805.6559</v>
       </c>
       <c r="G240" t="n">
-        <v>-273775.16882735</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9005,18 +8599,15 @@
         <v>4502.0092</v>
       </c>
       <c r="G241" t="n">
-        <v>-273775.16882735</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>1</v>
+      </c>
+      <c r="L241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9038,18 +8629,15 @@
         <v>7133.5896</v>
       </c>
       <c r="G242" t="n">
-        <v>-266641.57922735</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>1</v>
+      </c>
+      <c r="L242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9071,18 +8659,15 @@
         <v>15089.3803</v>
       </c>
       <c r="G243" t="n">
-        <v>-281730.95952735</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>1</v>
+      </c>
+      <c r="L243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9104,18 +8689,15 @@
         <v>5764.8203</v>
       </c>
       <c r="G244" t="n">
-        <v>-275966.13922735</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>1</v>
+      </c>
+      <c r="L244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9137,18 +8719,15 @@
         <v>3386.3906</v>
       </c>
       <c r="G245" t="n">
-        <v>-272579.74862735</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
+      <c r="K245" t="n">
+        <v>1</v>
+      </c>
+      <c r="L245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9170,18 +8749,15 @@
         <v>2721.4426</v>
       </c>
       <c r="G246" t="n">
-        <v>-272579.74862735</v>
-      </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
+      <c r="K246" t="n">
+        <v>1</v>
+      </c>
+      <c r="L246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9203,18 +8779,15 @@
         <v>2068.4329</v>
       </c>
       <c r="G247" t="n">
-        <v>-272579.74862735</v>
-      </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H247" t="inlineStr"/>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>1</v>
+      </c>
+      <c r="L247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -9236,18 +8809,15 @@
         <v>498.776</v>
       </c>
       <c r="G248" t="n">
-        <v>-273078.52462735</v>
-      </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
+      <c r="K248" t="n">
+        <v>1</v>
+      </c>
+      <c r="L248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -9269,18 +8839,15 @@
         <v>2289.9803</v>
       </c>
       <c r="G249" t="n">
-        <v>-273078.52462735</v>
-      </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H249" t="inlineStr"/>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
+      <c r="K249" t="n">
+        <v>1</v>
+      </c>
+      <c r="L249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -9302,18 +8869,15 @@
         <v>3</v>
       </c>
       <c r="G250" t="n">
-        <v>-273075.52462735</v>
-      </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H250" t="inlineStr"/>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
+      <c r="K250" t="n">
+        <v>1</v>
+      </c>
+      <c r="L250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -9335,18 +8899,15 @@
         <v>6</v>
       </c>
       <c r="G251" t="n">
-        <v>-273081.52462735</v>
-      </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
+      <c r="K251" t="n">
+        <v>1</v>
+      </c>
+      <c r="L251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -9368,18 +8929,15 @@
         <v>44</v>
       </c>
       <c r="G252" t="n">
-        <v>-273125.52462735</v>
-      </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
+      <c r="K252" t="n">
+        <v>1</v>
+      </c>
+      <c r="L252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -9401,18 +8959,15 @@
         <v>1</v>
       </c>
       <c r="G253" t="n">
-        <v>-273125.52462735</v>
-      </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H253" t="inlineStr"/>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
+      <c r="K253" t="n">
+        <v>1</v>
+      </c>
+      <c r="L253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -9434,18 +8989,15 @@
         <v>974.0259</v>
       </c>
       <c r="G254" t="n">
-        <v>-272151.49872735</v>
-      </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H254" t="inlineStr"/>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
+      <c r="K254" t="n">
+        <v>1</v>
+      </c>
+      <c r="L254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -9467,18 +9019,15 @@
         <v>5</v>
       </c>
       <c r="G255" t="n">
-        <v>-272156.49872735</v>
-      </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H255" t="inlineStr"/>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
+      <c r="K255" t="n">
+        <v>1</v>
+      </c>
+      <c r="L255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -9500,18 +9049,15 @@
         <v>2083.0476</v>
       </c>
       <c r="G256" t="n">
-        <v>-274239.54632735</v>
-      </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
+      <c r="K256" t="n">
+        <v>1</v>
+      </c>
+      <c r="L256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -9533,18 +9079,15 @@
         <v>2526.848</v>
       </c>
       <c r="G257" t="n">
-        <v>-274239.54632735</v>
-      </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H257" t="inlineStr"/>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
-      <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
+      <c r="K257" t="n">
+        <v>1</v>
+      </c>
+      <c r="L257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -9566,18 +9109,15 @@
         <v>1254.2699</v>
       </c>
       <c r="G258" t="n">
-        <v>-274239.54632735</v>
-      </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H258" t="inlineStr"/>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
-      <c r="L258" t="n">
-        <v>1</v>
-      </c>
-      <c r="M258" t="inlineStr"/>
+      <c r="K258" t="n">
+        <v>1</v>
+      </c>
+      <c r="L258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -9599,18 +9139,15 @@
         <v>493.3835</v>
       </c>
       <c r="G259" t="n">
-        <v>-274732.92982735</v>
-      </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H259" t="inlineStr"/>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
-      <c r="L259" t="n">
-        <v>1</v>
-      </c>
-      <c r="M259" t="inlineStr"/>
+      <c r="K259" t="n">
+        <v>1</v>
+      </c>
+      <c r="L259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -9632,18 +9169,15 @@
         <v>10769.0133</v>
       </c>
       <c r="G260" t="n">
-        <v>-263963.91652735</v>
-      </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H260" t="inlineStr"/>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
-      <c r="L260" t="n">
-        <v>1</v>
-      </c>
-      <c r="M260" t="inlineStr"/>
+      <c r="K260" t="n">
+        <v>1</v>
+      </c>
+      <c r="L260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -9665,18 +9199,15 @@
         <v>11</v>
       </c>
       <c r="G261" t="n">
-        <v>-263974.91652735</v>
-      </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H261" t="inlineStr"/>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
-      <c r="L261" t="n">
-        <v>1</v>
-      </c>
-      <c r="M261" t="inlineStr"/>
+      <c r="K261" t="n">
+        <v>1</v>
+      </c>
+      <c r="L261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -9698,18 +9229,15 @@
         <v>262.6886</v>
       </c>
       <c r="G262" t="n">
-        <v>-263712.22792735</v>
-      </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H262" t="inlineStr"/>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
-      <c r="L262" t="n">
-        <v>1</v>
-      </c>
-      <c r="M262" t="inlineStr"/>
+      <c r="K262" t="n">
+        <v>1</v>
+      </c>
+      <c r="L262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -9731,18 +9259,15 @@
         <v>1078.7326</v>
       </c>
       <c r="G263" t="n">
-        <v>-264790.96052735</v>
-      </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H263" t="inlineStr"/>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
-      <c r="L263" t="n">
-        <v>1</v>
-      </c>
-      <c r="M263" t="inlineStr"/>
+      <c r="K263" t="n">
+        <v>1</v>
+      </c>
+      <c r="L263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -9764,18 +9289,15 @@
         <v>2</v>
       </c>
       <c r="G264" t="n">
-        <v>-264792.96052735</v>
-      </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H264" t="inlineStr"/>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
-      <c r="L264" t="n">
-        <v>1</v>
-      </c>
-      <c r="M264" t="inlineStr"/>
+      <c r="K264" t="n">
+        <v>1</v>
+      </c>
+      <c r="L264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -9797,18 +9319,15 @@
         <v>10</v>
       </c>
       <c r="G265" t="n">
-        <v>-264782.96052735</v>
-      </c>
-      <c r="H265" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H265" t="inlineStr"/>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
-      <c r="L265" t="n">
-        <v>1</v>
-      </c>
-      <c r="M265" t="inlineStr"/>
+      <c r="K265" t="n">
+        <v>1</v>
+      </c>
+      <c r="L265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -9830,18 +9349,15 @@
         <v>1313.2605</v>
       </c>
       <c r="G266" t="n">
-        <v>-263469.70002735</v>
-      </c>
-      <c r="H266" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H266" t="inlineStr"/>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
-      <c r="L266" t="n">
-        <v>1</v>
-      </c>
-      <c r="M266" t="inlineStr"/>
+      <c r="K266" t="n">
+        <v>1</v>
+      </c>
+      <c r="L266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -9863,18 +9379,15 @@
         <v>2900.3157</v>
       </c>
       <c r="G267" t="n">
-        <v>-266370.01572735</v>
-      </c>
-      <c r="H267" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H267" t="inlineStr"/>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
-      <c r="L267" t="n">
-        <v>1</v>
-      </c>
-      <c r="M267" t="inlineStr"/>
+      <c r="K267" t="n">
+        <v>1</v>
+      </c>
+      <c r="L267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -9896,18 +9409,15 @@
         <v>4715.6274</v>
       </c>
       <c r="G268" t="n">
-        <v>-271085.64312735</v>
-      </c>
-      <c r="H268" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H268" t="inlineStr"/>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
-      <c r="L268" t="n">
-        <v>1</v>
-      </c>
-      <c r="M268" t="inlineStr"/>
+      <c r="K268" t="n">
+        <v>1</v>
+      </c>
+      <c r="L268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -9929,18 +9439,15 @@
         <v>14.6355</v>
       </c>
       <c r="G269" t="n">
-        <v>-271085.64312735</v>
-      </c>
-      <c r="H269" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H269" t="inlineStr"/>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
-      <c r="L269" t="n">
-        <v>1</v>
-      </c>
-      <c r="M269" t="inlineStr"/>
+      <c r="K269" t="n">
+        <v>1</v>
+      </c>
+      <c r="L269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -9962,18 +9469,15 @@
         <v>92.4684</v>
       </c>
       <c r="G270" t="n">
-        <v>-270993.1747273499</v>
-      </c>
-      <c r="H270" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H270" t="inlineStr"/>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
-      <c r="L270" t="n">
-        <v>1</v>
-      </c>
-      <c r="M270" t="inlineStr"/>
+      <c r="K270" t="n">
+        <v>1</v>
+      </c>
+      <c r="L270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -9995,18 +9499,15 @@
         <v>1499.6898</v>
       </c>
       <c r="G271" t="n">
-        <v>-272492.8645273499</v>
-      </c>
-      <c r="H271" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H271" t="inlineStr"/>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
-      <c r="L271" t="n">
-        <v>1</v>
-      </c>
-      <c r="M271" t="inlineStr"/>
+      <c r="K271" t="n">
+        <v>1</v>
+      </c>
+      <c r="L271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -10028,18 +9529,15 @@
         <v>7906.9911</v>
       </c>
       <c r="G272" t="n">
-        <v>-280399.8556273499</v>
-      </c>
-      <c r="H272" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H272" t="inlineStr"/>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
-      <c r="L272" t="n">
-        <v>1</v>
-      </c>
-      <c r="M272" t="inlineStr"/>
+      <c r="K272" t="n">
+        <v>1</v>
+      </c>
+      <c r="L272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -10061,18 +9559,15 @@
         <v>3656.2656</v>
       </c>
       <c r="G273" t="n">
-        <v>-276743.5900273499</v>
-      </c>
-      <c r="H273" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H273" t="inlineStr"/>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
-      <c r="L273" t="n">
-        <v>1</v>
-      </c>
-      <c r="M273" t="inlineStr"/>
+      <c r="K273" t="n">
+        <v>1</v>
+      </c>
+      <c r="L273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -10094,18 +9589,15 @@
         <v>6853.6475</v>
       </c>
       <c r="G274" t="n">
-        <v>-276743.5900273499</v>
-      </c>
-      <c r="H274" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H274" t="inlineStr"/>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
-      <c r="L274" t="n">
-        <v>1</v>
-      </c>
-      <c r="M274" t="inlineStr"/>
+      <c r="K274" t="n">
+        <v>1</v>
+      </c>
+      <c r="L274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -10127,18 +9619,15 @@
         <v>147.6429</v>
       </c>
       <c r="G275" t="n">
-        <v>-276743.5900273499</v>
-      </c>
-      <c r="H275" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H275" t="inlineStr"/>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
-      <c r="L275" t="n">
-        <v>1</v>
-      </c>
-      <c r="M275" t="inlineStr"/>
+      <c r="K275" t="n">
+        <v>1</v>
+      </c>
+      <c r="L275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -10160,18 +9649,15 @@
         <v>64.6382</v>
       </c>
       <c r="G276" t="n">
-        <v>-276743.5900273499</v>
-      </c>
-      <c r="H276" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H276" t="inlineStr"/>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
-      <c r="L276" t="n">
-        <v>1</v>
-      </c>
-      <c r="M276" t="inlineStr"/>
+      <c r="K276" t="n">
+        <v>1</v>
+      </c>
+      <c r="L276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -10193,18 +9679,15 @@
         <v>8346.398300000001</v>
       </c>
       <c r="G277" t="n">
-        <v>-268397.1917273499</v>
-      </c>
-      <c r="H277" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H277" t="inlineStr"/>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
-      <c r="L277" t="n">
-        <v>1</v>
-      </c>
-      <c r="M277" t="inlineStr"/>
+      <c r="K277" t="n">
+        <v>1</v>
+      </c>
+      <c r="L277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -10226,18 +9709,15 @@
         <v>20190.3298</v>
       </c>
       <c r="G278" t="n">
-        <v>-288587.5215273499</v>
-      </c>
-      <c r="H278" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H278" t="inlineStr"/>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
-      <c r="L278" t="n">
-        <v>1</v>
-      </c>
-      <c r="M278" t="inlineStr"/>
+      <c r="K278" t="n">
+        <v>1</v>
+      </c>
+      <c r="L278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -10259,18 +9739,15 @@
         <v>71.0032921</v>
       </c>
       <c r="G279" t="n">
-        <v>-288516.51823525</v>
-      </c>
-      <c r="H279" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H279" t="inlineStr"/>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
-      <c r="L279" t="n">
-        <v>1</v>
-      </c>
-      <c r="M279" t="inlineStr"/>
+      <c r="K279" t="n">
+        <v>1</v>
+      </c>
+      <c r="L279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -10292,18 +9769,15 @@
         <v>1232.7985</v>
       </c>
       <c r="G280" t="n">
-        <v>-289749.3167352499</v>
-      </c>
-      <c r="H280" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H280" t="inlineStr"/>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
-      <c r="L280" t="n">
-        <v>1</v>
-      </c>
-      <c r="M280" t="inlineStr"/>
+      <c r="K280" t="n">
+        <v>1</v>
+      </c>
+      <c r="L280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -10325,18 +9799,15 @@
         <v>1653.4848</v>
       </c>
       <c r="G281" t="n">
-        <v>-289749.3167352499</v>
-      </c>
-      <c r="H281" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H281" t="inlineStr"/>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
-      <c r="L281" t="n">
-        <v>1</v>
-      </c>
-      <c r="M281" t="inlineStr"/>
+      <c r="K281" t="n">
+        <v>1</v>
+      </c>
+      <c r="L281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -10358,18 +9829,15 @@
         <v>262.4129</v>
       </c>
       <c r="G282" t="n">
-        <v>-289749.3167352499</v>
-      </c>
-      <c r="H282" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H282" t="inlineStr"/>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
-      <c r="L282" t="n">
-        <v>1</v>
-      </c>
-      <c r="M282" t="inlineStr"/>
+      <c r="K282" t="n">
+        <v>1</v>
+      </c>
+      <c r="L282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -10391,18 +9859,15 @@
         <v>9841.3986</v>
       </c>
       <c r="G283" t="n">
-        <v>-289749.3167352499</v>
-      </c>
-      <c r="H283" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H283" t="inlineStr"/>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
-      <c r="L283" t="n">
-        <v>1</v>
-      </c>
-      <c r="M283" t="inlineStr"/>
+      <c r="K283" t="n">
+        <v>1</v>
+      </c>
+      <c r="L283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -10424,18 +9889,15 @@
         <v>5755.8201</v>
       </c>
       <c r="G284" t="n">
-        <v>-283993.4966352499</v>
-      </c>
-      <c r="H284" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H284" t="inlineStr"/>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
-      <c r="L284" t="n">
-        <v>1</v>
-      </c>
-      <c r="M284" t="inlineStr"/>
+      <c r="K284" t="n">
+        <v>1</v>
+      </c>
+      <c r="L284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -10457,18 +9919,15 @@
         <v>8626.222900000001</v>
       </c>
       <c r="G285" t="n">
-        <v>-275367.2737352499</v>
-      </c>
-      <c r="H285" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H285" t="inlineStr"/>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
-      <c r="L285" t="n">
-        <v>1</v>
-      </c>
-      <c r="M285" t="inlineStr"/>
+      <c r="K285" t="n">
+        <v>1</v>
+      </c>
+      <c r="L285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -10490,18 +9949,15 @@
         <v>11310.0912</v>
       </c>
       <c r="G286" t="n">
-        <v>-264057.1825352499</v>
-      </c>
-      <c r="H286" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H286" t="inlineStr"/>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
-      <c r="L286" t="n">
-        <v>1</v>
-      </c>
-      <c r="M286" t="inlineStr"/>
+      <c r="K286" t="n">
+        <v>1</v>
+      </c>
+      <c r="L286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -10523,18 +9979,15 @@
         <v>9442.259148380001</v>
       </c>
       <c r="G287" t="n">
-        <v>-254614.9233868699</v>
-      </c>
-      <c r="H287" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H287" t="inlineStr"/>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
-      <c r="L287" t="n">
-        <v>1</v>
-      </c>
-      <c r="M287" t="inlineStr"/>
+      <c r="K287" t="n">
+        <v>1</v>
+      </c>
+      <c r="L287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -10556,18 +10009,15 @@
         <v>4391.63121086</v>
       </c>
       <c r="G288" t="n">
-        <v>-254614.9233868699</v>
-      </c>
-      <c r="H288" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H288" t="inlineStr"/>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
-      <c r="L288" t="n">
-        <v>1</v>
-      </c>
-      <c r="M288" t="inlineStr"/>
+      <c r="K288" t="n">
+        <v>1</v>
+      </c>
+      <c r="L288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -10589,18 +10039,15 @@
         <v>1245.8789</v>
       </c>
       <c r="G289" t="n">
-        <v>-255860.8022868699</v>
-      </c>
-      <c r="H289" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H289" t="inlineStr"/>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
-      <c r="L289" t="n">
-        <v>1</v>
-      </c>
-      <c r="M289" t="inlineStr"/>
+      <c r="K289" t="n">
+        <v>1</v>
+      </c>
+      <c r="L289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -10622,18 +10069,15 @@
         <v>726.9195999999999</v>
       </c>
       <c r="G290" t="n">
-        <v>-255133.8826868699</v>
-      </c>
-      <c r="H290" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H290" t="inlineStr"/>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
-      <c r="L290" t="n">
-        <v>1</v>
-      </c>
-      <c r="M290" t="inlineStr"/>
+      <c r="K290" t="n">
+        <v>1</v>
+      </c>
+      <c r="L290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -10655,18 +10099,15 @@
         <v>13101.9517</v>
       </c>
       <c r="G291" t="n">
-        <v>-268235.8343868699</v>
-      </c>
-      <c r="H291" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H291" t="inlineStr"/>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
-      <c r="L291" t="n">
-        <v>1</v>
-      </c>
-      <c r="M291" t="inlineStr"/>
+      <c r="K291" t="n">
+        <v>1</v>
+      </c>
+      <c r="L291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -10688,18 +10129,15 @@
         <v>2694.7747</v>
       </c>
       <c r="G292" t="n">
-        <v>-265541.0596868699</v>
-      </c>
-      <c r="H292" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H292" t="inlineStr"/>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
-      <c r="L292" t="n">
-        <v>1</v>
-      </c>
-      <c r="M292" t="inlineStr"/>
+      <c r="K292" t="n">
+        <v>1</v>
+      </c>
+      <c r="L292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -10721,18 +10159,15 @@
         <v>100.435</v>
       </c>
       <c r="G293" t="n">
-        <v>-265641.4946868699</v>
-      </c>
-      <c r="H293" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H293" t="inlineStr"/>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
-      <c r="L293" t="n">
-        <v>1</v>
-      </c>
-      <c r="M293" t="inlineStr"/>
+      <c r="K293" t="n">
+        <v>1</v>
+      </c>
+      <c r="L293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -10754,18 +10189,15 @@
         <v>2723.5346</v>
       </c>
       <c r="G294" t="n">
-        <v>-262917.9600868699</v>
-      </c>
-      <c r="H294" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H294" t="inlineStr"/>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
-      <c r="L294" t="n">
-        <v>1</v>
-      </c>
-      <c r="M294" t="inlineStr"/>
+      <c r="K294" t="n">
+        <v>1</v>
+      </c>
+      <c r="L294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -10787,18 +10219,15 @@
         <v>1602.5794</v>
       </c>
       <c r="G295" t="n">
-        <v>-262917.9600868699</v>
-      </c>
-      <c r="H295" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H295" t="inlineStr"/>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
-      <c r="L295" t="n">
-        <v>1</v>
-      </c>
-      <c r="M295" t="inlineStr"/>
+      <c r="K295" t="n">
+        <v>1</v>
+      </c>
+      <c r="L295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -10820,18 +10249,15 @@
         <v>1405.2898</v>
       </c>
       <c r="G296" t="n">
-        <v>-261512.6702868699</v>
-      </c>
-      <c r="H296" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H296" t="inlineStr"/>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
-      <c r="L296" t="n">
-        <v>1</v>
-      </c>
-      <c r="M296" t="inlineStr"/>
+      <c r="K296" t="n">
+        <v>1</v>
+      </c>
+      <c r="L296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -10853,18 +10279,15 @@
         <v>96.6863</v>
       </c>
       <c r="G297" t="n">
-        <v>-261415.9839868699</v>
-      </c>
-      <c r="H297" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H297" t="inlineStr"/>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
-      <c r="L297" t="n">
-        <v>1</v>
-      </c>
-      <c r="M297" t="inlineStr"/>
+      <c r="K297" t="n">
+        <v>1</v>
+      </c>
+      <c r="L297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -10886,18 +10309,15 @@
         <v>37.1034</v>
       </c>
       <c r="G298" t="n">
-        <v>-261415.9839868699</v>
-      </c>
-      <c r="H298" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H298" t="inlineStr"/>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
-      <c r="L298" t="n">
-        <v>1</v>
-      </c>
-      <c r="M298" t="inlineStr"/>
+      <c r="K298" t="n">
+        <v>1</v>
+      </c>
+      <c r="L298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -10919,18 +10339,15 @@
         <v>61.4869</v>
       </c>
       <c r="G299" t="n">
-        <v>-261477.4708868699</v>
-      </c>
-      <c r="H299" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H299" t="inlineStr"/>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
-      <c r="L299" t="n">
-        <v>1</v>
-      </c>
-      <c r="M299" t="inlineStr"/>
+      <c r="K299" t="n">
+        <v>1</v>
+      </c>
+      <c r="L299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -10952,18 +10369,15 @@
         <v>1387.0106</v>
       </c>
       <c r="G300" t="n">
-        <v>-262864.4814868699</v>
-      </c>
-      <c r="H300" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H300" t="inlineStr"/>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
-      <c r="L300" t="n">
-        <v>1</v>
-      </c>
-      <c r="M300" t="inlineStr"/>
+      <c r="K300" t="n">
+        <v>1</v>
+      </c>
+      <c r="L300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -10985,18 +10399,15 @@
         <v>1435.1617</v>
       </c>
       <c r="G301" t="n">
-        <v>-262864.4814868699</v>
-      </c>
-      <c r="H301" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H301" t="inlineStr"/>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
-      <c r="L301" t="n">
-        <v>1</v>
-      </c>
-      <c r="M301" t="inlineStr"/>
+      <c r="K301" t="n">
+        <v>1</v>
+      </c>
+      <c r="L301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -11018,18 +10429,15 @@
         <v>451</v>
       </c>
       <c r="G302" t="n">
-        <v>-262413.4814868699</v>
-      </c>
-      <c r="H302" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H302" t="inlineStr"/>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
-      <c r="L302" t="n">
-        <v>1</v>
-      </c>
-      <c r="M302" t="inlineStr"/>
+      <c r="K302" t="n">
+        <v>1</v>
+      </c>
+      <c r="L302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -11051,18 +10459,15 @@
         <v>75.1253</v>
       </c>
       <c r="G303" t="n">
-        <v>-262338.3561868698</v>
-      </c>
-      <c r="H303" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H303" t="inlineStr"/>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
-      <c r="L303" t="n">
-        <v>1</v>
-      </c>
-      <c r="M303" t="inlineStr"/>
+      <c r="K303" t="n">
+        <v>1</v>
+      </c>
+      <c r="L303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -11084,18 +10489,15 @@
         <v>798.8058</v>
       </c>
       <c r="G304" t="n">
-        <v>-261539.5503868698</v>
-      </c>
-      <c r="H304" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H304" t="inlineStr"/>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
-      <c r="L304" t="n">
-        <v>1</v>
-      </c>
-      <c r="M304" t="inlineStr"/>
+      <c r="K304" t="n">
+        <v>1</v>
+      </c>
+      <c r="L304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -11117,18 +10519,15 @@
         <v>1742.2455</v>
       </c>
       <c r="G305" t="n">
-        <v>-263281.7958868698</v>
-      </c>
-      <c r="H305" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H305" t="inlineStr"/>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
-      <c r="L305" t="n">
-        <v>1</v>
-      </c>
-      <c r="M305" t="inlineStr"/>
+      <c r="K305" t="n">
+        <v>1</v>
+      </c>
+      <c r="L305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -11150,18 +10549,15 @@
         <v>639.4539</v>
       </c>
       <c r="G306" t="n">
-        <v>-262642.3419868698</v>
-      </c>
-      <c r="H306" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H306" t="inlineStr"/>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
-      <c r="L306" t="n">
-        <v>1</v>
-      </c>
-      <c r="M306" t="inlineStr"/>
+      <c r="K306" t="n">
+        <v>1</v>
+      </c>
+      <c r="L306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -11183,18 +10579,15 @@
         <v>534.4978</v>
       </c>
       <c r="G307" t="n">
-        <v>-262642.3419868698</v>
-      </c>
-      <c r="H307" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H307" t="inlineStr"/>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
-      <c r="L307" t="n">
-        <v>1</v>
-      </c>
-      <c r="M307" t="inlineStr"/>
+      <c r="K307" t="n">
+        <v>1</v>
+      </c>
+      <c r="L307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -11216,18 +10609,15 @@
         <v>1165.5022</v>
       </c>
       <c r="G308" t="n">
-        <v>-262642.3419868698</v>
-      </c>
-      <c r="H308" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H308" t="inlineStr"/>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
-      <c r="L308" t="n">
-        <v>1</v>
-      </c>
-      <c r="M308" t="inlineStr"/>
+      <c r="K308" t="n">
+        <v>1</v>
+      </c>
+      <c r="L308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -11249,18 +10639,15 @@
         <v>35.3513</v>
       </c>
       <c r="G309" t="n">
-        <v>-262642.3419868698</v>
-      </c>
-      <c r="H309" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H309" t="inlineStr"/>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
-      <c r="L309" t="n">
-        <v>1</v>
-      </c>
-      <c r="M309" t="inlineStr"/>
+      <c r="K309" t="n">
+        <v>1</v>
+      </c>
+      <c r="L309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -11282,18 +10669,15 @@
         <v>3161.7296</v>
       </c>
       <c r="G310" t="n">
-        <v>-259480.6123868698</v>
-      </c>
-      <c r="H310" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H310" t="inlineStr"/>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
-      <c r="L310" t="n">
-        <v>1</v>
-      </c>
-      <c r="M310" t="inlineStr"/>
+      <c r="K310" t="n">
+        <v>1</v>
+      </c>
+      <c r="L310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -11315,18 +10699,15 @@
         <v>1026.977</v>
       </c>
       <c r="G311" t="n">
-        <v>-260507.5893868698</v>
-      </c>
-      <c r="H311" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H311" t="inlineStr"/>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
-      <c r="L311" t="n">
-        <v>1</v>
-      </c>
-      <c r="M311" t="inlineStr"/>
+      <c r="K311" t="n">
+        <v>1</v>
+      </c>
+      <c r="L311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -11348,18 +10729,15 @@
         <v>330</v>
       </c>
       <c r="G312" t="n">
-        <v>-260837.5893868698</v>
-      </c>
-      <c r="H312" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H312" t="inlineStr"/>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
-      <c r="L312" t="n">
-        <v>1</v>
-      </c>
-      <c r="M312" t="inlineStr"/>
+      <c r="K312" t="n">
+        <v>1</v>
+      </c>
+      <c r="L312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -11381,18 +10759,15 @@
         <v>2000</v>
       </c>
       <c r="G313" t="n">
-        <v>-258837.5893868698</v>
-      </c>
-      <c r="H313" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H313" t="inlineStr"/>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
-      <c r="L313" t="n">
-        <v>1</v>
-      </c>
-      <c r="M313" t="inlineStr"/>
+      <c r="K313" t="n">
+        <v>1</v>
+      </c>
+      <c r="L313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -11414,18 +10789,15 @@
         <v>13.7142</v>
       </c>
       <c r="G314" t="n">
-        <v>-258851.3035868698</v>
-      </c>
-      <c r="H314" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H314" t="inlineStr"/>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
-      <c r="L314" t="n">
-        <v>1</v>
-      </c>
-      <c r="M314" t="inlineStr"/>
+      <c r="K314" t="n">
+        <v>1</v>
+      </c>
+      <c r="L314" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
